--- a/fvsOL/inst/extdata/databaseDescription.xlsx
+++ b/fvsOL/inst/extdata/databaseDescription.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Open-FVS\rFVS\shinyFVSOnlineDev\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\FVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7645C0CF-4F5A-48DF-AD81-A276064CC212}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A68A79D3-BC7B-441E-AF3E-2D30CDC564D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" firstSheet="42" activeTab="45" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OutputTableDescriptions" sheetId="1" r:id="rId1"/>
@@ -71,6 +71,7 @@
     <sheet name="CmpSummary_East" sheetId="51" r:id="rId56"/>
     <sheet name="CmpSummary2" sheetId="52" r:id="rId57"/>
     <sheet name="CmpSummary2_East" sheetId="53" r:id="rId58"/>
+    <sheet name="View_DWN" sheetId="61" r:id="rId59"/>
   </sheets>
   <definedNames>
     <definedName name="OLE_LINK3" localSheetId="17">FVS_Carbon!$D$5</definedName>
@@ -87,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4981" uniqueCount="1960">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5024" uniqueCount="1968">
   <si>
     <t>Table</t>
   </si>
@@ -6048,6 +6049,30 @@
   </si>
   <si>
     <t>FVS_Regen_Ingrow</t>
+  </si>
+  <si>
+    <t>Case_ID</t>
+  </si>
+  <si>
+    <t>DWD_Total_Cover</t>
+  </si>
+  <si>
+    <t>DWD_Total_Volume</t>
+  </si>
+  <si>
+    <t>Total cover of hard and soft down wood (%)</t>
+  </si>
+  <si>
+    <t>Reported in percent cover (%). The total columns estimate the total down wood cover (3” and larger) for hard and soft wood.</t>
+  </si>
+  <si>
+    <t>Total volume of soft and hard down wood (cuft/acre)</t>
+  </si>
+  <si>
+    <t>Reported in cuft/acre. The total estimates the total down wood volume for soft and hard decay class.</t>
+  </si>
+  <si>
+    <t>is a view of the total percent cover and cubic feet per acre volume of both soft and hard downed wood, pulled from the FVS_Down_Wood_Cov and FVS_Down_Wood_Vol tables</t>
   </si>
 </sst>
 </file>
@@ -6135,7 +6160,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -6193,6 +6218,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Excel Built-in Explanatory Text" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -6509,10 +6537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMK51"/>
+  <dimension ref="A1:AMK52"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6931,6 +6959,14 @@
       </c>
       <c r="B51" s="1" t="s">
         <v>85</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>1821</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>1967</v>
       </c>
     </row>
   </sheetData>
@@ -10585,7 +10621,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1B47B84-FCA3-4C5C-87A1-540887727794}">
   <dimension ref="A1:XFD53"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
@@ -29636,8 +29672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:AMK18"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -29912,7 +29948,7 @@
   <dimension ref="A1:AMK20"/>
   <sheetViews>
     <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="B20" sqref="B20:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -35021,7 +35057,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2A00-000000000000}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -35326,8 +35362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2D00-000000000000}">
   <dimension ref="A1:AMK70"/>
   <sheetViews>
-    <sheetView topLeftCell="A62" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -39230,7 +39266,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3100-000000000000}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
@@ -40622,6 +40658,274 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10766AA6-72AD-494C-B412-4045B85131AB}">
+  <dimension ref="A1:F33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.88671875" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.5546875" style="20" customWidth="1"/>
+    <col min="4" max="4" width="56.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.77734375" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.77734375" style="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>1960</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="20" t="s">
+        <v>1437</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="20" t="s">
+        <v>798</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>799</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="20" t="s">
+        <v>815</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>816</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="20" t="s">
+        <v>1961</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>1963</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="20" t="s">
+        <v>833</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>834</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="20" t="s">
+        <v>851</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>852</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="20" t="s">
+        <v>1962</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>1965</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C17" s="7"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C18" s="7"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C19" s="7"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+    </row>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+    </row>
+    <row r="25" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+    </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C26" s="7"/>
+    </row>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+    </row>
+    <row r="28" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+    </row>
+    <row r="29" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+    </row>
+    <row r="30" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+    </row>
+    <row r="31" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+    </row>
+    <row r="32" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AMK30"/>

--- a/fvsOL/inst/extdata/databaseDescription.xlsx
+++ b/fvsOL/inst/extdata/databaseDescription.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Open-FVS\rPkgsDev\fvsOL\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3DB2113-AAFD-4CFD-972E-C73511DBF627}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A832E7A-E8E4-4B52-8594-7A2CDAC9D5E1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OutputTableDescriptions" sheetId="1" r:id="rId1"/>
@@ -5730,9 +5730,6 @@
     <t>contains one line for each FVS run that is included in the composite tables.</t>
   </si>
   <si>
-    <t>https://www.fs.fed.us/.ftproot/pub/fmsc/ftp/fvs/docs/gtr/DBSUserGuide_2020.pdf</t>
-  </si>
-  <si>
     <t>Basal Area (sq. ft/acre)</t>
   </si>
   <si>
@@ -6225,6 +6222,9 @@
   </si>
   <si>
     <t>contains a summary by species of the trees per acre, percentage of total, and average height for all trees, best trees, and small trees that regenerated during a given tally.</t>
+  </si>
+  <si>
+    <t>https://www.fs.fed.us/.ftproot/pub/fmsc/ftp/fvs/docs/gtr/DBSUserGuide.pdf</t>
   </si>
 </sst>
 </file>
@@ -6691,7 +6691,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
@@ -6808,10 +6808,10 @@
     </row>
     <row r="14" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
+        <v>1954</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>1955</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>1956</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -6883,10 +6883,10 @@
     </row>
     <row r="23" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
+        <v>1943</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>1944</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>1945</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
@@ -7046,12 +7046,12 @@
         <v>68</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>69</v>
@@ -7126,7 +7126,7 @@
         <v>1808</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
     </row>
   </sheetData>
@@ -7414,7 +7414,7 @@
         <v>90</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -7787,7 +7787,7 @@
         <v>109</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
@@ -7879,7 +7879,7 @@
         <v>376</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>109</v>
@@ -7913,7 +7913,7 @@
         <v>109</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
@@ -7949,7 +7949,7 @@
         <v>386</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>124</v>
@@ -7963,7 +7963,7 @@
         <v>388</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>124</v>
@@ -8005,7 +8005,7 @@
         <v>396</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>109</v>
@@ -8258,7 +8258,7 @@
         <v>109</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -8350,7 +8350,7 @@
         <v>376</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="C22" s="21" t="s">
         <v>109</v>
@@ -8420,7 +8420,7 @@
         <v>386</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="C27" s="21" t="s">
         <v>124</v>
@@ -8434,7 +8434,7 @@
         <v>388</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="C28" s="21" t="s">
         <v>124</v>
@@ -8728,7 +8728,7 @@
         <v>109</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
@@ -8820,7 +8820,7 @@
         <v>376</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>109</v>
@@ -8868,7 +8868,7 @@
         <v>109</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -8890,7 +8890,7 @@
         <v>386</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>124</v>
@@ -8904,7 +8904,7 @@
         <v>388</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>124</v>
@@ -8946,7 +8946,7 @@
         <v>396</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>109</v>
@@ -9199,7 +9199,7 @@
         <v>109</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
@@ -9291,7 +9291,7 @@
         <v>376</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>109</v>
@@ -9339,7 +9339,7 @@
         <v>109</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -9361,7 +9361,7 @@
         <v>386</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>124</v>
@@ -9375,7 +9375,7 @@
         <v>388</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>124</v>
@@ -9417,7 +9417,7 @@
         <v>396</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>109</v>
@@ -9608,13 +9608,13 @@
         <v>418</v>
       </c>
       <c r="B11" s="7" t="s">
+        <v>1875</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>1876</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>1877</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -9622,13 +9622,13 @@
         <v>419</v>
       </c>
       <c r="B12" s="7" t="s">
+        <v>1877</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>1878</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>1879</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -9636,13 +9636,13 @@
         <v>420</v>
       </c>
       <c r="B13" s="7" t="s">
+        <v>1879</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>1880</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>1881</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -9650,13 +9650,13 @@
         <v>421</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>1881</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>1882</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>1883</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -9730,7 +9730,7 @@
         <v>109</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -9772,7 +9772,7 @@
         <v>109</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -10007,13 +10007,13 @@
         <v>418</v>
       </c>
       <c r="B11" s="7" t="s">
+        <v>1875</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>1876</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>1877</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -10021,13 +10021,13 @@
         <v>419</v>
       </c>
       <c r="B12" s="7" t="s">
+        <v>1877</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>1878</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>1879</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -10035,13 +10035,13 @@
         <v>420</v>
       </c>
       <c r="B13" s="7" t="s">
+        <v>1879</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>1880</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>1881</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -10049,13 +10049,13 @@
         <v>421</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>1881</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>1882</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>1883</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -10143,7 +10143,7 @@
         <v>109</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
@@ -10781,8 +10781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1B47B84-FCA3-4C5C-87A1-540887727794}">
   <dimension ref="A1:XFD54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10804,7 +10804,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>1853</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -10897,7 +10897,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="B14" s="18" t="s">
         <v>1797</v>
@@ -10908,7 +10908,7 @@
         <v>22</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>1853</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -10916,7 +10916,7 @@
         <v>23</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>1853</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="17" spans="1:16384" x14ac:dyDescent="0.3">
@@ -10969,7 +10969,7 @@
     </row>
     <row r="23" spans="1:16384" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="B23" s="18" t="s">
         <v>1801</v>
@@ -27519,7 +27519,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="B44" s="18" t="s">
         <v>1806</v>
@@ -27538,7 +27538,7 @@
         <v>72</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>1853</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -27546,7 +27546,7 @@
         <v>73</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>1853</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -27554,7 +27554,7 @@
         <v>75</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>1853</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -27562,7 +27562,7 @@
         <v>77</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>1853</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -27570,7 +27570,7 @@
         <v>79</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>1853</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -27578,7 +27578,7 @@
         <v>81</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>1853</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -27586,7 +27586,7 @@
         <v>83</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>1853</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -27594,7 +27594,7 @@
         <v>1807</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>1853</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -27602,64 +27602,52 @@
         <v>1808</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>1853</v>
+        <v>2017</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://www.fs.fed.us/.ftproot/pub/fmsc/ftp/fvs/docs/gtr/DBSUserGuide.pdf" xr:uid="{7AB3B3FA-DB21-4485-8FF0-94D82696A62C}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{FD67315F-710E-429D-AC3A-EFB0DA00A9CA}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{0F3E2B57-13BB-4C0B-AB0A-F7381F24A750}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{6383CC25-65E8-4D42-AC60-B155A27F7B8A}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{EC1C21FE-116A-4076-851E-41352AF9B3DC}"/>
-    <hyperlink ref="B7" r:id="rId6" xr:uid="{CD80295B-3795-4B63-943D-840133CA0420}"/>
-    <hyperlink ref="B8" r:id="rId7" xr:uid="{9E4D5A88-AB08-4735-9E18-A880F8A8708D}"/>
-    <hyperlink ref="B9" r:id="rId8" xr:uid="{DF3EDD72-0003-4ABA-8C56-FBC37753692A}"/>
-    <hyperlink ref="B10" r:id="rId9" xr:uid="{27E9670D-9882-44DD-ABC9-A63360AC5CFA}"/>
-    <hyperlink ref="B11" r:id="rId10" xr:uid="{B9510326-9C39-4D06-9A0C-48F77C49A871}"/>
-    <hyperlink ref="B13" r:id="rId11" xr:uid="{1710F703-FCF8-472C-8FA7-A9AD17F07727}"/>
-    <hyperlink ref="B17" r:id="rId12" xr:uid="{5EC4CA8F-D97F-45C7-8BE0-BD278A494CDB}"/>
-    <hyperlink ref="B19" r:id="rId13" xr:uid="{4B2B86F5-EA91-4974-B56A-A7AE4CA49F90}"/>
-    <hyperlink ref="B20" r:id="rId14" xr:uid="{AFAB471B-7A69-4DAF-8949-6A91B6FFFC07}"/>
-    <hyperlink ref="B18" r:id="rId15" xr:uid="{EC5F9BC2-DE24-49D4-99A1-66790FF8F46E}"/>
-    <hyperlink ref="B21" r:id="rId16" xr:uid="{966CBB8C-2DCA-4E88-8C08-FD91CFA4CF5A}"/>
-    <hyperlink ref="B22" r:id="rId17" xr:uid="{FE12AEA1-A63F-48E8-961C-0C0D3A7680B8}"/>
-    <hyperlink ref="B24" r:id="rId18" xr:uid="{241045C4-0738-4B09-9B7B-0AD3DC3D3AEA}"/>
-    <hyperlink ref="B25" r:id="rId19" xr:uid="{9AD1ECAE-5875-48F8-9801-C085F1AEFAF6}"/>
-    <hyperlink ref="B26" r:id="rId20" xr:uid="{362AFE7D-79AA-40DC-A686-48016BC45904}"/>
-    <hyperlink ref="B27" r:id="rId21" xr:uid="{C19A4BE5-3F02-4770-ADAF-84DD7020B8E4}"/>
-    <hyperlink ref="B28" r:id="rId22" xr:uid="{D37E3734-4FFB-419A-AF79-BC8B51342916}"/>
-    <hyperlink ref="B29" r:id="rId23" xr:uid="{0AED6549-C701-4467-B2CF-D0F12936BCFA}"/>
-    <hyperlink ref="B30" r:id="rId24" xr:uid="{CBD7478E-FA69-48CC-BAB6-4DD1762834BB}"/>
-    <hyperlink ref="B31" r:id="rId25" xr:uid="{38A818A1-6A24-422D-9BA5-FD5006E36165}"/>
-    <hyperlink ref="B33" r:id="rId26" xr:uid="{E1108ECA-32E2-4C4D-8D77-D7C6F6F8B2CC}"/>
-    <hyperlink ref="B34" r:id="rId27" xr:uid="{751C0E1B-99E4-473F-8A79-2BDF7BE4D92E}"/>
-    <hyperlink ref="B35" r:id="rId28" xr:uid="{90EE99D2-FD00-4A8D-95C4-C88D5374FADB}"/>
-    <hyperlink ref="B36" r:id="rId29" xr:uid="{461D5C4F-BE00-48A0-B09F-50D971584017}"/>
-    <hyperlink ref="B37" r:id="rId30" xr:uid="{85E179D0-9627-4E94-BC24-AB71A69C4BD2}"/>
-    <hyperlink ref="B38" r:id="rId31" xr:uid="{5FEA2701-7CC0-477A-A972-7390B3A39071}"/>
-    <hyperlink ref="B39" r:id="rId32" xr:uid="{1D8A030A-02A2-4883-8176-4714B2BC9DEB}"/>
-    <hyperlink ref="B40" r:id="rId33" xr:uid="{0C79D643-E011-4053-8C54-7D6E60A04471}"/>
-    <hyperlink ref="B41" r:id="rId34" xr:uid="{38FDC458-9EC3-492C-BBBA-8F4DAEC13C85}"/>
-    <hyperlink ref="B42" r:id="rId35" xr:uid="{7AC6C4FD-5AE1-4C9D-9E8F-7D69628B469D}"/>
-    <hyperlink ref="B43" r:id="rId36" xr:uid="{9D356455-1C91-485E-9CC7-3D8E5D7554A5}"/>
-    <hyperlink ref="B44" r:id="rId37" xr:uid="{189B0F9F-2F20-44F9-A7F7-81494AB2D9E4}"/>
-    <hyperlink ref="B45" r:id="rId38" xr:uid="{6BBB86E0-F72B-4740-BE1D-D1B5F4E16E45}"/>
-    <hyperlink ref="B32" r:id="rId39" xr:uid="{46745855-CDC8-40D6-9BCB-5F89CA72C370}"/>
-    <hyperlink ref="B15" r:id="rId40" display="https://www.fs.fed.us/.ftproot/pub/fmsc/ftp/fvs/docs/gtr/DBSUserGuide.pdf" xr:uid="{A98E5611-4E92-4F20-9FB2-76FD64B947F4}"/>
-    <hyperlink ref="B16" r:id="rId41" display="https://www.fs.fed.us/.ftproot/pub/fmsc/ftp/fvs/docs/gtr/DBSUserGuide.pdf" xr:uid="{1A2CF046-74D2-4C9C-A284-8595C354829E}"/>
-    <hyperlink ref="B46" r:id="rId42" display="https://www.fs.fed.us/.ftproot/pub/fmsc/ftp/fvs/docs/gtr/DBSUserGuide.pdf" xr:uid="{8993B95C-A6A7-4D84-A33B-CBDA33E96DC8}"/>
-    <hyperlink ref="B47" r:id="rId43" display="https://www.fs.fed.us/.ftproot/pub/fmsc/ftp/fvs/docs/gtr/DBSUserGuide.pdf" xr:uid="{8033814E-8AE1-4DB9-AD90-41BDFD44F710}"/>
-    <hyperlink ref="B48" r:id="rId44" display="https://www.fs.fed.us/.ftproot/pub/fmsc/ftp/fvs/docs/gtr/DBSUserGuide.pdf" xr:uid="{1EECDFFA-6163-462D-B730-9709DA44E032}"/>
-    <hyperlink ref="B49" r:id="rId45" display="https://www.fs.fed.us/.ftproot/pub/fmsc/ftp/fvs/docs/gtr/DBSUserGuide.pdf" xr:uid="{B9709C33-4C81-49DC-8010-29CF038C2BDB}"/>
-    <hyperlink ref="B50" r:id="rId46" display="https://www.fs.fed.us/.ftproot/pub/fmsc/ftp/fvs/docs/gtr/DBSUserGuide.pdf" xr:uid="{B3F46F6A-FAE0-4518-9EBD-610F8846F0FA}"/>
-    <hyperlink ref="B51" r:id="rId47" display="https://www.fs.fed.us/.ftproot/pub/fmsc/ftp/fvs/docs/gtr/DBSUserGuide.pdf" xr:uid="{A8BDFBF6-7676-4861-BB8D-9F54AFBEFC2E}"/>
-    <hyperlink ref="B52" r:id="rId48" display="https://www.fs.fed.us/.ftproot/pub/fmsc/ftp/fvs/docs/gtr/DBSUserGuide.pdf" xr:uid="{AA8B3B75-E22E-4541-B8D6-882ACD066A6B}"/>
-    <hyperlink ref="B53" r:id="rId49" display="https://www.fs.fed.us/.ftproot/pub/fmsc/ftp/fvs/docs/gtr/DBSUserGuide.pdf" xr:uid="{209D07D0-08A9-435E-9A9A-906197318F8E}"/>
-    <hyperlink ref="B54" r:id="rId50" display="https://www.fs.fed.us/.ftproot/pub/fmsc/ftp/fvs/docs/gtr/DBSUserGuide.pdf" xr:uid="{3AC97172-A4DB-408E-BCAE-9DE94D5E632B}"/>
-    <hyperlink ref="B12" r:id="rId51" xr:uid="{E47B01FB-34E0-4BD6-AF62-E1A432DF30C6}"/>
-    <hyperlink ref="B23" r:id="rId52" xr:uid="{427640DF-2808-48E2-BC15-3C466EA38D05}"/>
-    <hyperlink ref="B14" r:id="rId53" xr:uid="{A803F91B-DA5A-42EF-AFF5-9AE1F649F675}"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{FD67315F-710E-429D-AC3A-EFB0DA00A9CA}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{0F3E2B57-13BB-4C0B-AB0A-F7381F24A750}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{6383CC25-65E8-4D42-AC60-B155A27F7B8A}"/>
+    <hyperlink ref="B6" r:id="rId4" xr:uid="{EC1C21FE-116A-4076-851E-41352AF9B3DC}"/>
+    <hyperlink ref="B7" r:id="rId5" xr:uid="{CD80295B-3795-4B63-943D-840133CA0420}"/>
+    <hyperlink ref="B8" r:id="rId6" xr:uid="{9E4D5A88-AB08-4735-9E18-A880F8A8708D}"/>
+    <hyperlink ref="B9" r:id="rId7" xr:uid="{DF3EDD72-0003-4ABA-8C56-FBC37753692A}"/>
+    <hyperlink ref="B10" r:id="rId8" xr:uid="{27E9670D-9882-44DD-ABC9-A63360AC5CFA}"/>
+    <hyperlink ref="B11" r:id="rId9" xr:uid="{B9510326-9C39-4D06-9A0C-48F77C49A871}"/>
+    <hyperlink ref="B13" r:id="rId10" xr:uid="{1710F703-FCF8-472C-8FA7-A9AD17F07727}"/>
+    <hyperlink ref="B17" r:id="rId11" xr:uid="{5EC4CA8F-D97F-45C7-8BE0-BD278A494CDB}"/>
+    <hyperlink ref="B19" r:id="rId12" xr:uid="{4B2B86F5-EA91-4974-B56A-A7AE4CA49F90}"/>
+    <hyperlink ref="B20" r:id="rId13" xr:uid="{AFAB471B-7A69-4DAF-8949-6A91B6FFFC07}"/>
+    <hyperlink ref="B18" r:id="rId14" xr:uid="{EC5F9BC2-DE24-49D4-99A1-66790FF8F46E}"/>
+    <hyperlink ref="B21" r:id="rId15" xr:uid="{966CBB8C-2DCA-4E88-8C08-FD91CFA4CF5A}"/>
+    <hyperlink ref="B22" r:id="rId16" xr:uid="{FE12AEA1-A63F-48E8-961C-0C0D3A7680B8}"/>
+    <hyperlink ref="B24" r:id="rId17" xr:uid="{241045C4-0738-4B09-9B7B-0AD3DC3D3AEA}"/>
+    <hyperlink ref="B25" r:id="rId18" xr:uid="{9AD1ECAE-5875-48F8-9801-C085F1AEFAF6}"/>
+    <hyperlink ref="B26" r:id="rId19" xr:uid="{362AFE7D-79AA-40DC-A686-48016BC45904}"/>
+    <hyperlink ref="B27" r:id="rId20" xr:uid="{C19A4BE5-3F02-4770-ADAF-84DD7020B8E4}"/>
+    <hyperlink ref="B28" r:id="rId21" xr:uid="{D37E3734-4FFB-419A-AF79-BC8B51342916}"/>
+    <hyperlink ref="B29" r:id="rId22" xr:uid="{0AED6549-C701-4467-B2CF-D0F12936BCFA}"/>
+    <hyperlink ref="B30" r:id="rId23" xr:uid="{CBD7478E-FA69-48CC-BAB6-4DD1762834BB}"/>
+    <hyperlink ref="B31" r:id="rId24" xr:uid="{38A818A1-6A24-422D-9BA5-FD5006E36165}"/>
+    <hyperlink ref="B33" r:id="rId25" xr:uid="{E1108ECA-32E2-4C4D-8D77-D7C6F6F8B2CC}"/>
+    <hyperlink ref="B34" r:id="rId26" xr:uid="{751C0E1B-99E4-473F-8A79-2BDF7BE4D92E}"/>
+    <hyperlink ref="B35" r:id="rId27" xr:uid="{90EE99D2-FD00-4A8D-95C4-C88D5374FADB}"/>
+    <hyperlink ref="B36" r:id="rId28" xr:uid="{461D5C4F-BE00-48A0-B09F-50D971584017}"/>
+    <hyperlink ref="B37" r:id="rId29" xr:uid="{85E179D0-9627-4E94-BC24-AB71A69C4BD2}"/>
+    <hyperlink ref="B38" r:id="rId30" xr:uid="{5FEA2701-7CC0-477A-A972-7390B3A39071}"/>
+    <hyperlink ref="B39" r:id="rId31" xr:uid="{1D8A030A-02A2-4883-8176-4714B2BC9DEB}"/>
+    <hyperlink ref="B40" r:id="rId32" xr:uid="{0C79D643-E011-4053-8C54-7D6E60A04471}"/>
+    <hyperlink ref="B41" r:id="rId33" xr:uid="{38FDC458-9EC3-492C-BBBA-8F4DAEC13C85}"/>
+    <hyperlink ref="B42" r:id="rId34" xr:uid="{7AC6C4FD-5AE1-4C9D-9E8F-7D69628B469D}"/>
+    <hyperlink ref="B43" r:id="rId35" xr:uid="{9D356455-1C91-485E-9CC7-3D8E5D7554A5}"/>
+    <hyperlink ref="B44" r:id="rId36" xr:uid="{189B0F9F-2F20-44F9-A7F7-81494AB2D9E4}"/>
+    <hyperlink ref="B45" r:id="rId37" xr:uid="{6BBB86E0-F72B-4740-BE1D-D1B5F4E16E45}"/>
+    <hyperlink ref="B32" r:id="rId38" xr:uid="{46745855-CDC8-40D6-9BCB-5F89CA72C370}"/>
+    <hyperlink ref="B12" r:id="rId39" xr:uid="{E47B01FB-34E0-4BD6-AF62-E1A432DF30C6}"/>
+    <hyperlink ref="B23" r:id="rId40" xr:uid="{427640DF-2808-48E2-BC15-3C466EA38D05}"/>
+    <hyperlink ref="B14" r:id="rId41" xr:uid="{A803F91B-DA5A-42EF-AFF5-9AE1F649F675}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -28420,7 +28408,7 @@
         <v>643</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>109</v>
@@ -28434,7 +28422,7 @@
         <v>645</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>109</v>
@@ -28482,7 +28470,7 @@
         <v>109</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -28496,7 +28484,7 @@
         <v>109</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
@@ -28751,7 +28739,7 @@
         <v>643</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>109</v>
@@ -28765,7 +28753,7 @@
         <v>645</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>109</v>
@@ -28813,7 +28801,7 @@
         <v>109</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -28827,7 +28815,7 @@
         <v>109</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
@@ -29008,44 +28996,44 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="B4" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D4" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="B5" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>109</v>
       </c>
       <c r="D5" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="B6" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>124</v>
       </c>
       <c r="D6" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -29053,13 +29041,13 @@
         <v>686</v>
       </c>
       <c r="B7" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>109</v>
       </c>
       <c r="D7" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -29067,13 +29055,13 @@
         <v>688</v>
       </c>
       <c r="B8" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>109</v>
       </c>
       <c r="D8" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -29081,13 +29069,13 @@
         <v>690</v>
       </c>
       <c r="B9" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>109</v>
       </c>
       <c r="D9" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -29095,13 +29083,13 @@
         <v>692</v>
       </c>
       <c r="B10" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>109</v>
       </c>
       <c r="D10" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -29115,7 +29103,7 @@
         <v>109</v>
       </c>
       <c r="D11" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -29123,13 +29111,13 @@
         <v>696</v>
       </c>
       <c r="B12" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>109</v>
       </c>
       <c r="D12" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -29137,13 +29125,13 @@
         <v>698</v>
       </c>
       <c r="B13" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>109</v>
       </c>
       <c r="D13" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -31396,7 +31384,7 @@
         <v>947</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>109</v>
@@ -31463,86 +31451,86 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>90</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>90</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>90</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>90</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>90</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>90</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -31578,7 +31566,7 @@
         <v>967</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>109</v>
@@ -31673,86 +31661,86 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>90</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>90</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>90</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>90</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>90</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>90</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -31788,7 +31776,7 @@
         <v>993</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>109</v>
@@ -31883,86 +31871,86 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>90</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>90</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>90</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>90</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>90</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>90</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -32012,7 +32000,7 @@
         <v>1022</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>90</v>
@@ -32323,13 +32311,13 @@
         <v>1050</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>1895</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>1896</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
@@ -32337,7 +32325,7 @@
         <v>1051</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>109</v>
@@ -33119,13 +33107,13 @@
         <v>1162</v>
       </c>
       <c r="B11" s="7" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>1897</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>1898</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -33428,7 +33416,7 @@
         <v>109</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
@@ -33442,7 +33430,7 @@
         <v>109</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
@@ -33456,7 +33444,7 @@
         <v>109</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
@@ -33470,7 +33458,7 @@
         <v>109</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
@@ -33484,7 +33472,7 @@
         <v>109</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
@@ -33498,7 +33486,7 @@
         <v>109</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -34140,13 +34128,13 @@
         <v>131</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>1853</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>1854</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>1855</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -34235,7 +34223,7 @@
     </row>
     <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>151</v>
@@ -34300,7 +34288,7 @@
         <v>109</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -34308,13 +34296,13 @@
         <v>164</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>1857</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>1858</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>1859</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>24</v>
@@ -34331,7 +34319,7 @@
         <v>109</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -34367,7 +34355,7 @@
         <v>173</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>109</v>
@@ -34612,13 +34600,13 @@
         <v>1316</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>109</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
     </row>
   </sheetData>
@@ -34717,7 +34705,7 @@
         <v>1319</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="C6" t="s">
         <v>109</v>
@@ -34954,7 +34942,7 @@
         <v>1352</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
     </row>
   </sheetData>
@@ -35206,7 +35194,7 @@
         <v>90</v>
       </c>
       <c r="D6" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -35390,13 +35378,13 @@
         <v>1396</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>124</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -35415,30 +35403,30 @@
     </row>
     <row r="13" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>124</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="14" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>124</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
     </row>
   </sheetData>
@@ -36074,7 +36062,7 @@
         <v>109</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -36292,7 +36280,7 @@
         <v>1515</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="C38" s="15" t="s">
         <v>109</v>
@@ -36889,7 +36877,7 @@
         <v>131</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>109</v>
@@ -36979,7 +36967,7 @@
         <v>109</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -37007,12 +36995,12 @@
         <v>109</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>151</v>
@@ -37035,7 +37023,7 @@
         <v>109</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -37091,7 +37079,7 @@
         <v>109</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -37538,7 +37526,7 @@
         <v>109</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -37756,7 +37744,7 @@
         <v>1515</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="C39" s="15" t="s">
         <v>109</v>
@@ -38555,7 +38543,7 @@
         <v>109</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
@@ -38975,13 +38963,13 @@
         <v>418</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>109</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -38989,13 +38977,13 @@
         <v>419</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>109</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -39003,13 +38991,13 @@
         <v>420</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>109</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -39017,13 +39005,13 @@
         <v>421</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>109</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -39360,13 +39348,13 @@
         <v>418</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>109</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -39374,13 +39362,13 @@
         <v>419</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>109</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -39388,13 +39376,13 @@
         <v>420</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>109</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -39402,13 +39390,13 @@
         <v>421</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>109</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -39492,7 +39480,7 @@
         <v>109</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -39747,7 +39735,7 @@
         <v>1691</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>109</v>
@@ -39907,7 +39895,7 @@
         <v>109</v>
       </c>
       <c r="D17" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="19.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -39915,7 +39903,7 @@
         <v>1714</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>109</v>
@@ -39935,7 +39923,7 @@
         <v>109</v>
       </c>
       <c r="D19" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="19.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -39971,7 +39959,7 @@
         <v>1721</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>109</v>
@@ -40095,7 +40083,7 @@
         <v>1691</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>109</v>
@@ -40263,7 +40251,7 @@
         <v>1714</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>109</v>
@@ -40283,7 +40271,7 @@
         <v>109</v>
       </c>
       <c r="D19" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="19.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -40319,7 +40307,7 @@
         <v>1721</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>109</v>
@@ -40474,7 +40462,7 @@
         <v>1691</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>109</v>
@@ -40676,7 +40664,7 @@
         <v>109</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -40823,7 +40811,7 @@
         <v>1691</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>109</v>
@@ -41025,7 +41013,7 @@
         <v>109</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -41087,7 +41075,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>89</v>
@@ -41157,16 +41145,16 @@
     </row>
     <row r="7" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>1949</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>1950</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>1951</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
@@ -41199,16 +41187,16 @@
     </row>
     <row r="10" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="20" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>1951</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>1952</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>1953</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -41426,7 +41414,7 @@
         <v>131</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>109</v>
@@ -41594,7 +41582,7 @@
         <v>164</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>109</v>
@@ -41614,7 +41602,7 @@
         <v>109</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -41650,7 +41638,7 @@
         <v>173</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>109</v>
@@ -41897,7 +41885,7 @@
         <v>131</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>109</v>
@@ -42407,7 +42395,7 @@
         <v>126</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>124</v>
@@ -42477,7 +42465,7 @@
         <v>251</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>124</v>

--- a/fvsOL/inst/extdata/databaseDescription.xlsx
+++ b/fvsOL/inst/extdata/databaseDescription.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitFVS\ForestVegetationSimulator-Interface\fvsOLdev\inst\extdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitFVS\ForestVegetationSimulator-Interface\fvsOL\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3609B0F8-B680-4A04-BF46-F829B7C4CE79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E3FC6DC-1604-41A1-9C72-023F9F4EA44B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ColorKey" sheetId="1" r:id="rId1"/>
@@ -123,7 +123,8 @@
     <sheet name="View_DWN_Metric" sheetId="108" r:id="rId108"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">GuideLinks!$A$1:$B$101</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">GuideLinks!$A$1:$B$103</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">OutputTableDescriptions!$A$1:$B$101</definedName>
     <definedName name="OLE_LINK3" localSheetId="31">FVS_Carbon!$D$5</definedName>
     <definedName name="OLE_LINK3" localSheetId="89">StdStk!$D$5</definedName>
     <definedName name="OLE_LINK3" localSheetId="91">StdStk_East!$D$5</definedName>
@@ -138,7 +139,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10030" uniqueCount="2895">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10034" uniqueCount="2895">
   <si>
     <t>Tab Color</t>
   </si>
@@ -15913,8 +15914,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B90" sqref="B90"/>
+    <sheetView topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A78" sqref="A78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="77.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15933,788 +15934,788 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
-        <v>37</v>
+      <c r="A2" s="38" t="s">
+        <v>124</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>38</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="25" t="s">
-        <v>12</v>
+      <c r="A3" s="34" t="s">
+        <v>126</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>2858</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="27" t="s">
-        <v>14</v>
+      <c r="A4" s="36" t="s">
+        <v>129</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>2858</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="25" t="s">
-        <v>39</v>
+      <c r="A5" s="37" t="s">
+        <v>131</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>40</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="27" t="s">
-        <v>41</v>
+      <c r="A6" s="35" t="s">
+        <v>128</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>2853</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="28" t="s">
-        <v>16</v>
+      <c r="A7" s="34" t="s">
+        <v>132</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>2854</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="29" t="s">
-        <v>18</v>
+      <c r="A8" s="36" t="s">
+        <v>135</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>2859</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="28" t="s">
-        <v>42</v>
+      <c r="A9" s="37" t="s">
+        <v>137</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>43</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="29" t="s">
-        <v>44</v>
+      <c r="A10" s="35" t="s">
+        <v>134</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>2852</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="25" t="s">
-        <v>45</v>
+      <c r="A11" s="34" t="s">
+        <v>138</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>46</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="25" t="s">
-        <v>47</v>
+      <c r="A12" s="36" t="s">
+        <v>141</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>2855</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="27" t="s">
-        <v>48</v>
+      <c r="A13" s="37" t="s">
+        <v>143</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>2855</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="25" t="s">
-        <v>49</v>
+      <c r="A14" s="35" t="s">
+        <v>140</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>2856</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="27" t="s">
-        <v>50</v>
+      <c r="A15" s="25" t="s">
+        <v>61</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>2856</v>
+        <v>2868</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="25" t="s">
-        <v>51</v>
+      <c r="A16" s="28" t="s">
+        <v>63</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>2860</v>
+        <v>2868</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="27" t="s">
-        <v>52</v>
+      <c r="A17" s="29" t="s">
+        <v>64</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>2861</v>
+        <v>2868</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="25" t="s">
-        <v>53</v>
+      <c r="A18" s="27" t="s">
+        <v>62</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>2857</v>
+        <v>2868</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="27" t="s">
-        <v>54</v>
+      <c r="A19" s="25" t="s">
+        <v>79</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>2862</v>
+        <v>2877</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="28" t="s">
-        <v>55</v>
+      <c r="A20" s="32" t="s">
+        <v>80</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>2863</v>
+        <v>2877</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="29" t="s">
-        <v>56</v>
+      <c r="A21" s="25" t="s">
+        <v>94</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>2864</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="25" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>2865</v>
+        <v>2881</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="27" t="s">
-        <v>58</v>
+      <c r="A23" s="25" t="s">
+        <v>65</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>2866</v>
+        <v>2870</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="28" t="s">
-        <v>59</v>
+      <c r="A24" s="27" t="s">
+        <v>66</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>2867</v>
+        <v>2871</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="29" t="s">
-        <v>60</v>
+      <c r="A25" s="25" t="s">
+        <v>37</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>2867</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="25" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>2868</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="27" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>2868</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="28" t="s">
-        <v>63</v>
+      <c r="A28" s="25" t="s">
+        <v>45</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>2868</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="29" t="s">
-        <v>64</v>
+      <c r="A29" s="25" t="s">
+        <v>67</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>2868</v>
+        <v>2872</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="25" t="s">
-        <v>65</v>
+      <c r="A30" s="27" t="s">
+        <v>68</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>2870</v>
+        <v>2872</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="27" t="s">
-        <v>66</v>
+      <c r="A31" s="25" t="s">
+        <v>57</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>2871</v>
+        <v>2865</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="25" t="s">
-        <v>67</v>
+      <c r="A32" s="28" t="s">
+        <v>59</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>2872</v>
+        <v>2867</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="27" t="s">
-        <v>68</v>
+      <c r="A33" s="29" t="s">
+        <v>60</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>2872</v>
+        <v>2867</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="25" t="s">
+      <c r="A34" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34" s="26" t="s">
+        <v>2866</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="26" t="s">
+        <v>2856</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" s="26" t="s">
+        <v>2856</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" s="26" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" s="26" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" s="26" t="s">
+        <v>2860</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B40" s="26" t="s">
+        <v>2861</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="B41" s="26" t="s">
+        <v>2879</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="B42" s="26" t="s">
+        <v>2879</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="B43" s="26" t="s">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" s="26" t="s">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="B45" s="26" t="s">
+        <v>2887</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="B46" s="26" t="s">
+        <v>2887</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="B47" s="26" t="s">
+        <v>2886</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="B48" s="26" t="s">
+        <v>2886</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B49" s="26" t="s">
+        <v>2873</v>
+      </c>
+      <c r="C49" s="33"/>
+    </row>
+    <row r="50" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="B50" s="26" t="s">
+        <v>2873</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="B34" s="26" t="s">
+      <c r="B51" s="26" t="s">
         <v>2869</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="27" t="s">
+    <row r="52" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="B35" s="26" t="s">
+      <c r="B52" s="26" t="s">
         <v>2869</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="B36" s="26" t="s">
-        <v>2873</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="B37" s="26" t="s">
-        <v>2873</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="B38" s="26" t="s">
-        <v>2874</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="B39" s="26" t="s">
-        <v>2874</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="B40" s="26" t="s">
-        <v>2875</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="B41" s="26" t="s">
-        <v>2875</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="B42" s="26" t="s">
-        <v>2876</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="B43" s="26" t="s">
-        <v>2876</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="B44" s="26" t="s">
-        <v>2877</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="B45" s="26" t="s">
-        <v>2877</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="B46" s="26" t="s">
-        <v>2878</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="B47" s="26" t="s">
-        <v>2878</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="B48" s="26" t="s">
-        <v>2879</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="B49" s="26" t="s">
-        <v>2879</v>
-      </c>
-      <c r="C49" s="33"/>
-    </row>
-    <row r="50" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="B50" s="26" t="s">
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="B51" s="26" t="s">
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="B52" s="26" t="s">
-        <v>2881</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="25" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B53" s="26" t="s">
-        <v>2882</v>
+        <v>2878</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="32" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B54" s="26" t="s">
-        <v>2882</v>
+        <v>2878</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="25" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="B55" s="26" t="s">
-        <v>2883</v>
+        <v>2874</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="32" t="s">
-        <v>91</v>
+      <c r="A56" s="25" t="s">
+        <v>77</v>
       </c>
       <c r="B56" s="26" t="s">
-        <v>2883</v>
+        <v>2876</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="25" t="s">
-        <v>92</v>
+      <c r="A57" s="32" t="s">
+        <v>78</v>
       </c>
       <c r="B57" s="26" t="s">
-        <v>2884</v>
+        <v>2876</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="27" t="s">
-        <v>93</v>
+      <c r="A58" s="28" t="s">
+        <v>75</v>
       </c>
       <c r="B58" s="26" t="s">
-        <v>2884</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="25" t="s">
-        <v>94</v>
+      <c r="A59" s="31" t="s">
+        <v>76</v>
       </c>
       <c r="B59" s="26" t="s">
-        <v>95</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="25" t="s">
-        <v>96</v>
+      <c r="A60" s="27" t="s">
+        <v>74</v>
       </c>
       <c r="B60" s="26" t="s">
-        <v>2885</v>
+        <v>2874</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="27" t="s">
-        <v>97</v>
+      <c r="A61" s="25" t="s">
+        <v>106</v>
       </c>
       <c r="B61" s="26" t="s">
-        <v>2885</v>
+        <v>2891</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="25" t="s">
-        <v>98</v>
+      <c r="A62" s="27" t="s">
+        <v>2890</v>
       </c>
       <c r="B62" s="26" t="s">
-        <v>2886</v>
+        <v>2891</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="32" t="s">
-        <v>99</v>
+      <c r="A63" s="25" t="s">
+        <v>104</v>
       </c>
       <c r="B63" s="26" t="s">
-        <v>2886</v>
+        <v>2889</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="25" t="s">
-        <v>100</v>
+      <c r="A64" s="27" t="s">
+        <v>105</v>
       </c>
       <c r="B64" s="26" t="s">
-        <v>2887</v>
+        <v>2889</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="27" t="s">
-        <v>101</v>
+      <c r="A65" s="25" t="s">
+        <v>102</v>
       </c>
       <c r="B65" s="26" t="s">
-        <v>2887</v>
+        <v>2888</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="25" t="s">
-        <v>102</v>
+      <c r="A66" s="27" t="s">
+        <v>103</v>
       </c>
       <c r="B66" s="26" t="s">
         <v>2888</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="27" t="s">
-        <v>103</v>
+      <c r="A67" s="25" t="s">
+        <v>115</v>
       </c>
       <c r="B67" s="26" t="s">
-        <v>2888</v>
+        <v>116</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="25" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="B68" s="26" t="s">
-        <v>2889</v>
+        <v>121</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="27" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="B69" s="26" t="s">
-        <v>2889</v>
+        <v>121</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="25" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="B70" s="26" t="s">
-        <v>2891</v>
+        <v>114</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="27" t="s">
-        <v>2890</v>
+      <c r="A71" s="25" t="s">
+        <v>110</v>
       </c>
       <c r="B71" s="26" t="s">
-        <v>2891</v>
+        <v>111</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="B72" s="22" t="s">
-        <v>2892</v>
+      <c r="A72" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="B72" s="30" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="B73" s="22" t="s">
-        <v>2892</v>
+      <c r="A73" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="B73" s="30" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="25" t="s">
-        <v>109</v>
+      <c r="A74" s="27" t="s">
+        <v>119</v>
       </c>
       <c r="B74" s="30" t="s">
-        <v>2893</v>
+        <v>118</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="25" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="B75" s="30" t="s">
-        <v>111</v>
+        <v>2883</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="27" t="s">
-        <v>112</v>
+      <c r="A76" s="32" t="s">
+        <v>91</v>
       </c>
       <c r="B76" s="30" t="s">
-        <v>111</v>
+        <v>2883</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="25" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="B77" s="30" t="s">
-        <v>114</v>
+        <v>2882</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="25" t="s">
-        <v>115</v>
+      <c r="A78" s="32" t="s">
+        <v>89</v>
       </c>
       <c r="B78" s="30" t="s">
-        <v>116</v>
+        <v>2882</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="B79" s="30" t="s">
-        <v>118</v>
+        <v>107</v>
+      </c>
+      <c r="B79" s="22" t="s">
+        <v>2892</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="B80" s="30" t="s">
-        <v>118</v>
+        <v>108</v>
+      </c>
+      <c r="B80" s="22" t="s">
+        <v>2892</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="25" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="B81" s="30" t="s">
-        <v>121</v>
+        <v>2893</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="27" t="s">
-        <v>122</v>
+      <c r="A82" s="25" t="s">
+        <v>92</v>
       </c>
       <c r="B82" s="30" t="s">
-        <v>121</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="34" t="s">
-        <v>20</v>
+      <c r="A83" s="27" t="s">
+        <v>93</v>
       </c>
       <c r="B83" s="26" t="s">
-        <v>123</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="35" t="s">
-        <v>22</v>
+      <c r="A84" s="25" t="s">
+        <v>12</v>
       </c>
       <c r="B84" s="26" t="s">
-        <v>123</v>
+        <v>2858</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="36" t="s">
-        <v>24</v>
+      <c r="A85" s="28" t="s">
+        <v>16</v>
       </c>
       <c r="B85" s="26" t="s">
-        <v>2894</v>
+        <v>2854</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="37" t="s">
-        <v>26</v>
+      <c r="A86" s="29" t="s">
+        <v>18</v>
       </c>
       <c r="B86" s="26" t="s">
-        <v>2894</v>
+        <v>2859</v>
       </c>
     </row>
     <row r="87" spans="1:2" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="38" t="s">
-        <v>124</v>
+      <c r="A87" s="27" t="s">
+        <v>14</v>
       </c>
       <c r="B87" s="30" t="s">
-        <v>125</v>
+        <v>2858</v>
       </c>
     </row>
     <row r="88" spans="1:2" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="34" t="s">
-        <v>126</v>
+      <c r="A88" s="25" t="s">
+        <v>39</v>
       </c>
       <c r="B88" s="30" t="s">
-        <v>127</v>
+        <v>40</v>
       </c>
     </row>
     <row r="89" spans="1:2" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="35" t="s">
-        <v>128</v>
+      <c r="A89" s="28" t="s">
+        <v>42</v>
       </c>
       <c r="B89" s="30" t="s">
-        <v>127</v>
+        <v>43</v>
       </c>
     </row>
     <row r="90" spans="1:2" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="36" t="s">
-        <v>129</v>
+      <c r="A90" s="29" t="s">
+        <v>44</v>
       </c>
       <c r="B90" s="30" t="s">
-        <v>130</v>
+        <v>2852</v>
       </c>
     </row>
     <row r="91" spans="1:2" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="37" t="s">
-        <v>131</v>
+      <c r="A91" s="27" t="s">
+        <v>41</v>
       </c>
       <c r="B91" s="30" t="s">
-        <v>130</v>
+        <v>2853</v>
       </c>
     </row>
     <row r="92" spans="1:2" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="34" t="s">
-        <v>132</v>
+      <c r="A92" s="25" t="s">
+        <v>53</v>
       </c>
       <c r="B92" s="30" t="s">
-        <v>133</v>
+        <v>2857</v>
       </c>
     </row>
     <row r="93" spans="1:2" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="35" t="s">
-        <v>134</v>
+      <c r="A93" s="28" t="s">
+        <v>55</v>
       </c>
       <c r="B93" s="30" t="s">
-        <v>133</v>
+        <v>2863</v>
       </c>
     </row>
     <row r="94" spans="1:2" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="36" t="s">
-        <v>135</v>
+      <c r="A94" s="29" t="s">
+        <v>56</v>
       </c>
       <c r="B94" s="30" t="s">
-        <v>136</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="95" spans="1:2" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="37" t="s">
-        <v>137</v>
+      <c r="A95" s="27" t="s">
+        <v>54</v>
       </c>
       <c r="B95" s="30" t="s">
-        <v>136</v>
+        <v>2862</v>
       </c>
     </row>
     <row r="96" spans="1:2" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="34" t="s">
-        <v>138</v>
+        <v>20</v>
       </c>
       <c r="B96" s="30" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
     </row>
     <row r="97" spans="1:2" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="35" t="s">
-        <v>140</v>
+      <c r="A97" s="36" t="s">
+        <v>24</v>
       </c>
       <c r="B97" s="30" t="s">
-        <v>139</v>
+        <v>2894</v>
       </c>
     </row>
     <row r="98" spans="1:2" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="36" t="s">
-        <v>141</v>
+      <c r="A98" s="37" t="s">
+        <v>26</v>
       </c>
       <c r="B98" s="30" t="s">
-        <v>142</v>
+        <v>2894</v>
       </c>
     </row>
     <row r="99" spans="1:2" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="37" t="s">
-        <v>143</v>
+      <c r="A99" s="35" t="s">
+        <v>22</v>
       </c>
       <c r="B99" s="30" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
     </row>
     <row r="100" spans="1:2" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -16734,6 +16735,11 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:B101" xr:uid="{00000000-0001-0000-0100-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B101">
+      <sortCondition ref="A1:A101"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
@@ -21895,10 +21901,10 @@
   <sheetPr>
     <tabColor rgb="FF0D0D0D"/>
   </sheetPr>
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:B103"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22107,249 +22113,249 @@
         <v>2844</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="B26" s="96" t="s">
-        <v>2848</v>
+        <v>66</v>
+      </c>
+      <c r="B26" s="97" t="s">
+        <v>2844</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="96" t="s">
+        <v>2848</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="42" t="s">
         <v>96</v>
-      </c>
-      <c r="B27" s="96" t="s">
-        <v>2850</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="43" t="s">
-        <v>97</v>
       </c>
       <c r="B28" s="96" t="s">
         <v>2850</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="B29" s="97" t="s">
-        <v>2845</v>
+      <c r="A29" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="B29" s="96" t="s">
+        <v>2850</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" s="97" t="s">
+        <v>2845</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="42" t="s">
         <v>67</v>
-      </c>
-      <c r="B30" s="97" t="s">
-        <v>2849</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="43" t="s">
-        <v>68</v>
       </c>
       <c r="B31" s="97" t="s">
         <v>2849</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="42" t="s">
+      <c r="A32" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" s="97" t="s">
+        <v>2849</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="42" t="s">
         <v>57</v>
-      </c>
-      <c r="B32" s="97" t="s">
-        <v>2845</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="44" t="s">
-        <v>59</v>
       </c>
       <c r="B33" s="97" t="s">
         <v>2845</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="45" t="s">
-        <v>60</v>
+      <c r="A34" s="44" t="s">
+        <v>59</v>
       </c>
       <c r="B34" s="97" t="s">
         <v>2845</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="43" t="s">
-        <v>58</v>
+      <c r="A35" s="45" t="s">
+        <v>60</v>
       </c>
       <c r="B35" s="97" t="s">
         <v>2845</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="42" t="s">
+      <c r="A36" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" s="97" t="s">
+        <v>2845</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="42" t="s">
         <v>49</v>
-      </c>
-      <c r="B36" s="97" t="s">
-        <v>2843</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="43" t="s">
-        <v>50</v>
       </c>
       <c r="B37" s="97" t="s">
         <v>2843</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="42" t="s">
-        <v>47</v>
+      <c r="A38" s="43" t="s">
+        <v>50</v>
       </c>
       <c r="B38" s="97" t="s">
         <v>2843</v>
       </c>
     </row>
-    <row r="39" spans="1:2" s="47" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="43" t="s">
-        <v>48</v>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="42" t="s">
+        <v>47</v>
       </c>
       <c r="B39" s="97" t="s">
         <v>2843</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="42" t="s">
-        <v>51</v>
+    <row r="40" spans="1:2" s="47" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="43" t="s">
+        <v>48</v>
       </c>
       <c r="B40" s="97" t="s">
         <v>2843</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="43" t="s">
-        <v>52</v>
+      <c r="A41" s="42" t="s">
+        <v>51</v>
       </c>
       <c r="B41" s="97" t="s">
         <v>2843</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="42" t="s">
+      <c r="A42" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42" s="97" t="s">
+        <v>2843</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="42" t="s">
         <v>83</v>
-      </c>
-      <c r="B42" s="97" t="s">
-        <v>2849</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="43" t="s">
-        <v>84</v>
       </c>
       <c r="B43" s="97" t="s">
         <v>2849</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="42" t="s">
-        <v>85</v>
+      <c r="A44" s="43" t="s">
+        <v>84</v>
       </c>
       <c r="B44" s="97" t="s">
         <v>2849</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="43" t="s">
-        <v>86</v>
+      <c r="A45" s="42" t="s">
+        <v>85</v>
       </c>
       <c r="B45" s="97" t="s">
         <v>2849</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="42" t="s">
+      <c r="A46" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="B46" s="97" t="s">
+        <v>2849</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="42" t="s">
         <v>100</v>
-      </c>
-      <c r="B46" s="96" t="s">
-        <v>2851</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="43" t="s">
-        <v>101</v>
       </c>
       <c r="B47" s="96" t="s">
         <v>2851</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="42" t="s">
-        <v>98</v>
+      <c r="A48" s="43" t="s">
+        <v>101</v>
       </c>
       <c r="B48" s="96" t="s">
         <v>2851</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="49" t="s">
-        <v>99</v>
+      <c r="A49" s="42" t="s">
+        <v>98</v>
       </c>
       <c r="B49" s="96" t="s">
         <v>2851</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="42" t="s">
+      <c r="A50" s="49" t="s">
+        <v>99</v>
+      </c>
+      <c r="B50" s="96" t="s">
+        <v>2851</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="42" t="s">
         <v>71</v>
-      </c>
-      <c r="B50" s="97" t="s">
-        <v>2849</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="43" t="s">
-        <v>72</v>
       </c>
       <c r="B51" s="97" t="s">
         <v>2849</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="42" t="s">
+      <c r="A52" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="B52" s="97" t="s">
+        <v>2849</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="42" t="s">
         <v>69</v>
-      </c>
-      <c r="B52" s="97" t="s">
-        <v>2844</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="43" t="s">
-        <v>70</v>
       </c>
       <c r="B53" s="97" t="s">
         <v>2844</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="42" t="s">
+      <c r="A54" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="B54" s="97" t="s">
+        <v>2844</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="42" t="s">
         <v>81</v>
-      </c>
-      <c r="B54" s="97" t="s">
-        <v>2849</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="48" t="s">
-        <v>82</v>
       </c>
       <c r="B55" s="97" t="s">
         <v>2849</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="42" t="s">
-        <v>73</v>
+      <c r="A56" s="48" t="s">
+        <v>82</v>
       </c>
       <c r="B56" s="97" t="s">
         <v>2849</v>
@@ -22357,54 +22363,54 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="42" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B57" s="97" t="s">
         <v>2849</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="48" t="s">
-        <v>78</v>
+      <c r="A58" s="42" t="s">
+        <v>77</v>
       </c>
       <c r="B58" s="97" t="s">
         <v>2849</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="44" t="s">
-        <v>75</v>
+      <c r="A59" s="48" t="s">
+        <v>78</v>
       </c>
       <c r="B59" s="97" t="s">
         <v>2849</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="48" t="s">
-        <v>76</v>
+      <c r="A60" s="44" t="s">
+        <v>75</v>
       </c>
       <c r="B60" s="97" t="s">
         <v>2849</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" s="46" t="s">
-        <v>74</v>
+      <c r="A61" s="48" t="s">
+        <v>76</v>
       </c>
       <c r="B61" s="97" t="s">
         <v>2849</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="B62" s="96" t="s">
-        <v>2846</v>
+      <c r="A62" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="B62" s="97" t="s">
+        <v>2849</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" s="43" t="s">
+      <c r="A63" s="42" t="s">
         <v>106</v>
       </c>
       <c r="B63" s="96" t="s">
@@ -22412,64 +22418,64 @@
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" s="42" t="s">
-        <v>104</v>
+      <c r="A64" s="43" t="s">
+        <v>2890</v>
       </c>
       <c r="B64" s="96" t="s">
         <v>2846</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" s="43" t="s">
-        <v>105</v>
+      <c r="A65" s="42" t="s">
+        <v>104</v>
       </c>
       <c r="B65" s="96" t="s">
         <v>2846</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" s="42" t="s">
-        <v>102</v>
+      <c r="A66" s="43" t="s">
+        <v>105</v>
       </c>
       <c r="B66" s="96" t="s">
         <v>2846</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" s="43" t="s">
-        <v>103</v>
+      <c r="A67" s="42" t="s">
+        <v>102</v>
       </c>
       <c r="B67" s="96" t="s">
         <v>2846</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" s="42" t="s">
-        <v>115</v>
+      <c r="A68" s="43" t="s">
+        <v>103</v>
       </c>
       <c r="B68" s="96" t="s">
-        <v>2847</v>
+        <v>2846</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="42" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B69" s="96" t="s">
         <v>2847</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" s="43" t="s">
-        <v>122</v>
+      <c r="A70" s="42" t="s">
+        <v>120</v>
       </c>
       <c r="B70" s="96" t="s">
         <v>2847</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" s="42" t="s">
-        <v>113</v>
+      <c r="A71" s="43" t="s">
+        <v>122</v>
       </c>
       <c r="B71" s="96" t="s">
         <v>2847</v>
@@ -22477,55 +22483,55 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="42" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B72" s="96" t="s">
         <v>2847</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" s="43" t="s">
-        <v>112</v>
+      <c r="A73" s="42" t="s">
+        <v>110</v>
       </c>
       <c r="B73" s="96" t="s">
         <v>2847</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" s="42" t="s">
-        <v>117</v>
+      <c r="A74" s="43" t="s">
+        <v>112</v>
       </c>
       <c r="B74" s="96" t="s">
         <v>2847</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" s="43" t="s">
-        <v>119</v>
+      <c r="A75" s="42" t="s">
+        <v>117</v>
       </c>
       <c r="B75" s="96" t="s">
         <v>2847</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" s="42" t="s">
+      <c r="A76" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="B76" s="96" t="s">
+        <v>2847</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="42" t="s">
         <v>90</v>
-      </c>
-      <c r="B76" s="97" t="s">
-        <v>2849</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" s="48" t="s">
-        <v>91</v>
       </c>
       <c r="B77" s="97" t="s">
         <v>2849</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" s="42" t="s">
-        <v>88</v>
+      <c r="A78" s="48" t="s">
+        <v>91</v>
       </c>
       <c r="B78" s="97" t="s">
         <v>2849</v>
@@ -22533,39 +22539,39 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="42" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="B79" s="97" t="s">
-        <v>2845</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" s="43" t="s">
-        <v>108</v>
+        <v>2849</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" s="60" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="42" t="s">
+        <v>89</v>
       </c>
       <c r="B80" s="97" t="s">
-        <v>2845</v>
+        <v>2849</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="42" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B81" s="97" t="s">
         <v>2845</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" s="42" t="s">
-        <v>92</v>
+      <c r="A82" s="43" t="s">
+        <v>108</v>
       </c>
       <c r="B82" s="97" t="s">
         <v>2845</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" s="46" t="s">
-        <v>93</v>
+      <c r="A83" s="42" t="s">
+        <v>109</v>
       </c>
       <c r="B83" s="97" t="s">
         <v>2845</v>
@@ -22573,135 +22579,135 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="42" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="B84" s="97" t="s">
         <v>2845</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" s="44" t="s">
-        <v>16</v>
+      <c r="A85" s="46" t="s">
+        <v>93</v>
       </c>
       <c r="B85" s="97" t="s">
         <v>2845</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" s="45" t="s">
-        <v>18</v>
+      <c r="A86" s="42" t="s">
+        <v>12</v>
       </c>
       <c r="B86" s="97" t="s">
         <v>2845</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" s="43" t="s">
-        <v>14</v>
+      <c r="A87" s="44" t="s">
+        <v>16</v>
       </c>
       <c r="B87" s="97" t="s">
         <v>2845</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" s="42" t="s">
-        <v>39</v>
+      <c r="A88" s="45" t="s">
+        <v>18</v>
       </c>
       <c r="B88" s="97" t="s">
         <v>2845</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" s="44" t="s">
-        <v>42</v>
+      <c r="A89" s="43" t="s">
+        <v>14</v>
       </c>
       <c r="B89" s="97" t="s">
         <v>2845</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" s="45" t="s">
-        <v>44</v>
+      <c r="A90" s="42" t="s">
+        <v>39</v>
       </c>
       <c r="B90" s="97" t="s">
         <v>2845</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91" s="43" t="s">
-        <v>41</v>
+      <c r="A91" s="44" t="s">
+        <v>42</v>
       </c>
       <c r="B91" s="97" t="s">
         <v>2845</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92" s="42" t="s">
-        <v>53</v>
+      <c r="A92" s="45" t="s">
+        <v>44</v>
       </c>
       <c r="B92" s="97" t="s">
         <v>2845</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93" s="44" t="s">
-        <v>55</v>
+      <c r="A93" s="43" t="s">
+        <v>41</v>
       </c>
       <c r="B93" s="97" t="s">
         <v>2845</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" s="45" t="s">
-        <v>56</v>
+      <c r="A94" s="42" t="s">
+        <v>53</v>
       </c>
       <c r="B94" s="97" t="s">
         <v>2845</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95" s="43" t="s">
-        <v>54</v>
+      <c r="A95" s="44" t="s">
+        <v>55</v>
       </c>
       <c r="B95" s="97" t="s">
         <v>2845</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96" s="50" t="s">
+      <c r="A96" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="B96" s="97" t="s">
+        <v>2845</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="B97" s="97" t="s">
+        <v>2845</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" s="50" t="s">
         <v>20</v>
-      </c>
-      <c r="B96" s="96" t="s">
-        <v>2848</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="B97" s="96" t="s">
-        <v>2848</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98" s="53" t="s">
-        <v>26</v>
       </c>
       <c r="B98" s="96" t="s">
         <v>2848</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99" s="51" t="s">
-        <v>22</v>
+      <c r="A99" s="52" t="s">
+        <v>24</v>
       </c>
       <c r="B99" s="96" t="s">
         <v>2848</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100" s="50" t="s">
-        <v>144</v>
+      <c r="A100" s="53" t="s">
+        <v>26</v>
       </c>
       <c r="B100" s="96" t="s">
         <v>2848</v>
@@ -22709,40 +22715,56 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="51" t="s">
-        <v>146</v>
+        <v>22</v>
       </c>
       <c r="B101" s="96" t="s">
         <v>2848</v>
       </c>
     </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" s="50" t="s">
+        <v>144</v>
+      </c>
+      <c r="B102" s="96" t="s">
+        <v>2848</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" s="51" t="s">
+        <v>146</v>
+      </c>
+      <c r="B103" s="96" t="s">
+        <v>2848</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B101" xr:uid="{00000000-0001-0000-0200-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B101">
-      <sortCondition ref="A1:A101"/>
+  <autoFilter ref="A1:B103" xr:uid="{00000000-0001-0000-0200-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B103">
+      <sortCondition ref="A1:A103"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="B26" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="B27" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
     <hyperlink ref="B23" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000039000000}"/>
-    <hyperlink ref="B27" r:id="rId3" xr:uid="{00000000-0004-0000-0200-00003A000000}"/>
-    <hyperlink ref="B28" r:id="rId4" xr:uid="{00000000-0004-0000-0200-00003B000000}"/>
-    <hyperlink ref="B66" r:id="rId5" display="https://www.fs.fed.us/foresthealth/technology/pdfs/WesternRootDiseaseModelV3-0UserGuide2018.pdf" xr:uid="{00000000-0004-0000-0200-000040000000}"/>
-    <hyperlink ref="B67" r:id="rId6" display="https://www.fs.fed.us/foresthealth/technology/pdfs/WesternRootDiseaseModelV3-0UserGuide2018.pdf" xr:uid="{00000000-0004-0000-0200-000041000000}"/>
-    <hyperlink ref="B64" r:id="rId7" display="https://www.fs.fed.us/foresthealth/technology/pdfs/WesternRootDiseaseModelV3-0UserGuide2018.pdf" xr:uid="{00000000-0004-0000-0200-000042000000}"/>
-    <hyperlink ref="B65" r:id="rId8" display="https://www.fs.fed.us/foresthealth/technology/pdfs/WesternRootDiseaseModelV3-0UserGuide2018.pdf" xr:uid="{00000000-0004-0000-0200-000043000000}"/>
-    <hyperlink ref="B62" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000044000000}"/>
-    <hyperlink ref="B63" r:id="rId10" display="https://www.fs.fed.us/foresthealth/technology/pdfs/WesternRootDiseaseModelV3-0UserGuide2018.pdf" xr:uid="{00000000-0004-0000-0200-000045000000}"/>
-    <hyperlink ref="B72" r:id="rId11" display="https://www.fs.fed.us/rm/pubs_int/int_gtr279.pdf" xr:uid="{00000000-0004-0000-0200-000049000000}"/>
-    <hyperlink ref="B73" r:id="rId12" xr:uid="{00000000-0004-0000-0200-00004A000000}"/>
-    <hyperlink ref="B71" r:id="rId13" display="https://www.fs.fed.us/rm/pubs_int/int_gtr279.pdf" xr:uid="{00000000-0004-0000-0200-00004B000000}"/>
-    <hyperlink ref="B68" r:id="rId14" display="https://www.fs.fed.us/rm/pubs_int/int_gtr279.pdf" xr:uid="{00000000-0004-0000-0200-00004C000000}"/>
-    <hyperlink ref="B74" r:id="rId15" display="https://www.fs.fed.us/rm/pubs_int/int_gtr279.pdf" xr:uid="{00000000-0004-0000-0200-00004D000000}"/>
-    <hyperlink ref="B75" r:id="rId16" display="https://www.fs.fed.us/rm/pubs_int/int_gtr279.pdf" xr:uid="{00000000-0004-0000-0200-00004E000000}"/>
-    <hyperlink ref="B69" r:id="rId17" xr:uid="{00000000-0004-0000-0200-00004F000000}"/>
-    <hyperlink ref="B70" r:id="rId18" display="https://www.fs.fed.us/rm/pubs_int/int_gtr279.pdf" xr:uid="{00000000-0004-0000-0200-000050000000}"/>
-    <hyperlink ref="B96" r:id="rId19" xr:uid="{00000000-0004-0000-0200-000051000000}"/>
-    <hyperlink ref="B99" r:id="rId20" display="https://www.fs.fed.us/.ftproot/pub/fmsc/ftp/fvs/docs/gtr/DBSUserGuide.pdf" xr:uid="{00000000-0004-0000-0200-000052000000}"/>
-    <hyperlink ref="B97" r:id="rId21" display="https://www.fs.fed.us/.ftproot/pub/fmsc/ftp/fvs/docs/gtr/DBSUserGuide.pdf" xr:uid="{00000000-0004-0000-0200-000053000000}"/>
+    <hyperlink ref="B28" r:id="rId3" xr:uid="{00000000-0004-0000-0200-00003A000000}"/>
+    <hyperlink ref="B29" r:id="rId4" xr:uid="{00000000-0004-0000-0200-00003B000000}"/>
+    <hyperlink ref="B67" r:id="rId5" display="https://www.fs.fed.us/foresthealth/technology/pdfs/WesternRootDiseaseModelV3-0UserGuide2018.pdf" xr:uid="{00000000-0004-0000-0200-000040000000}"/>
+    <hyperlink ref="B68" r:id="rId6" display="https://www.fs.fed.us/foresthealth/technology/pdfs/WesternRootDiseaseModelV3-0UserGuide2018.pdf" xr:uid="{00000000-0004-0000-0200-000041000000}"/>
+    <hyperlink ref="B65" r:id="rId7" display="https://www.fs.fed.us/foresthealth/technology/pdfs/WesternRootDiseaseModelV3-0UserGuide2018.pdf" xr:uid="{00000000-0004-0000-0200-000042000000}"/>
+    <hyperlink ref="B66" r:id="rId8" display="https://www.fs.fed.us/foresthealth/technology/pdfs/WesternRootDiseaseModelV3-0UserGuide2018.pdf" xr:uid="{00000000-0004-0000-0200-000043000000}"/>
+    <hyperlink ref="B63" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000044000000}"/>
+    <hyperlink ref="B64" r:id="rId10" display="https://www.fs.fed.us/foresthealth/technology/pdfs/WesternRootDiseaseModelV3-0UserGuide2018.pdf" xr:uid="{00000000-0004-0000-0200-000045000000}"/>
+    <hyperlink ref="B73" r:id="rId11" display="https://www.fs.fed.us/rm/pubs_int/int_gtr279.pdf" xr:uid="{00000000-0004-0000-0200-000049000000}"/>
+    <hyperlink ref="B74" r:id="rId12" xr:uid="{00000000-0004-0000-0200-00004A000000}"/>
+    <hyperlink ref="B72" r:id="rId13" display="https://www.fs.fed.us/rm/pubs_int/int_gtr279.pdf" xr:uid="{00000000-0004-0000-0200-00004B000000}"/>
+    <hyperlink ref="B69" r:id="rId14" display="https://www.fs.fed.us/rm/pubs_int/int_gtr279.pdf" xr:uid="{00000000-0004-0000-0200-00004C000000}"/>
+    <hyperlink ref="B75" r:id="rId15" display="https://www.fs.fed.us/rm/pubs_int/int_gtr279.pdf" xr:uid="{00000000-0004-0000-0200-00004D000000}"/>
+    <hyperlink ref="B76" r:id="rId16" display="https://www.fs.fed.us/rm/pubs_int/int_gtr279.pdf" xr:uid="{00000000-0004-0000-0200-00004E000000}"/>
+    <hyperlink ref="B70" r:id="rId17" xr:uid="{00000000-0004-0000-0200-00004F000000}"/>
+    <hyperlink ref="B71" r:id="rId18" display="https://www.fs.fed.us/rm/pubs_int/int_gtr279.pdf" xr:uid="{00000000-0004-0000-0200-000050000000}"/>
+    <hyperlink ref="B98" r:id="rId19" xr:uid="{00000000-0004-0000-0200-000051000000}"/>
+    <hyperlink ref="B101" r:id="rId20" display="https://www.fs.fed.us/.ftproot/pub/fmsc/ftp/fvs/docs/gtr/DBSUserGuide.pdf" xr:uid="{00000000-0004-0000-0200-000052000000}"/>
+    <hyperlink ref="B99" r:id="rId21" display="https://www.fs.fed.us/.ftproot/pub/fmsc/ftp/fvs/docs/gtr/DBSUserGuide.pdf" xr:uid="{00000000-0004-0000-0200-000053000000}"/>
     <hyperlink ref="B5" r:id="rId22" display="https://www.fs.fed.us/.ftproot/pub/fmsc/ftp/fvs/docs/gtr/DBSUserGuide.pdf" xr:uid="{00000000-0004-0000-0200-000054000000}"/>
     <hyperlink ref="B7" r:id="rId23" display="https://www.fs.fed.us/.ftproot/pub/fmsc/ftp/fvs/docs/gtr/DBSUserGuide.pdf" xr:uid="{00000000-0004-0000-0200-000055000000}"/>
     <hyperlink ref="B10" r:id="rId24" display="https://www.fs.fed.us/.ftproot/pub/fmsc/ftp/fvs/docs/gtr/DBSUserGuide.pdf" xr:uid="{00000000-0004-0000-0200-000056000000}"/>
@@ -22752,61 +22774,62 @@
     <hyperlink ref="B14" r:id="rId28" display="https://www.fs.fed.us/.ftproot/pub/fmsc/ftp/fvs/docs/gtr/DBSUserGuide.pdf" xr:uid="{00000000-0004-0000-0200-00005A000000}"/>
     <hyperlink ref="B12" r:id="rId29" display="https://www.fs.fed.us/.ftproot/pub/fmsc/ftp/fvs/docs/gtr/DBSUserGuide.pdf" xr:uid="{00000000-0004-0000-0200-00005B000000}"/>
     <hyperlink ref="B13" r:id="rId30" display="https://www.fs.fed.us/.ftproot/pub/fmsc/ftp/fvs/docs/gtr/DBSUserGuide.pdf" xr:uid="{00000000-0004-0000-0200-00005C000000}"/>
-    <hyperlink ref="B100" r:id="rId31" display="https://www.fs.fed.us/.ftproot/pub/fmsc/ftp/fvs/docs/gtr/DBSUserGuide.pdf" xr:uid="{00000000-0004-0000-0200-00005D000000}"/>
-    <hyperlink ref="B101" r:id="rId32" display="https://www.fs.fed.us/.ftproot/pub/fmsc/ftp/fvs/docs/gtr/DBSUserGuide.pdf" xr:uid="{00000000-0004-0000-0200-00005E000000}"/>
+    <hyperlink ref="B102" r:id="rId31" display="https://www.fs.fed.us/.ftproot/pub/fmsc/ftp/fvs/docs/gtr/DBSUserGuide.pdf" xr:uid="{00000000-0004-0000-0200-00005D000000}"/>
+    <hyperlink ref="B103" r:id="rId32" display="https://www.fs.fed.us/.ftproot/pub/fmsc/ftp/fvs/docs/gtr/DBSUserGuide.pdf" xr:uid="{00000000-0004-0000-0200-00005E000000}"/>
     <hyperlink ref="B3:B11" r:id="rId33" display="https://www.fs.usda.gov/fmsc/ftp/fvs/docs/gtr/EssentialFVS.pdf" xr:uid="{6CE9C5D9-2F71-47A5-BF06-D125F285F31E}"/>
-    <hyperlink ref="B18:B29" r:id="rId34" display="https://www.fs.usda.gov/fmsc/ftp/fvs/docs/gtr/EssentialFVS.pdf" xr:uid="{51592308-F64A-4798-BA87-E2122C2804C7}"/>
-    <hyperlink ref="B12:B17" r:id="rId35" display="https://www.fs.usda.gov/foresthealth/technology/pdfs/DM_User_Guide_MAG-95-2_2005_nonspatial_20120627.pdf" xr:uid="{0B74CD2B-52AA-47F6-8AD6-59A69ABBF370}"/>
-    <hyperlink ref="B34:B35" r:id="rId36" display="https://www.nrs.fs.usda.gov/pubs/gtr/gtr_nrs77.pdf" xr:uid="{04F1A4D5-94B3-4437-AFD1-CF4A65768EDD}"/>
-    <hyperlink ref="B72:B74" r:id="rId37" display="https://www.fs.usda.gov/fmsc/ftp/fvs/docs/gtr/EssentialFVS.pdf" xr:uid="{724622E8-AB0A-455D-A662-F4478FD6CE4A}"/>
-    <hyperlink ref="B66:B71" r:id="rId38" display="https://www.fs.usda.gov/foresthealth/technology/pdfs/WesternRootDiseaseModelV3-0UserGuide2018.pdf" xr:uid="{A45C1C7E-D416-47D7-9699-A4AC25E90D2B}"/>
-    <hyperlink ref="B2:B14" r:id="rId39" display="https://www.fs.usda.gov/fmsc/ftp/fvs/docs/gtr/DBSUserGuide.pdf" xr:uid="{261A95DD-AEFB-4DFB-AD12-27CC80911E1B}"/>
-    <hyperlink ref="B15" r:id="rId40" xr:uid="{99236ADD-9300-436C-96C3-C512BE900BF9}"/>
-    <hyperlink ref="B16" r:id="rId41" xr:uid="{515E748A-8492-45EB-94A8-590F22C729CA}"/>
-    <hyperlink ref="B17" r:id="rId42" xr:uid="{58D42C0C-2BA3-456E-B574-518B4D0137C1}"/>
-    <hyperlink ref="B17:B20" r:id="rId43" display="https://www.fs.usda.gov/fmsc/ftp/fvs/docs/gtr/EssentialFVS.pdf" xr:uid="{9206D5B1-629F-479E-AE22-4BCD7F14855F}"/>
-    <hyperlink ref="B21" r:id="rId44" xr:uid="{B3179AC1-3A18-43AF-BD40-D8657AC11626}"/>
-    <hyperlink ref="B22" r:id="rId45" xr:uid="{F4B95ABB-DE82-44F6-87DF-6FD6C7AE494D}"/>
-    <hyperlink ref="B21:B22" r:id="rId46" display="https://www.fs.usda.gov/fmsc/ftp/fvs/docs/gtr/FFEguide.pdf" xr:uid="{CAFC0A53-672F-490A-9658-45E042FDE4D8}"/>
-    <hyperlink ref="B19" r:id="rId47" xr:uid="{7E0DD365-C578-429F-A1E9-329F35243E75}"/>
-    <hyperlink ref="B24" r:id="rId48" xr:uid="{7AA995E0-E2E4-4FB5-A35E-4089B959E0FF}"/>
-    <hyperlink ref="B25" r:id="rId49" xr:uid="{1A2F07BB-A756-4087-9A7F-D2C37880D636}"/>
-    <hyperlink ref="B3" r:id="rId50" xr:uid="{DD507D26-1866-4B46-A959-C9C474C2B06B}"/>
-    <hyperlink ref="B27:B28" r:id="rId51" display="https://www.fs.usda.gov/fmsc/ftp/fvs/docs/climateFVS/ClimateFVS_UsersGuide.pdf" xr:uid="{DC8CB791-3A30-409E-8923-BDC11A9B860B}"/>
-    <hyperlink ref="B29" r:id="rId52" xr:uid="{8383C88E-47BD-44E6-96EB-693027B5DE68}"/>
-    <hyperlink ref="B30:B31" r:id="rId53" display="https://www.fs.usda.gov/fmsc/ftp/fvs/docs/gtr/FFEguide.pdf" xr:uid="{D17C07AF-E9F0-46EA-A3CA-226952BDAADB}"/>
-    <hyperlink ref="B32:B35" r:id="rId54" display="https://www.fs.usda.gov/fmsc/ftp/fvs/docs/gtr/EssentialFVS.pdf" xr:uid="{920435D6-665D-4AEF-AF52-6800516E8225}"/>
-    <hyperlink ref="B36" r:id="rId55" xr:uid="{5474C227-2634-480F-85A5-662E8E6D0091}"/>
-    <hyperlink ref="B36:B41" r:id="rId56" display="https://www.fs.usda.gov/foresthealth/technology/pdfs/DM_User_Guide_MAG-95-2_2005_nonspatial_20120627.pdf" xr:uid="{10B39E5E-C702-49FF-8710-97BBDED46AB3}"/>
-    <hyperlink ref="B30" r:id="rId57" xr:uid="{6F7B4C0F-EE1E-4401-B563-966067AC4DF8}"/>
-    <hyperlink ref="B42:B45" r:id="rId58" display="https://www.fs.usda.gov/fmsc/ftp/fvs/docs/gtr/FFEguide.pdf" xr:uid="{5D1F4559-80C7-4675-BEDC-472837EED4CA}"/>
-    <hyperlink ref="B46:B49" r:id="rId59" display="https://www.fs.usda.gov/fmsc/ftp/fvs/docs/gtr/EconUserGuide.pdf" xr:uid="{A583F457-4439-4C58-AD46-5CB86D6E99D5}"/>
-    <hyperlink ref="B42" r:id="rId60" xr:uid="{0FFE02AC-96DE-4B2A-966B-4DA4DE6EBB69}"/>
-    <hyperlink ref="B50:B51" r:id="rId61" display="https://www.fs.usda.gov/fmsc/ftp/fvs/docs/gtr/FFEguide.pdf" xr:uid="{0D2FE747-AC1C-49EB-8158-FA57BB210517}"/>
-    <hyperlink ref="B52:B53" r:id="rId62" display="https://www.nrs.fs.usda.gov/pubs/gtr/gtr_nrs77.pdf" xr:uid="{D85991A4-3322-4551-A493-CB23DFF4B7B0}"/>
-    <hyperlink ref="B54:B55" r:id="rId63" display="https://www.fs.usda.gov/fmsc/ftp/fvs/docs/gtr/FFEguide.pdf" xr:uid="{8CAFEC56-B459-40E8-82A9-F5A6FB1A6962}"/>
-    <hyperlink ref="B56:B57" r:id="rId64" display="https://www.fs.usda.gov/fmsc/ftp/fvs/docs/gtr/FFEguide.pdf" xr:uid="{3AC6E603-58BF-4CC3-B5A6-081D533A4FFE}"/>
-    <hyperlink ref="B58:B59" r:id="rId65" display="https://www.fs.usda.gov/fmsc/ftp/fvs/docs/gtr/FFEguide.pdf" xr:uid="{647569C7-260D-47CC-9148-0008679347FE}"/>
-    <hyperlink ref="B60:B61" r:id="rId66" display="https://www.fs.usda.gov/fmsc/ftp/fvs/docs/gtr/FFEguide.pdf" xr:uid="{BC54E847-E9D4-4CD8-B74A-B9B9C0F0B7F0}"/>
-    <hyperlink ref="B54:B61" r:id="rId67" display="https://www.fs.usda.gov/fmsc/ftp/fvs/docs/gtr/FFEguide.pdf" xr:uid="{CA3179BC-646A-4AB0-8CE3-0A1E22EBABC2}"/>
-    <hyperlink ref="B62:B67" r:id="rId68" display="https://www.fs.usda.gov/foresthealth/technology/pdfs/WesternRootDiseaseModelV3-0UserGuide2018.pdf" xr:uid="{230828C7-84A8-4D43-BD31-65033AC6CC31}"/>
-    <hyperlink ref="B68:B75" r:id="rId69" display="https://www.fs.usda.gov/rm/pubs_int/int_gtr279.pdf" xr:uid="{01104C55-42D5-4CB9-B6B4-0F8C1374BB7D}"/>
-    <hyperlink ref="B54" r:id="rId70" xr:uid="{685CAB23-0502-41D9-A9B9-4B74D7F0859D}"/>
-    <hyperlink ref="B76:B77" r:id="rId71" display="https://www.fs.usda.gov/fmsc/ftp/fvs/docs/gtr/FFEguide.pdf" xr:uid="{F2C93C41-06E3-44C2-8674-ED37C386425C}"/>
-    <hyperlink ref="B78" r:id="rId72" xr:uid="{9D3ED900-B4C3-4595-83DB-BEE96C5F7E8F}"/>
-    <hyperlink ref="B76:B78" r:id="rId73" display="https://www.fs.usda.gov/fmsc/ftp/fvs/docs/gtr/FFEguide.pdf" xr:uid="{80B5D81C-3F23-4B1F-AB94-8FB2D60D4A49}"/>
-    <hyperlink ref="B81:B82" r:id="rId74" display="https://www.nrs.fs.usda.gov/pubs/gtr/gtr_nrs77.pdf" xr:uid="{6092A20E-1C93-4B16-A5DC-BA33D21F49E7}"/>
-    <hyperlink ref="B79:B82" r:id="rId75" display="https://www.fs.usda.gov/fmsc/ftp/fvs/docs/gtr/EssentialFVS.pdf" xr:uid="{D74048F6-2C31-4559-8786-6301519E8447}"/>
-    <hyperlink ref="B85:B86" r:id="rId76" display="https://www.nrs.fs.usda.gov/pubs/gtr/gtr_nrs77.pdf" xr:uid="{2DC19F4A-5742-45B5-BD7B-35315179DEF1}"/>
-    <hyperlink ref="B83:B86" r:id="rId77" display="https://www.fs.usda.gov/fmsc/ftp/fvs/docs/gtr/EssentialFVS.pdf" xr:uid="{C5A18F86-90F0-4426-9C33-E0E474ACAAF2}"/>
-    <hyperlink ref="B89:B90" r:id="rId78" display="https://www.nrs.fs.usda.gov/pubs/gtr/gtr_nrs77.pdf" xr:uid="{C6F8C986-2E6C-4EDB-8D18-A7F0DFC14F36}"/>
-    <hyperlink ref="B87:B90" r:id="rId79" display="https://www.fs.usda.gov/fmsc/ftp/fvs/docs/gtr/EssentialFVS.pdf" xr:uid="{4E57FA0B-D60A-4E6C-BB5B-5AEB658C2A22}"/>
-    <hyperlink ref="B93:B94" r:id="rId80" display="https://www.nrs.fs.usda.gov/pubs/gtr/gtr_nrs77.pdf" xr:uid="{FF3ED5FB-BF24-4947-873F-C13912D22236}"/>
-    <hyperlink ref="B91:B94" r:id="rId81" display="https://www.fs.usda.gov/fmsc/ftp/fvs/docs/gtr/EssentialFVS.pdf" xr:uid="{4B8B0D61-F6A6-42D9-8C7D-C83D26C009DE}"/>
-    <hyperlink ref="B91" r:id="rId82" xr:uid="{41672F0C-92B3-416C-85B6-DD3BF44B6A75}"/>
-    <hyperlink ref="B79:B95" r:id="rId83" display="https://www.fs.usda.gov/fmsc/ftp/fvs/docs/gtr/EssentialFVS.pdf" xr:uid="{FE7EEACD-BA94-4DEC-BEDF-120981E57CA1}"/>
-    <hyperlink ref="B96:B101" r:id="rId84" display="https://www.fs.usda.gov/fmsc/ftp/fvs/docs/gtr/DBSUserGuide.pdf" xr:uid="{0D49BF94-3900-4073-B0CC-0EA945AA38D0}"/>
-    <hyperlink ref="B79" r:id="rId85" xr:uid="{5C0D567A-77C4-4720-899D-10CC872FA00B}"/>
+    <hyperlink ref="B12:B17" r:id="rId34" display="https://www.fs.usda.gov/foresthealth/technology/pdfs/DM_User_Guide_MAG-95-2_2005_nonspatial_20120627.pdf" xr:uid="{0B74CD2B-52AA-47F6-8AD6-59A69ABBF370}"/>
+    <hyperlink ref="B35:B36" r:id="rId35" display="https://www.nrs.fs.usda.gov/pubs/gtr/gtr_nrs77.pdf" xr:uid="{04F1A4D5-94B3-4437-AFD1-CF4A65768EDD}"/>
+    <hyperlink ref="B73:B75" r:id="rId36" display="https://www.fs.usda.gov/fmsc/ftp/fvs/docs/gtr/EssentialFVS.pdf" xr:uid="{724622E8-AB0A-455D-A662-F4478FD6CE4A}"/>
+    <hyperlink ref="B67:B72" r:id="rId37" display="https://www.fs.usda.gov/foresthealth/technology/pdfs/WesternRootDiseaseModelV3-0UserGuide2018.pdf" xr:uid="{A45C1C7E-D416-47D7-9699-A4AC25E90D2B}"/>
+    <hyperlink ref="B2:B14" r:id="rId38" display="https://www.fs.usda.gov/fmsc/ftp/fvs/docs/gtr/DBSUserGuide.pdf" xr:uid="{261A95DD-AEFB-4DFB-AD12-27CC80911E1B}"/>
+    <hyperlink ref="B15" r:id="rId39" xr:uid="{99236ADD-9300-436C-96C3-C512BE900BF9}"/>
+    <hyperlink ref="B16" r:id="rId40" xr:uid="{515E748A-8492-45EB-94A8-590F22C729CA}"/>
+    <hyperlink ref="B17" r:id="rId41" xr:uid="{58D42C0C-2BA3-456E-B574-518B4D0137C1}"/>
+    <hyperlink ref="B17:B20" r:id="rId42" display="https://www.fs.usda.gov/fmsc/ftp/fvs/docs/gtr/EssentialFVS.pdf" xr:uid="{9206D5B1-629F-479E-AE22-4BCD7F14855F}"/>
+    <hyperlink ref="B21" r:id="rId43" xr:uid="{B3179AC1-3A18-43AF-BD40-D8657AC11626}"/>
+    <hyperlink ref="B22" r:id="rId44" xr:uid="{F4B95ABB-DE82-44F6-87DF-6FD6C7AE494D}"/>
+    <hyperlink ref="B21:B22" r:id="rId45" display="https://www.fs.usda.gov/fmsc/ftp/fvs/docs/gtr/FFEguide.pdf" xr:uid="{CAFC0A53-672F-490A-9658-45E042FDE4D8}"/>
+    <hyperlink ref="B19" r:id="rId46" xr:uid="{7E0DD365-C578-429F-A1E9-329F35243E75}"/>
+    <hyperlink ref="B24" r:id="rId47" xr:uid="{7AA995E0-E2E4-4FB5-A35E-4089B959E0FF}"/>
+    <hyperlink ref="B25" r:id="rId48" xr:uid="{1A2F07BB-A756-4087-9A7F-D2C37880D636}"/>
+    <hyperlink ref="B3" r:id="rId49" xr:uid="{DD507D26-1866-4B46-A959-C9C474C2B06B}"/>
+    <hyperlink ref="B28:B29" r:id="rId50" display="https://www.fs.usda.gov/fmsc/ftp/fvs/docs/climateFVS/ClimateFVS_UsersGuide.pdf" xr:uid="{DC8CB791-3A30-409E-8923-BDC11A9B860B}"/>
+    <hyperlink ref="B30" r:id="rId51" xr:uid="{8383C88E-47BD-44E6-96EB-693027B5DE68}"/>
+    <hyperlink ref="B31:B32" r:id="rId52" display="https://www.fs.usda.gov/fmsc/ftp/fvs/docs/gtr/FFEguide.pdf" xr:uid="{D17C07AF-E9F0-46EA-A3CA-226952BDAADB}"/>
+    <hyperlink ref="B33:B36" r:id="rId53" display="https://www.fs.usda.gov/fmsc/ftp/fvs/docs/gtr/EssentialFVS.pdf" xr:uid="{920435D6-665D-4AEF-AF52-6800516E8225}"/>
+    <hyperlink ref="B37" r:id="rId54" xr:uid="{5474C227-2634-480F-85A5-662E8E6D0091}"/>
+    <hyperlink ref="B37:B42" r:id="rId55" display="https://www.fs.usda.gov/foresthealth/technology/pdfs/DM_User_Guide_MAG-95-2_2005_nonspatial_20120627.pdf" xr:uid="{10B39E5E-C702-49FF-8710-97BBDED46AB3}"/>
+    <hyperlink ref="B31" r:id="rId56" xr:uid="{6F7B4C0F-EE1E-4401-B563-966067AC4DF8}"/>
+    <hyperlink ref="B43:B46" r:id="rId57" display="https://www.fs.usda.gov/fmsc/ftp/fvs/docs/gtr/FFEguide.pdf" xr:uid="{5D1F4559-80C7-4675-BEDC-472837EED4CA}"/>
+    <hyperlink ref="B47:B50" r:id="rId58" display="https://www.fs.usda.gov/fmsc/ftp/fvs/docs/gtr/EconUserGuide.pdf" xr:uid="{A583F457-4439-4C58-AD46-5CB86D6E99D5}"/>
+    <hyperlink ref="B43" r:id="rId59" xr:uid="{0FFE02AC-96DE-4B2A-966B-4DA4DE6EBB69}"/>
+    <hyperlink ref="B51:B52" r:id="rId60" display="https://www.fs.usda.gov/fmsc/ftp/fvs/docs/gtr/FFEguide.pdf" xr:uid="{0D2FE747-AC1C-49EB-8158-FA57BB210517}"/>
+    <hyperlink ref="B53:B54" r:id="rId61" display="https://www.nrs.fs.usda.gov/pubs/gtr/gtr_nrs77.pdf" xr:uid="{D85991A4-3322-4551-A493-CB23DFF4B7B0}"/>
+    <hyperlink ref="B55:B56" r:id="rId62" display="https://www.fs.usda.gov/fmsc/ftp/fvs/docs/gtr/FFEguide.pdf" xr:uid="{8CAFEC56-B459-40E8-82A9-F5A6FB1A6962}"/>
+    <hyperlink ref="B57:B58" r:id="rId63" display="https://www.fs.usda.gov/fmsc/ftp/fvs/docs/gtr/FFEguide.pdf" xr:uid="{3AC6E603-58BF-4CC3-B5A6-081D533A4FFE}"/>
+    <hyperlink ref="B59:B60" r:id="rId64" display="https://www.fs.usda.gov/fmsc/ftp/fvs/docs/gtr/FFEguide.pdf" xr:uid="{647569C7-260D-47CC-9148-0008679347FE}"/>
+    <hyperlink ref="B61:B62" r:id="rId65" display="https://www.fs.usda.gov/fmsc/ftp/fvs/docs/gtr/FFEguide.pdf" xr:uid="{BC54E847-E9D4-4CD8-B74A-B9B9C0F0B7F0}"/>
+    <hyperlink ref="B55:B62" r:id="rId66" display="https://www.fs.usda.gov/fmsc/ftp/fvs/docs/gtr/FFEguide.pdf" xr:uid="{CA3179BC-646A-4AB0-8CE3-0A1E22EBABC2}"/>
+    <hyperlink ref="B63:B68" r:id="rId67" display="https://www.fs.usda.gov/foresthealth/technology/pdfs/WesternRootDiseaseModelV3-0UserGuide2018.pdf" xr:uid="{230828C7-84A8-4D43-BD31-65033AC6CC31}"/>
+    <hyperlink ref="B69:B76" r:id="rId68" display="https://www.fs.usda.gov/rm/pubs_int/int_gtr279.pdf" xr:uid="{01104C55-42D5-4CB9-B6B4-0F8C1374BB7D}"/>
+    <hyperlink ref="B55" r:id="rId69" xr:uid="{685CAB23-0502-41D9-A9B9-4B74D7F0859D}"/>
+    <hyperlink ref="B77:B78" r:id="rId70" display="https://www.fs.usda.gov/fmsc/ftp/fvs/docs/gtr/FFEguide.pdf" xr:uid="{F2C93C41-06E3-44C2-8674-ED37C386425C}"/>
+    <hyperlink ref="B79" r:id="rId71" xr:uid="{9D3ED900-B4C3-4595-83DB-BEE96C5F7E8F}"/>
+    <hyperlink ref="B77:B79" r:id="rId72" display="https://www.fs.usda.gov/fmsc/ftp/fvs/docs/gtr/FFEguide.pdf" xr:uid="{80B5D81C-3F23-4B1F-AB94-8FB2D60D4A49}"/>
+    <hyperlink ref="B83:B84" r:id="rId73" display="https://www.nrs.fs.usda.gov/pubs/gtr/gtr_nrs77.pdf" xr:uid="{6092A20E-1C93-4B16-A5DC-BA33D21F49E7}"/>
+    <hyperlink ref="B81:B84" r:id="rId74" display="https://www.fs.usda.gov/fmsc/ftp/fvs/docs/gtr/EssentialFVS.pdf" xr:uid="{D74048F6-2C31-4559-8786-6301519E8447}"/>
+    <hyperlink ref="B87:B88" r:id="rId75" display="https://www.nrs.fs.usda.gov/pubs/gtr/gtr_nrs77.pdf" xr:uid="{2DC19F4A-5742-45B5-BD7B-35315179DEF1}"/>
+    <hyperlink ref="B85:B88" r:id="rId76" display="https://www.fs.usda.gov/fmsc/ftp/fvs/docs/gtr/EssentialFVS.pdf" xr:uid="{C5A18F86-90F0-4426-9C33-E0E474ACAAF2}"/>
+    <hyperlink ref="B91:B92" r:id="rId77" display="https://www.nrs.fs.usda.gov/pubs/gtr/gtr_nrs77.pdf" xr:uid="{C6F8C986-2E6C-4EDB-8D18-A7F0DFC14F36}"/>
+    <hyperlink ref="B89:B92" r:id="rId78" display="https://www.fs.usda.gov/fmsc/ftp/fvs/docs/gtr/EssentialFVS.pdf" xr:uid="{4E57FA0B-D60A-4E6C-BB5B-5AEB658C2A22}"/>
+    <hyperlink ref="B95:B96" r:id="rId79" display="https://www.nrs.fs.usda.gov/pubs/gtr/gtr_nrs77.pdf" xr:uid="{FF3ED5FB-BF24-4947-873F-C13912D22236}"/>
+    <hyperlink ref="B93:B96" r:id="rId80" display="https://www.fs.usda.gov/fmsc/ftp/fvs/docs/gtr/EssentialFVS.pdf" xr:uid="{4B8B0D61-F6A6-42D9-8C7D-C83D26C009DE}"/>
+    <hyperlink ref="B93" r:id="rId81" xr:uid="{41672F0C-92B3-416C-85B6-DD3BF44B6A75}"/>
+    <hyperlink ref="B81:B97" r:id="rId82" display="https://www.fs.usda.gov/fmsc/ftp/fvs/docs/gtr/EssentialFVS.pdf" xr:uid="{FE7EEACD-BA94-4DEC-BEDF-120981E57CA1}"/>
+    <hyperlink ref="B98:B103" r:id="rId83" display="https://www.fs.usda.gov/fmsc/ftp/fvs/docs/gtr/DBSUserGuide.pdf" xr:uid="{0D49BF94-3900-4073-B0CC-0EA945AA38D0}"/>
+    <hyperlink ref="B81" r:id="rId84" xr:uid="{5C0D567A-77C4-4720-899D-10CC872FA00B}"/>
+    <hyperlink ref="B26" r:id="rId85" xr:uid="{CCFFDACD-3E7F-45A7-A1E2-D0739704B4CD}"/>
+    <hyperlink ref="B80" r:id="rId86" xr:uid="{5BE80ACC-66C8-4939-BC9C-678BE69A216A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/fvsOL/inst/extdata/databaseDescription.xlsx
+++ b/fvsOL/inst/extdata/databaseDescription.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code_repos\ForestVegetationSimulator-Interface\fvsOL\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2840CB0C-E973-4A5D-8A03-C3B4E3ED2BAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDC54FB6-3801-439E-AAF5-C3CD67DED5AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="718" firstSheet="88" activeTab="94" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="718" firstSheet="10" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ColorKey" sheetId="1" r:id="rId1"/>
@@ -140,7 +140,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10082" uniqueCount="2917">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10082" uniqueCount="2919">
   <si>
     <t>Tab Color</t>
   </si>
@@ -8900,6 +8900,12 @@
   </si>
   <si>
     <t>Number of stands</t>
+  </si>
+  <si>
+    <t>Trees per acre</t>
+  </si>
+  <si>
+    <t>Total Production Trees per acre</t>
   </si>
 </sst>
 </file>
@@ -13784,8 +13790,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13886,7 +13892,7 @@
         <v>193</v>
       </c>
       <c r="B7" s="52" t="s">
-        <v>268</v>
+        <v>2917</v>
       </c>
       <c r="C7" s="52" t="s">
         <v>174</v>
@@ -13900,7 +13906,7 @@
         <v>324</v>
       </c>
       <c r="B8" s="52" t="s">
-        <v>340</v>
+        <v>2918</v>
       </c>
       <c r="C8" s="52" t="s">
         <v>174</v>
@@ -46707,7 +46713,7 @@
   </sheetPr>
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>

--- a/fvsOL/inst/extdata/databaseDescription.xlsx
+++ b/fvsOL/inst/extdata/databaseDescription.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code_repos\ForestVegetationSimulator-Interface\fvsOL\inst\extdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\stable_repos\ForestVegetationSimulator-Interface\fvsOL\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDC54FB6-3801-439E-AAF5-C3CD67DED5AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6A4EA10-02FE-47E1-B733-B4C16DD66541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="718" firstSheet="10" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5835" yWindow="330" windowWidth="25500" windowHeight="15600" tabRatio="718" firstSheet="86" activeTab="94" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ColorKey" sheetId="1" r:id="rId1"/>
@@ -140,7 +140,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10082" uniqueCount="2919">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10090" uniqueCount="2922">
   <si>
     <t>Tab Color</t>
   </si>
@@ -8906,6 +8906,15 @@
   </si>
   <si>
     <t>Total Production Trees per acre</t>
+  </si>
+  <si>
+    <t>SpeciesFVSnum</t>
+  </si>
+  <si>
+    <t>FVS Species Number</t>
+  </si>
+  <si>
+    <t>The variant specific sequential FVS species number</t>
   </si>
 </sst>
 </file>
@@ -9384,9 +9393,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -9424,7 +9433,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -9530,7 +9539,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -9672,7 +9681,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -13790,7 +13799,7 @@
   </sheetPr>
   <dimension ref="A1:AMJ30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -16271,7 +16280,7 @@
   </sheetPr>
   <dimension ref="A1:AMJ102"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
@@ -34713,10 +34722,10 @@
   <sheetPr>
     <tabColor rgb="FF203864"/>
   </sheetPr>
-  <dimension ref="A1:AMJ12"/>
+  <dimension ref="A1:AMJ13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34785,114 +34794,128 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
-        <v>529</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>530</v>
-      </c>
-      <c r="C5" s="22" t="s">
+      <c r="A5" s="36" t="s">
+        <v>2919</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>2920</v>
+      </c>
+      <c r="C5" s="36" t="s">
         <v>155</v>
       </c>
-      <c r="D5" s="22" t="s">
-        <v>531</v>
+      <c r="D5" s="36" t="s">
+        <v>2921</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="C6" s="22" t="s">
         <v>155</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="C7" s="22" t="s">
         <v>155</v>
       </c>
       <c r="D7" s="22" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
+        <v>535</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>536</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="D8" s="22" t="s">
         <v>537</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="36" t="s">
-        <v>1662</v>
-      </c>
-      <c r="B8" s="36" t="s">
-        <v>1663</v>
-      </c>
-      <c r="C8" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="D8" s="36" t="s">
-        <v>1664</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="36" t="s">
-        <v>1665</v>
+        <v>1662</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>1666</v>
+        <v>1663</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="D9" s="36" t="s">
-        <v>1667</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="36" t="s">
-        <v>1668</v>
+        <v>1665</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>1669</v>
+        <v>1666</v>
       </c>
       <c r="C10" s="36" t="s">
         <v>174</v>
       </c>
       <c r="D10" s="36" t="s">
-        <v>1670</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="36" t="s">
-        <v>1671</v>
+        <v>1668</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>1672</v>
+        <v>1669</v>
       </c>
       <c r="C11" s="36" t="s">
         <v>174</v>
       </c>
       <c r="D11" s="36" t="s">
-        <v>1673</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="36" t="s">
+        <v>1671</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="36" t="s">
         <v>1674</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B13" s="36" t="s">
         <v>1675</v>
       </c>
-      <c r="C12" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="D12" s="36" t="s">
+      <c r="C13" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="D13" s="36" t="s">
         <v>2907</v>
       </c>
     </row>
@@ -46711,10 +46734,10 @@
   <sheetPr>
     <tabColor theme="5" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46769,118 +46792,132 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1659</v>
-      </c>
-      <c r="B4" s="55" t="s">
-        <v>1660</v>
+        <v>2919</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2920</v>
       </c>
       <c r="C4" s="36" t="s">
         <v>155</v>
       </c>
       <c r="D4" s="55" t="s">
-        <v>1661</v>
+        <v>2921</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>2914</v>
+        <v>1659</v>
       </c>
       <c r="B5" s="55" t="s">
-        <v>2916</v>
+        <v>1660</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>189</v>
+        <v>155</v>
       </c>
       <c r="D5" s="55" t="s">
-        <v>2915</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>2895</v>
-      </c>
-      <c r="B6" t="s">
-        <v>2909</v>
-      </c>
-      <c r="C6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D6" t="s">
-        <v>2901</v>
+        <v>2914</v>
+      </c>
+      <c r="B6" s="55" t="s">
+        <v>2916</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="D6" s="55" t="s">
+        <v>2915</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>2896</v>
+        <v>2895</v>
       </c>
       <c r="B7" t="s">
-        <v>2911</v>
+        <v>2909</v>
       </c>
       <c r="C7" t="s">
         <v>174</v>
       </c>
       <c r="D7" t="s">
-        <v>2902</v>
+        <v>2901</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>2897</v>
+        <v>2896</v>
       </c>
       <c r="B8" t="s">
-        <v>2910</v>
+        <v>2911</v>
       </c>
       <c r="C8" t="s">
         <v>174</v>
       </c>
       <c r="D8" t="s">
-        <v>2903</v>
+        <v>2902</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>2898</v>
+        <v>2897</v>
       </c>
       <c r="B9" t="s">
-        <v>2912</v>
+        <v>2910</v>
       </c>
       <c r="C9" t="s">
         <v>174</v>
       </c>
       <c r="D9" t="s">
-        <v>2904</v>
+        <v>2903</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>2899</v>
+        <v>2898</v>
       </c>
       <c r="B10" t="s">
-        <v>2908</v>
-      </c>
-      <c r="C10" s="36" t="s">
-        <v>189</v>
+        <v>2912</v>
+      </c>
+      <c r="C10" t="s">
+        <v>174</v>
       </c>
       <c r="D10" t="s">
-        <v>2905</v>
+        <v>2904</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>2899</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2908</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2905</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>2900</v>
       </c>
-      <c r="B11" s="55" t="s">
+      <c r="B12" s="55" t="s">
         <v>1675</v>
       </c>
-      <c r="C11" t="s">
-        <v>174</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="C12" t="s">
+        <v>174</v>
+      </c>
+      <c r="D12" t="s">
         <v>2906</v>
       </c>
     </row>
-    <row r="23" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F23" s="36"/>
+    <row r="24" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F24" s="36"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/fvsOL/inst/extdata/databaseDescription.xlsx
+++ b/fvsOL/inst/extdata/databaseDescription.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code_repos\ForestVegetationSimulator-Interface\fvsOL\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31491B26-4DE8-4536-B11E-9FD36CEF6654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2A0DC28-9486-4674-A643-64A240390558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2625" yWindow="105" windowWidth="25500" windowHeight="15600" tabRatio="718" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2655" yWindow="1800" windowWidth="21600" windowHeight="11295" tabRatio="718" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ColorKey" sheetId="1" r:id="rId1"/>
@@ -34,106 +34,107 @@
     <sheet name="FVS_DM_Spp_Sum_Metric" sheetId="17" r:id="rId19"/>
     <sheet name="FVS_DM_Sz_Sum" sheetId="18" r:id="rId20"/>
     <sheet name="FVS_DM_Sz_Sum_Metric" sheetId="19" r:id="rId21"/>
-    <sheet name="FVS_Treelist" sheetId="20" r:id="rId22"/>
-    <sheet name="FVS_Treelist_Metric" sheetId="21" r:id="rId23"/>
-    <sheet name="FVS_FIAVBC_Treelist" sheetId="111" r:id="rId24"/>
-    <sheet name="FVS_Treelist_East" sheetId="22" r:id="rId25"/>
-    <sheet name="FVS_Treelist_East_Metric" sheetId="23" r:id="rId26"/>
-    <sheet name="FVS_Cutlist" sheetId="24" r:id="rId27"/>
-    <sheet name="FVS_Cutlist_Metric" sheetId="25" r:id="rId28"/>
-    <sheet name="FVS_FIAVBC_Cutlist" sheetId="112" r:id="rId29"/>
-    <sheet name="FVS_Cutlist_East" sheetId="26" r:id="rId30"/>
-    <sheet name="FVS_Cutlist_East_Metric" sheetId="27" r:id="rId31"/>
-    <sheet name="FVS_ATRTList" sheetId="28" r:id="rId32"/>
-    <sheet name="FVS_ATRTList_Metric" sheetId="29" r:id="rId33"/>
-    <sheet name="FVS_FIAVBC_ATRTList" sheetId="113" r:id="rId34"/>
-    <sheet name="FVS_ATRTList_East" sheetId="30" r:id="rId35"/>
-    <sheet name="FVS_ATRTList_East_Metric" sheetId="31" r:id="rId36"/>
-    <sheet name="FVS_Carbon" sheetId="32" r:id="rId37"/>
-    <sheet name="FVS_Carbon_Metric" sheetId="33" r:id="rId38"/>
-    <sheet name="FVS_Consumption" sheetId="34" r:id="rId39"/>
-    <sheet name="FVS_Consumption_Metric" sheetId="35" r:id="rId40"/>
-    <sheet name="FVS_Hrv_Carbon" sheetId="36" r:id="rId41"/>
-    <sheet name="FVS_Hrv_Carbon_Metric" sheetId="37" r:id="rId42"/>
-    <sheet name="FVS_Fuels" sheetId="38" r:id="rId43"/>
-    <sheet name="FVS_Fuels_Metric" sheetId="39" r:id="rId44"/>
-    <sheet name="FVS_Potfire" sheetId="40" r:id="rId45"/>
-    <sheet name="FVS_Potfire_Metric" sheetId="41" r:id="rId46"/>
-    <sheet name="FVS_Potfire_East" sheetId="42" r:id="rId47"/>
-    <sheet name="FVS_Potfire_East_Metric" sheetId="43" r:id="rId48"/>
-    <sheet name="FVS_Potfire_Cond" sheetId="44" r:id="rId49"/>
-    <sheet name="FVS_Potfire_Cond_Metric" sheetId="45" r:id="rId50"/>
-    <sheet name="FVS_BurnReport" sheetId="46" r:id="rId51"/>
-    <sheet name="FVS_BurnReport_Metric" sheetId="47" r:id="rId52"/>
-    <sheet name="FVS_Mortality" sheetId="48" r:id="rId53"/>
-    <sheet name="FVS_Mortality_Metric" sheetId="49" r:id="rId54"/>
-    <sheet name="FVS_Down_Wood_Cov" sheetId="50" r:id="rId55"/>
-    <sheet name="FVS_Down_Wood_Cov_Metric" sheetId="51" r:id="rId56"/>
-    <sheet name="FVS_Down_Wood_Vol" sheetId="52" r:id="rId57"/>
-    <sheet name="FVS_Down_Wood_Vol_Metric" sheetId="53" r:id="rId58"/>
-    <sheet name="FVS_CanProfile" sheetId="54" r:id="rId59"/>
-    <sheet name="FVS_SnagSum" sheetId="55" r:id="rId60"/>
-    <sheet name="FVS_SnagSum_Metric" sheetId="56" r:id="rId61"/>
-    <sheet name="FVS_SnagDet" sheetId="57" r:id="rId62"/>
-    <sheet name="FVS_SnagDet_Metric" sheetId="58" r:id="rId63"/>
-    <sheet name="FVS_StrClass" sheetId="59" r:id="rId64"/>
-    <sheet name="FVS_StrClass_Metric" sheetId="60" r:id="rId65"/>
-    <sheet name="FVS_CalibStats" sheetId="61" r:id="rId66"/>
-    <sheet name="FVS_Climate" sheetId="62" r:id="rId67"/>
-    <sheet name="FVS_Climate_Metric" sheetId="63" r:id="rId68"/>
-    <sheet name="FVS_EconSummary" sheetId="64" r:id="rId69"/>
-    <sheet name="FVS_EconSummary_Metric" sheetId="65" r:id="rId70"/>
-    <sheet name="FVS_EconHarvestValue" sheetId="66" r:id="rId71"/>
-    <sheet name="FVS_EconHarvestValue_Metric" sheetId="67" r:id="rId72"/>
-    <sheet name="FVS_RD_Sum" sheetId="68" r:id="rId73"/>
-    <sheet name="FVS_RD_Sum_Metric" sheetId="69" r:id="rId74"/>
-    <sheet name="FVS_RD_Det" sheetId="70" r:id="rId75"/>
-    <sheet name="FVS_RD_Det_Metric" sheetId="71" r:id="rId76"/>
-    <sheet name="FVS_RD_Beetle" sheetId="72" r:id="rId77"/>
-    <sheet name="FVS_RD_Beetle_Metric" sheetId="73" r:id="rId78"/>
-    <sheet name="FVS_Stats_Species" sheetId="74" r:id="rId79"/>
-    <sheet name="FVS_Stats_Species_Metric" sheetId="75" r:id="rId80"/>
-    <sheet name="FVS_Stats_Stand" sheetId="76" r:id="rId81"/>
-    <sheet name="FVS_Regen_Sprouts" sheetId="77" r:id="rId82"/>
-    <sheet name="FVS_Regen_Sprouts_Metric" sheetId="78" r:id="rId83"/>
-    <sheet name="FVS_Regen_SitePrep" sheetId="79" r:id="rId84"/>
-    <sheet name="FVS_Regen_HabType" sheetId="80" r:id="rId85"/>
-    <sheet name="FVS_Regen_Tally" sheetId="81" r:id="rId86"/>
-    <sheet name="FVS_Regen_Tally_Metric" sheetId="82" r:id="rId87"/>
-    <sheet name="FVS_Regen_Ingrow" sheetId="83" r:id="rId88"/>
-    <sheet name="FVS_Regen_Ingrow_Metric" sheetId="84" r:id="rId89"/>
-    <sheet name="InputTableDescriptions" sheetId="85" r:id="rId90"/>
-    <sheet name="FVS_GroupAddFilesAndKeywords" sheetId="86" r:id="rId91"/>
-    <sheet name="FVS_StandInit" sheetId="87" r:id="rId92"/>
-    <sheet name="FVS_PlotInit" sheetId="88" r:id="rId93"/>
-    <sheet name="FVS_TreeInit" sheetId="89" r:id="rId94"/>
-    <sheet name="StdStk" sheetId="90" r:id="rId95"/>
-    <sheet name="StdStk_Metric" sheetId="91" r:id="rId96"/>
-    <sheet name="StdStk_East" sheetId="92" r:id="rId97"/>
-    <sheet name="StdStk_East_Metric" sheetId="93" r:id="rId98"/>
-    <sheet name="CmpMetaData" sheetId="94" r:id="rId99"/>
-    <sheet name="CmpCalibStats" sheetId="109" r:id="rId100"/>
-    <sheet name="CmpStdStk" sheetId="95" r:id="rId101"/>
-    <sheet name="CmpStdStk_Metric" sheetId="96" r:id="rId102"/>
-    <sheet name="CmpStdStk_East" sheetId="97" r:id="rId103"/>
-    <sheet name="CmpStdStk_East_Metric" sheetId="98" r:id="rId104"/>
-    <sheet name="CmpSummary" sheetId="99" r:id="rId105"/>
-    <sheet name="CmpSummary_Metric" sheetId="100" r:id="rId106"/>
-    <sheet name="CmpSummary_East" sheetId="101" r:id="rId107"/>
-    <sheet name="CmpSummary_East_Metric" sheetId="102" r:id="rId108"/>
-    <sheet name="CmpSummary2" sheetId="103" r:id="rId109"/>
-    <sheet name="CmpSummary2_Metric" sheetId="104" r:id="rId110"/>
-    <sheet name="CmpSummary2_East" sheetId="105" r:id="rId111"/>
-    <sheet name="CmpSummary2_East_Metric" sheetId="106" r:id="rId112"/>
-    <sheet name="View_DWN" sheetId="107" r:id="rId113"/>
-    <sheet name="View_DWN_Metric" sheetId="108" r:id="rId114"/>
+    <sheet name="FVS_Error" sheetId="115" r:id="rId22"/>
+    <sheet name="FVS_Treelist" sheetId="20" r:id="rId23"/>
+    <sheet name="FVS_Treelist_Metric" sheetId="21" r:id="rId24"/>
+    <sheet name="FVS_FIAVBC_Treelist" sheetId="111" r:id="rId25"/>
+    <sheet name="FVS_Treelist_East" sheetId="22" r:id="rId26"/>
+    <sheet name="FVS_Treelist_East_Metric" sheetId="23" r:id="rId27"/>
+    <sheet name="FVS_Cutlist" sheetId="24" r:id="rId28"/>
+    <sheet name="FVS_Cutlist_Metric" sheetId="25" r:id="rId29"/>
+    <sheet name="FVS_FIAVBC_Cutlist" sheetId="112" r:id="rId30"/>
+    <sheet name="FVS_Cutlist_East" sheetId="26" r:id="rId31"/>
+    <sheet name="FVS_Cutlist_East_Metric" sheetId="27" r:id="rId32"/>
+    <sheet name="FVS_ATRTList" sheetId="28" r:id="rId33"/>
+    <sheet name="FVS_ATRTList_Metric" sheetId="29" r:id="rId34"/>
+    <sheet name="FVS_FIAVBC_ATRTList" sheetId="113" r:id="rId35"/>
+    <sheet name="FVS_ATRTList_East" sheetId="30" r:id="rId36"/>
+    <sheet name="FVS_ATRTList_East_Metric" sheetId="31" r:id="rId37"/>
+    <sheet name="FVS_Carbon" sheetId="32" r:id="rId38"/>
+    <sheet name="FVS_Carbon_Metric" sheetId="33" r:id="rId39"/>
+    <sheet name="FVS_Consumption" sheetId="34" r:id="rId40"/>
+    <sheet name="FVS_Consumption_Metric" sheetId="35" r:id="rId41"/>
+    <sheet name="FVS_Hrv_Carbon" sheetId="36" r:id="rId42"/>
+    <sheet name="FVS_Hrv_Carbon_Metric" sheetId="37" r:id="rId43"/>
+    <sheet name="FVS_Fuels" sheetId="38" r:id="rId44"/>
+    <sheet name="FVS_Fuels_Metric" sheetId="39" r:id="rId45"/>
+    <sheet name="FVS_Potfire" sheetId="40" r:id="rId46"/>
+    <sheet name="FVS_Potfire_Metric" sheetId="41" r:id="rId47"/>
+    <sheet name="FVS_Potfire_East" sheetId="42" r:id="rId48"/>
+    <sheet name="FVS_Potfire_East_Metric" sheetId="43" r:id="rId49"/>
+    <sheet name="FVS_Potfire_Cond" sheetId="44" r:id="rId50"/>
+    <sheet name="FVS_Potfire_Cond_Metric" sheetId="45" r:id="rId51"/>
+    <sheet name="FVS_BurnReport" sheetId="46" r:id="rId52"/>
+    <sheet name="FVS_BurnReport_Metric" sheetId="47" r:id="rId53"/>
+    <sheet name="FVS_Mortality" sheetId="48" r:id="rId54"/>
+    <sheet name="FVS_Mortality_Metric" sheetId="49" r:id="rId55"/>
+    <sheet name="FVS_Down_Wood_Cov" sheetId="50" r:id="rId56"/>
+    <sheet name="FVS_Down_Wood_Cov_Metric" sheetId="51" r:id="rId57"/>
+    <sheet name="FVS_Down_Wood_Vol" sheetId="52" r:id="rId58"/>
+    <sheet name="FVS_Down_Wood_Vol_Metric" sheetId="53" r:id="rId59"/>
+    <sheet name="FVS_CanProfile" sheetId="54" r:id="rId60"/>
+    <sheet name="FVS_SnagSum" sheetId="55" r:id="rId61"/>
+    <sheet name="FVS_SnagSum_Metric" sheetId="56" r:id="rId62"/>
+    <sheet name="FVS_SnagDet" sheetId="57" r:id="rId63"/>
+    <sheet name="FVS_SnagDet_Metric" sheetId="58" r:id="rId64"/>
+    <sheet name="FVS_StrClass" sheetId="59" r:id="rId65"/>
+    <sheet name="FVS_StrClass_Metric" sheetId="60" r:id="rId66"/>
+    <sheet name="FVS_CalibStats" sheetId="61" r:id="rId67"/>
+    <sheet name="FVS_Climate" sheetId="62" r:id="rId68"/>
+    <sheet name="FVS_Climate_Metric" sheetId="63" r:id="rId69"/>
+    <sheet name="FVS_EconSummary" sheetId="64" r:id="rId70"/>
+    <sheet name="FVS_EconSummary_Metric" sheetId="65" r:id="rId71"/>
+    <sheet name="FVS_EconHarvestValue" sheetId="66" r:id="rId72"/>
+    <sheet name="FVS_EconHarvestValue_Metric" sheetId="67" r:id="rId73"/>
+    <sheet name="FVS_RD_Sum" sheetId="68" r:id="rId74"/>
+    <sheet name="FVS_RD_Sum_Metric" sheetId="69" r:id="rId75"/>
+    <sheet name="FVS_RD_Det" sheetId="70" r:id="rId76"/>
+    <sheet name="FVS_RD_Det_Metric" sheetId="71" r:id="rId77"/>
+    <sheet name="FVS_RD_Beetle" sheetId="72" r:id="rId78"/>
+    <sheet name="FVS_RD_Beetle_Metric" sheetId="73" r:id="rId79"/>
+    <sheet name="FVS_Stats_Species" sheetId="74" r:id="rId80"/>
+    <sheet name="FVS_Stats_Species_Metric" sheetId="75" r:id="rId81"/>
+    <sheet name="FVS_Stats_Stand" sheetId="76" r:id="rId82"/>
+    <sheet name="FVS_Regen_Sprouts" sheetId="77" r:id="rId83"/>
+    <sheet name="FVS_Regen_Sprouts_Metric" sheetId="78" r:id="rId84"/>
+    <sheet name="FVS_Regen_SitePrep" sheetId="79" r:id="rId85"/>
+    <sheet name="FVS_Regen_HabType" sheetId="80" r:id="rId86"/>
+    <sheet name="FVS_Regen_Tally" sheetId="81" r:id="rId87"/>
+    <sheet name="FVS_Regen_Tally_Metric" sheetId="82" r:id="rId88"/>
+    <sheet name="FVS_Regen_Ingrow" sheetId="83" r:id="rId89"/>
+    <sheet name="FVS_Regen_Ingrow_Metric" sheetId="84" r:id="rId90"/>
+    <sheet name="InputTableDescriptions" sheetId="85" r:id="rId91"/>
+    <sheet name="FVS_GroupAddFilesAndKeywords" sheetId="86" r:id="rId92"/>
+    <sheet name="FVS_StandInit" sheetId="87" r:id="rId93"/>
+    <sheet name="FVS_PlotInit" sheetId="88" r:id="rId94"/>
+    <sheet name="FVS_TreeInit" sheetId="89" r:id="rId95"/>
+    <sheet name="StdStk" sheetId="90" r:id="rId96"/>
+    <sheet name="StdStk_Metric" sheetId="91" r:id="rId97"/>
+    <sheet name="StdStk_East" sheetId="92" r:id="rId98"/>
+    <sheet name="StdStk_East_Metric" sheetId="93" r:id="rId99"/>
+    <sheet name="CmpMetaData" sheetId="94" r:id="rId100"/>
+    <sheet name="CmpCalibStats" sheetId="109" r:id="rId101"/>
+    <sheet name="CmpStdStk" sheetId="95" r:id="rId102"/>
+    <sheet name="CmpStdStk_Metric" sheetId="96" r:id="rId103"/>
+    <sheet name="CmpStdStk_East" sheetId="97" r:id="rId104"/>
+    <sheet name="CmpStdStk_East_Metric" sheetId="98" r:id="rId105"/>
+    <sheet name="CmpSummary" sheetId="99" r:id="rId106"/>
+    <sheet name="CmpSummary_Metric" sheetId="100" r:id="rId107"/>
+    <sheet name="CmpSummary_East" sheetId="101" r:id="rId108"/>
+    <sheet name="CmpSummary_East_Metric" sheetId="102" r:id="rId109"/>
+    <sheet name="CmpSummary2" sheetId="103" r:id="rId110"/>
+    <sheet name="CmpSummary2_Metric" sheetId="104" r:id="rId111"/>
+    <sheet name="CmpSummary2_East" sheetId="105" r:id="rId112"/>
+    <sheet name="CmpSummary2_East_Metric" sheetId="106" r:id="rId113"/>
+    <sheet name="View_DWN" sheetId="107" r:id="rId114"/>
+    <sheet name="View_DWN_Metric" sheetId="108" r:id="rId115"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">GuideLinks!$A$1:$B$104</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">OutputTableDescriptions!$A$1:$B$107</definedName>
-    <definedName name="OLE_LINK3" localSheetId="36">FVS_Carbon!$D$5</definedName>
-    <definedName name="OLE_LINK3" localSheetId="94">StdStk!$D$5</definedName>
-    <definedName name="OLE_LINK3" localSheetId="96">StdStk_East!$D$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">GuideLinks!$A$1:$B$105</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">OutputTableDescriptions!$A$1:$B$108</definedName>
+    <definedName name="OLE_LINK3" localSheetId="37">FVS_Carbon!$D$5</definedName>
+    <definedName name="OLE_LINK3" localSheetId="95">StdStk!$D$5</definedName>
+    <definedName name="OLE_LINK3" localSheetId="97">StdStk_East!$D$5</definedName>
   </definedNames>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -145,7 +146,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10784" uniqueCount="3094">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10804" uniqueCount="3099">
   <si>
     <t>Tab Color</t>
   </si>
@@ -9436,6 +9437,21 @@
   </si>
   <si>
     <t>FIAVBC computed treelist that include biomass and carbon proportions</t>
+  </si>
+  <si>
+    <t>FVS_Error</t>
+  </si>
+  <si>
+    <t>Contains information related to errors generated by FVS during a simulation</t>
+  </si>
+  <si>
+    <t>Description of error</t>
+  </si>
+  <si>
+    <t>Error Message</t>
+  </si>
+  <si>
+    <t>Message</t>
   </si>
 </sst>
 </file>
@@ -10988,6 +11004,161 @@
 </file>
 
 <file path=xl/worksheets/sheet100.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5D00-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FF000000"/>
+  </sheetPr>
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" customWidth="1"/>
+    <col min="4" max="4" width="30.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="51" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1" s="51" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1" s="51" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1" s="51" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2612</v>
+      </c>
+      <c r="C2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2613</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2614</v>
+      </c>
+      <c r="C3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2615</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2617</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2618</v>
+      </c>
+      <c r="C5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2619</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2620</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2621</v>
+      </c>
+      <c r="C6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2622</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>178</v>
+      </c>
+      <c r="B7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C7" t="s">
+        <v>155</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2623</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>180</v>
+      </c>
+      <c r="B8" t="s">
+        <v>181</v>
+      </c>
+      <c r="C8" t="s">
+        <v>155</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2624</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B9" t="s">
+        <v>170</v>
+      </c>
+      <c r="C9" t="s">
+        <v>155</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2625</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet101.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C007B4C-961B-416C-B609-7D883C21C7C5}">
   <sheetPr>
     <tabColor theme="5" tint="-0.499984740745262"/>
@@ -11182,7 +11353,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet101.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet102.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5E00-000000000000}">
   <sheetPr>
     <tabColor theme="5" tint="-0.499984740745262"/>
@@ -15696,7 +15867,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet102.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet103.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5F00-000000000000}">
   <sheetPr>
     <tabColor rgb="FFF4B183"/>
@@ -16086,7 +16257,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet103.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet104.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-6000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFBF9000"/>
@@ -16548,7 +16719,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet104.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet105.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-6100-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFD966"/>
@@ -17010,7 +17181,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet105.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet106.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-6200-000000000000}">
   <sheetPr>
     <tabColor rgb="FF843C0B"/>
@@ -17389,7 +17560,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet106.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet107.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-6300-000000000000}">
   <sheetPr>
     <tabColor rgb="FFF4B183"/>
@@ -17736,7 +17907,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet107.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet108.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-6400-000000000000}">
   <sheetPr>
     <tabColor rgb="FFBF9000"/>
@@ -18088,7 +18259,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet108.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet109.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-6500-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFD966"/>
@@ -18433,386 +18604,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet109.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-6600-000000000000}">
-  <sheetPr>
-    <tabColor rgb="FF843C0B"/>
-  </sheetPr>
-  <dimension ref="A1:AMJ25"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.42578125" style="43" customWidth="1"/>
-    <col min="2" max="2" width="50.5703125" style="43" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="43"/>
-    <col min="4" max="4" width="77.140625" style="43" customWidth="1"/>
-    <col min="5" max="1024" width="11.5703125" style="43"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
-        <v>150</v>
-      </c>
-      <c r="B1" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="C1" s="51" t="s">
-        <v>152</v>
-      </c>
-      <c r="D1" s="51" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
-        <v>163</v>
-      </c>
-      <c r="B2" s="43" t="s">
-        <v>163</v>
-      </c>
-      <c r="C2" s="43" t="s">
-        <v>155</v>
-      </c>
-      <c r="D2" s="43" t="s">
-        <v>2723</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
-        <v>188</v>
-      </c>
-      <c r="B3" s="52" t="s">
-        <v>188</v>
-      </c>
-      <c r="C3" s="52" t="s">
-        <v>189</v>
-      </c>
-      <c r="D3" s="52" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="43" t="s">
-        <v>321</v>
-      </c>
-      <c r="B4" s="52" t="s">
-        <v>322</v>
-      </c>
-      <c r="C4" s="52" t="s">
-        <v>189</v>
-      </c>
-      <c r="D4" s="52" t="s">
-        <v>2786</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="43" t="s">
-        <v>2724</v>
-      </c>
-      <c r="B5" s="52" t="s">
-        <v>191</v>
-      </c>
-      <c r="C5" s="52" t="s">
-        <v>189</v>
-      </c>
-      <c r="D5" s="52" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="43" t="s">
-        <v>2726</v>
-      </c>
-      <c r="B6" s="52" t="s">
-        <v>194</v>
-      </c>
-      <c r="C6" s="52" t="s">
-        <v>174</v>
-      </c>
-      <c r="D6" s="52" t="s">
-        <v>2787</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="43" t="s">
-        <v>2788</v>
-      </c>
-      <c r="B7" s="52" t="s">
-        <v>325</v>
-      </c>
-      <c r="C7" s="52" t="s">
-        <v>174</v>
-      </c>
-      <c r="D7" s="52" t="s">
-        <v>2789</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="43" t="s">
-        <v>2728</v>
-      </c>
-      <c r="B8" s="52" t="s">
-        <v>197</v>
-      </c>
-      <c r="C8" s="52" t="s">
-        <v>174</v>
-      </c>
-      <c r="D8" s="52" t="s">
-        <v>2790</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="43" t="s">
-        <v>2730</v>
-      </c>
-      <c r="B9" s="52" t="s">
-        <v>200</v>
-      </c>
-      <c r="C9" s="52" t="s">
-        <v>174</v>
-      </c>
-      <c r="D9" s="52" t="s">
-        <v>2791</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="43" t="s">
-        <v>2732</v>
-      </c>
-      <c r="B10" s="52" t="s">
-        <v>202</v>
-      </c>
-      <c r="C10" s="52" t="s">
-        <v>174</v>
-      </c>
-      <c r="D10" s="52" t="s">
-        <v>2792</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="43" t="s">
-        <v>2734</v>
-      </c>
-      <c r="B11" s="52" t="s">
-        <v>204</v>
-      </c>
-      <c r="C11" s="52" t="s">
-        <v>174</v>
-      </c>
-      <c r="D11" s="52" t="s">
-        <v>2735</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="43" t="s">
-        <v>2736</v>
-      </c>
-      <c r="B12" s="52" t="s">
-        <v>207</v>
-      </c>
-      <c r="C12" s="52" t="s">
-        <v>174</v>
-      </c>
-      <c r="D12" s="52" t="s">
-        <v>2793</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="43" t="s">
-        <v>2738</v>
-      </c>
-      <c r="B13" s="52" t="s">
-        <v>210</v>
-      </c>
-      <c r="C13" s="52" t="s">
-        <v>174</v>
-      </c>
-      <c r="D13" s="52" t="s">
-        <v>2794</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="43" t="s">
-        <v>2795</v>
-      </c>
-      <c r="B14" s="52" t="s">
-        <v>328</v>
-      </c>
-      <c r="C14" s="52" t="s">
-        <v>174</v>
-      </c>
-      <c r="D14" s="52" t="s">
-        <v>2796</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="43" t="s">
-        <v>2740</v>
-      </c>
-      <c r="B15" s="52" t="s">
-        <v>213</v>
-      </c>
-      <c r="C15" s="52" t="s">
-        <v>174</v>
-      </c>
-      <c r="D15" s="52" t="s">
-        <v>2797</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="43" t="s">
-        <v>2798</v>
-      </c>
-      <c r="B16" s="52" t="s">
-        <v>331</v>
-      </c>
-      <c r="C16" s="52" t="s">
-        <v>174</v>
-      </c>
-      <c r="D16" s="52" t="s">
-        <v>2799</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="43" t="s">
-        <v>2770</v>
-      </c>
-      <c r="B17" s="52" t="s">
-        <v>3030</v>
-      </c>
-      <c r="C17" s="52" t="s">
-        <v>174</v>
-      </c>
-      <c r="D17" s="52" t="s">
-        <v>3034</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="43" t="s">
-        <v>2812</v>
-      </c>
-      <c r="B18" s="52" t="s">
-        <v>3036</v>
-      </c>
-      <c r="C18" s="52" t="s">
-        <v>174</v>
-      </c>
-      <c r="D18" s="52" t="s">
-        <v>3035</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="43" t="s">
-        <v>2742</v>
-      </c>
-      <c r="B19" s="52" t="s">
-        <v>216</v>
-      </c>
-      <c r="C19" s="52" t="s">
-        <v>174</v>
-      </c>
-      <c r="D19" s="52" t="s">
-        <v>2800</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="43" t="s">
-        <v>2801</v>
-      </c>
-      <c r="B20" s="52" t="s">
-        <v>335</v>
-      </c>
-      <c r="C20" s="52" t="s">
-        <v>174</v>
-      </c>
-      <c r="D20" s="52" t="s">
-        <v>2802</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="43" t="s">
-        <v>2744</v>
-      </c>
-      <c r="B21" s="52" t="s">
-        <v>219</v>
-      </c>
-      <c r="C21" s="52" t="s">
-        <v>174</v>
-      </c>
-      <c r="D21" s="52" t="s">
-        <v>2745</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="43" t="s">
-        <v>2748</v>
-      </c>
-      <c r="B22" s="52" t="s">
-        <v>222</v>
-      </c>
-      <c r="C22" s="52" t="s">
-        <v>174</v>
-      </c>
-      <c r="D22" s="52" t="s">
-        <v>2747</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="43" t="s">
-        <v>2746</v>
-      </c>
-      <c r="B23" s="52" t="s">
-        <v>2803</v>
-      </c>
-      <c r="C23" s="52" t="s">
-        <v>174</v>
-      </c>
-      <c r="D23" s="52" t="s">
-        <v>2804</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="43" t="s">
-        <v>2778</v>
-      </c>
-      <c r="B24" s="52" t="s">
-        <v>228</v>
-      </c>
-      <c r="C24" s="52" t="s">
-        <v>174</v>
-      </c>
-      <c r="D24" s="52" t="s">
-        <v>2805</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="43" t="s">
-        <v>2762</v>
-      </c>
-      <c r="B25" s="52" t="s">
-        <v>173</v>
-      </c>
-      <c r="C25" s="52" t="s">
-        <v>174</v>
-      </c>
-      <c r="D25" s="52" t="s">
-        <v>2763</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
@@ -19263,6 +19054,386 @@
 </file>
 
 <file path=xl/worksheets/sheet110.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-6600-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FF843C0B"/>
+  </sheetPr>
+  <dimension ref="A1:AMJ25"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.42578125" style="43" customWidth="1"/>
+    <col min="2" max="2" width="50.5703125" style="43" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="43"/>
+    <col min="4" max="4" width="77.140625" style="43" customWidth="1"/>
+    <col min="5" max="1024" width="11.5703125" style="43"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="51" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1" s="51" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1" s="51" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1" s="51" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="43" t="s">
+        <v>163</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>155</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>2723</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="43" t="s">
+        <v>188</v>
+      </c>
+      <c r="B3" s="52" t="s">
+        <v>188</v>
+      </c>
+      <c r="C3" s="52" t="s">
+        <v>189</v>
+      </c>
+      <c r="D3" s="52" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="43" t="s">
+        <v>321</v>
+      </c>
+      <c r="B4" s="52" t="s">
+        <v>322</v>
+      </c>
+      <c r="C4" s="52" t="s">
+        <v>189</v>
+      </c>
+      <c r="D4" s="52" t="s">
+        <v>2786</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="43" t="s">
+        <v>2724</v>
+      </c>
+      <c r="B5" s="52" t="s">
+        <v>191</v>
+      </c>
+      <c r="C5" s="52" t="s">
+        <v>189</v>
+      </c>
+      <c r="D5" s="52" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="43" t="s">
+        <v>2726</v>
+      </c>
+      <c r="B6" s="52" t="s">
+        <v>194</v>
+      </c>
+      <c r="C6" s="52" t="s">
+        <v>174</v>
+      </c>
+      <c r="D6" s="52" t="s">
+        <v>2787</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="43" t="s">
+        <v>2788</v>
+      </c>
+      <c r="B7" s="52" t="s">
+        <v>325</v>
+      </c>
+      <c r="C7" s="52" t="s">
+        <v>174</v>
+      </c>
+      <c r="D7" s="52" t="s">
+        <v>2789</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="43" t="s">
+        <v>2728</v>
+      </c>
+      <c r="B8" s="52" t="s">
+        <v>197</v>
+      </c>
+      <c r="C8" s="52" t="s">
+        <v>174</v>
+      </c>
+      <c r="D8" s="52" t="s">
+        <v>2790</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="43" t="s">
+        <v>2730</v>
+      </c>
+      <c r="B9" s="52" t="s">
+        <v>200</v>
+      </c>
+      <c r="C9" s="52" t="s">
+        <v>174</v>
+      </c>
+      <c r="D9" s="52" t="s">
+        <v>2791</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="43" t="s">
+        <v>2732</v>
+      </c>
+      <c r="B10" s="52" t="s">
+        <v>202</v>
+      </c>
+      <c r="C10" s="52" t="s">
+        <v>174</v>
+      </c>
+      <c r="D10" s="52" t="s">
+        <v>2792</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="43" t="s">
+        <v>2734</v>
+      </c>
+      <c r="B11" s="52" t="s">
+        <v>204</v>
+      </c>
+      <c r="C11" s="52" t="s">
+        <v>174</v>
+      </c>
+      <c r="D11" s="52" t="s">
+        <v>2735</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="43" t="s">
+        <v>2736</v>
+      </c>
+      <c r="B12" s="52" t="s">
+        <v>207</v>
+      </c>
+      <c r="C12" s="52" t="s">
+        <v>174</v>
+      </c>
+      <c r="D12" s="52" t="s">
+        <v>2793</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="43" t="s">
+        <v>2738</v>
+      </c>
+      <c r="B13" s="52" t="s">
+        <v>210</v>
+      </c>
+      <c r="C13" s="52" t="s">
+        <v>174</v>
+      </c>
+      <c r="D13" s="52" t="s">
+        <v>2794</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="43" t="s">
+        <v>2795</v>
+      </c>
+      <c r="B14" s="52" t="s">
+        <v>328</v>
+      </c>
+      <c r="C14" s="52" t="s">
+        <v>174</v>
+      </c>
+      <c r="D14" s="52" t="s">
+        <v>2796</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="43" t="s">
+        <v>2740</v>
+      </c>
+      <c r="B15" s="52" t="s">
+        <v>213</v>
+      </c>
+      <c r="C15" s="52" t="s">
+        <v>174</v>
+      </c>
+      <c r="D15" s="52" t="s">
+        <v>2797</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="43" t="s">
+        <v>2798</v>
+      </c>
+      <c r="B16" s="52" t="s">
+        <v>331</v>
+      </c>
+      <c r="C16" s="52" t="s">
+        <v>174</v>
+      </c>
+      <c r="D16" s="52" t="s">
+        <v>2799</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="43" t="s">
+        <v>2770</v>
+      </c>
+      <c r="B17" s="52" t="s">
+        <v>3030</v>
+      </c>
+      <c r="C17" s="52" t="s">
+        <v>174</v>
+      </c>
+      <c r="D17" s="52" t="s">
+        <v>3034</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="43" t="s">
+        <v>2812</v>
+      </c>
+      <c r="B18" s="52" t="s">
+        <v>3036</v>
+      </c>
+      <c r="C18" s="52" t="s">
+        <v>174</v>
+      </c>
+      <c r="D18" s="52" t="s">
+        <v>3035</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="43" t="s">
+        <v>2742</v>
+      </c>
+      <c r="B19" s="52" t="s">
+        <v>216</v>
+      </c>
+      <c r="C19" s="52" t="s">
+        <v>174</v>
+      </c>
+      <c r="D19" s="52" t="s">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="43" t="s">
+        <v>2801</v>
+      </c>
+      <c r="B20" s="52" t="s">
+        <v>335</v>
+      </c>
+      <c r="C20" s="52" t="s">
+        <v>174</v>
+      </c>
+      <c r="D20" s="52" t="s">
+        <v>2802</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="43" t="s">
+        <v>2744</v>
+      </c>
+      <c r="B21" s="52" t="s">
+        <v>219</v>
+      </c>
+      <c r="C21" s="52" t="s">
+        <v>174</v>
+      </c>
+      <c r="D21" s="52" t="s">
+        <v>2745</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="43" t="s">
+        <v>2748</v>
+      </c>
+      <c r="B22" s="52" t="s">
+        <v>222</v>
+      </c>
+      <c r="C22" s="52" t="s">
+        <v>174</v>
+      </c>
+      <c r="D22" s="52" t="s">
+        <v>2747</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="43" t="s">
+        <v>2746</v>
+      </c>
+      <c r="B23" s="52" t="s">
+        <v>2803</v>
+      </c>
+      <c r="C23" s="52" t="s">
+        <v>174</v>
+      </c>
+      <c r="D23" s="52" t="s">
+        <v>2804</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="43" t="s">
+        <v>2778</v>
+      </c>
+      <c r="B24" s="52" t="s">
+        <v>228</v>
+      </c>
+      <c r="C24" s="52" t="s">
+        <v>174</v>
+      </c>
+      <c r="D24" s="52" t="s">
+        <v>2805</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="43" t="s">
+        <v>2762</v>
+      </c>
+      <c r="B25" s="52" t="s">
+        <v>173</v>
+      </c>
+      <c r="C25" s="52" t="s">
+        <v>174</v>
+      </c>
+      <c r="D25" s="52" t="s">
+        <v>2763</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet111.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-6700-000000000000}">
   <sheetPr>
     <tabColor rgb="FFF4B183"/>
@@ -19608,7 +19779,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet111.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet112.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-6800-000000000000}">
   <sheetPr>
     <tabColor rgb="FFBF9000"/>
@@ -19980,7 +20151,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet112.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet113.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-6900-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFD966"/>
@@ -20346,7 +20517,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet113.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet114.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-6A00-000000000000}">
   <sheetPr>
     <tabColor rgb="FF843C0B"/>
@@ -20615,7 +20786,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet114.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet115.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-6B00-000000000000}">
   <sheetPr>
     <tabColor rgb="FFF4B183"/>
@@ -23309,10 +23480,10 @@
   <sheetPr>
     <tabColor rgb="FF0D0D0D"/>
   </sheetPr>
-  <dimension ref="A1:AMJ107"/>
+  <dimension ref="A1:AMJ108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B95" sqref="B95"/>
+    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50:XFD50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="77.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23706,7 +23877,7 @@
         <v>2882</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1024" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="30" t="s">
         <v>99</v>
       </c>
@@ -23714,474 +23885,1504 @@
         <v>2882</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A50" s="25" t="s">
+        <v>3094</v>
+      </c>
+      <c r="B50" s="22" t="s">
+        <v>3095</v>
+      </c>
+      <c r="C50"/>
+      <c r="D50"/>
+      <c r="E50"/>
+      <c r="F50"/>
+      <c r="G50"/>
+      <c r="H50"/>
+      <c r="I50"/>
+      <c r="J50"/>
+      <c r="K50"/>
+      <c r="L50"/>
+      <c r="M50"/>
+      <c r="N50"/>
+      <c r="O50"/>
+      <c r="P50"/>
+      <c r="Q50"/>
+      <c r="R50"/>
+      <c r="S50"/>
+      <c r="T50"/>
+      <c r="U50"/>
+      <c r="V50"/>
+      <c r="W50"/>
+      <c r="X50"/>
+      <c r="Y50"/>
+      <c r="Z50"/>
+      <c r="AA50"/>
+      <c r="AB50"/>
+      <c r="AC50"/>
+      <c r="AD50"/>
+      <c r="AE50"/>
+      <c r="AF50"/>
+      <c r="AG50"/>
+      <c r="AH50"/>
+      <c r="AI50"/>
+      <c r="AJ50"/>
+      <c r="AK50"/>
+      <c r="AL50"/>
+      <c r="AM50"/>
+      <c r="AN50"/>
+      <c r="AO50"/>
+      <c r="AP50"/>
+      <c r="AQ50"/>
+      <c r="AR50"/>
+      <c r="AS50"/>
+      <c r="AT50"/>
+      <c r="AU50"/>
+      <c r="AV50"/>
+      <c r="AW50"/>
+      <c r="AX50"/>
+      <c r="AY50"/>
+      <c r="AZ50"/>
+      <c r="BA50"/>
+      <c r="BB50"/>
+      <c r="BC50"/>
+      <c r="BD50"/>
+      <c r="BE50"/>
+      <c r="BF50"/>
+      <c r="BG50"/>
+      <c r="BH50"/>
+      <c r="BI50"/>
+      <c r="BJ50"/>
+      <c r="BK50"/>
+      <c r="BL50"/>
+      <c r="BM50"/>
+      <c r="BN50"/>
+      <c r="BO50"/>
+      <c r="BP50"/>
+      <c r="BQ50"/>
+      <c r="BR50"/>
+      <c r="BS50"/>
+      <c r="BT50"/>
+      <c r="BU50"/>
+      <c r="BV50"/>
+      <c r="BW50"/>
+      <c r="BX50"/>
+      <c r="BY50"/>
+      <c r="BZ50"/>
+      <c r="CA50"/>
+      <c r="CB50"/>
+      <c r="CC50"/>
+      <c r="CD50"/>
+      <c r="CE50"/>
+      <c r="CF50"/>
+      <c r="CG50"/>
+      <c r="CH50"/>
+      <c r="CI50"/>
+      <c r="CJ50"/>
+      <c r="CK50"/>
+      <c r="CL50"/>
+      <c r="CM50"/>
+      <c r="CN50"/>
+      <c r="CO50"/>
+      <c r="CP50"/>
+      <c r="CQ50"/>
+      <c r="CR50"/>
+      <c r="CS50"/>
+      <c r="CT50"/>
+      <c r="CU50"/>
+      <c r="CV50"/>
+      <c r="CW50"/>
+      <c r="CX50"/>
+      <c r="CY50"/>
+      <c r="CZ50"/>
+      <c r="DA50"/>
+      <c r="DB50"/>
+      <c r="DC50"/>
+      <c r="DD50"/>
+      <c r="DE50"/>
+      <c r="DF50"/>
+      <c r="DG50"/>
+      <c r="DH50"/>
+      <c r="DI50"/>
+      <c r="DJ50"/>
+      <c r="DK50"/>
+      <c r="DL50"/>
+      <c r="DM50"/>
+      <c r="DN50"/>
+      <c r="DO50"/>
+      <c r="DP50"/>
+      <c r="DQ50"/>
+      <c r="DR50"/>
+      <c r="DS50"/>
+      <c r="DT50"/>
+      <c r="DU50"/>
+      <c r="DV50"/>
+      <c r="DW50"/>
+      <c r="DX50"/>
+      <c r="DY50"/>
+      <c r="DZ50"/>
+      <c r="EA50"/>
+      <c r="EB50"/>
+      <c r="EC50"/>
+      <c r="ED50"/>
+      <c r="EE50"/>
+      <c r="EF50"/>
+      <c r="EG50"/>
+      <c r="EH50"/>
+      <c r="EI50"/>
+      <c r="EJ50"/>
+      <c r="EK50"/>
+      <c r="EL50"/>
+      <c r="EM50"/>
+      <c r="EN50"/>
+      <c r="EO50"/>
+      <c r="EP50"/>
+      <c r="EQ50"/>
+      <c r="ER50"/>
+      <c r="ES50"/>
+      <c r="ET50"/>
+      <c r="EU50"/>
+      <c r="EV50"/>
+      <c r="EW50"/>
+      <c r="EX50"/>
+      <c r="EY50"/>
+      <c r="EZ50"/>
+      <c r="FA50"/>
+      <c r="FB50"/>
+      <c r="FC50"/>
+      <c r="FD50"/>
+      <c r="FE50"/>
+      <c r="FF50"/>
+      <c r="FG50"/>
+      <c r="FH50"/>
+      <c r="FI50"/>
+      <c r="FJ50"/>
+      <c r="FK50"/>
+      <c r="FL50"/>
+      <c r="FM50"/>
+      <c r="FN50"/>
+      <c r="FO50"/>
+      <c r="FP50"/>
+      <c r="FQ50"/>
+      <c r="FR50"/>
+      <c r="FS50"/>
+      <c r="FT50"/>
+      <c r="FU50"/>
+      <c r="FV50"/>
+      <c r="FW50"/>
+      <c r="FX50"/>
+      <c r="FY50"/>
+      <c r="FZ50"/>
+      <c r="GA50"/>
+      <c r="GB50"/>
+      <c r="GC50"/>
+      <c r="GD50"/>
+      <c r="GE50"/>
+      <c r="GF50"/>
+      <c r="GG50"/>
+      <c r="GH50"/>
+      <c r="GI50"/>
+      <c r="GJ50"/>
+      <c r="GK50"/>
+      <c r="GL50"/>
+      <c r="GM50"/>
+      <c r="GN50"/>
+      <c r="GO50"/>
+      <c r="GP50"/>
+      <c r="GQ50"/>
+      <c r="GR50"/>
+      <c r="GS50"/>
+      <c r="GT50"/>
+      <c r="GU50"/>
+      <c r="GV50"/>
+      <c r="GW50"/>
+      <c r="GX50"/>
+      <c r="GY50"/>
+      <c r="GZ50"/>
+      <c r="HA50"/>
+      <c r="HB50"/>
+      <c r="HC50"/>
+      <c r="HD50"/>
+      <c r="HE50"/>
+      <c r="HF50"/>
+      <c r="HG50"/>
+      <c r="HH50"/>
+      <c r="HI50"/>
+      <c r="HJ50"/>
+      <c r="HK50"/>
+      <c r="HL50"/>
+      <c r="HM50"/>
+      <c r="HN50"/>
+      <c r="HO50"/>
+      <c r="HP50"/>
+      <c r="HQ50"/>
+      <c r="HR50"/>
+      <c r="HS50"/>
+      <c r="HT50"/>
+      <c r="HU50"/>
+      <c r="HV50"/>
+      <c r="HW50"/>
+      <c r="HX50"/>
+      <c r="HY50"/>
+      <c r="HZ50"/>
+      <c r="IA50"/>
+      <c r="IB50"/>
+      <c r="IC50"/>
+      <c r="ID50"/>
+      <c r="IE50"/>
+      <c r="IF50"/>
+      <c r="IG50"/>
+      <c r="IH50"/>
+      <c r="II50"/>
+      <c r="IJ50"/>
+      <c r="IK50"/>
+      <c r="IL50"/>
+      <c r="IM50"/>
+      <c r="IN50"/>
+      <c r="IO50"/>
+      <c r="IP50"/>
+      <c r="IQ50"/>
+      <c r="IR50"/>
+      <c r="IS50"/>
+      <c r="IT50"/>
+      <c r="IU50"/>
+      <c r="IV50"/>
+      <c r="IW50"/>
+      <c r="IX50"/>
+      <c r="IY50"/>
+      <c r="IZ50"/>
+      <c r="JA50"/>
+      <c r="JB50"/>
+      <c r="JC50"/>
+      <c r="JD50"/>
+      <c r="JE50"/>
+      <c r="JF50"/>
+      <c r="JG50"/>
+      <c r="JH50"/>
+      <c r="JI50"/>
+      <c r="JJ50"/>
+      <c r="JK50"/>
+      <c r="JL50"/>
+      <c r="JM50"/>
+      <c r="JN50"/>
+      <c r="JO50"/>
+      <c r="JP50"/>
+      <c r="JQ50"/>
+      <c r="JR50"/>
+      <c r="JS50"/>
+      <c r="JT50"/>
+      <c r="JU50"/>
+      <c r="JV50"/>
+      <c r="JW50"/>
+      <c r="JX50"/>
+      <c r="JY50"/>
+      <c r="JZ50"/>
+      <c r="KA50"/>
+      <c r="KB50"/>
+      <c r="KC50"/>
+      <c r="KD50"/>
+      <c r="KE50"/>
+      <c r="KF50"/>
+      <c r="KG50"/>
+      <c r="KH50"/>
+      <c r="KI50"/>
+      <c r="KJ50"/>
+      <c r="KK50"/>
+      <c r="KL50"/>
+      <c r="KM50"/>
+      <c r="KN50"/>
+      <c r="KO50"/>
+      <c r="KP50"/>
+      <c r="KQ50"/>
+      <c r="KR50"/>
+      <c r="KS50"/>
+      <c r="KT50"/>
+      <c r="KU50"/>
+      <c r="KV50"/>
+      <c r="KW50"/>
+      <c r="KX50"/>
+      <c r="KY50"/>
+      <c r="KZ50"/>
+      <c r="LA50"/>
+      <c r="LB50"/>
+      <c r="LC50"/>
+      <c r="LD50"/>
+      <c r="LE50"/>
+      <c r="LF50"/>
+      <c r="LG50"/>
+      <c r="LH50"/>
+      <c r="LI50"/>
+      <c r="LJ50"/>
+      <c r="LK50"/>
+      <c r="LL50"/>
+      <c r="LM50"/>
+      <c r="LN50"/>
+      <c r="LO50"/>
+      <c r="LP50"/>
+      <c r="LQ50"/>
+      <c r="LR50"/>
+      <c r="LS50"/>
+      <c r="LT50"/>
+      <c r="LU50"/>
+      <c r="LV50"/>
+      <c r="LW50"/>
+      <c r="LX50"/>
+      <c r="LY50"/>
+      <c r="LZ50"/>
+      <c r="MA50"/>
+      <c r="MB50"/>
+      <c r="MC50"/>
+      <c r="MD50"/>
+      <c r="ME50"/>
+      <c r="MF50"/>
+      <c r="MG50"/>
+      <c r="MH50"/>
+      <c r="MI50"/>
+      <c r="MJ50"/>
+      <c r="MK50"/>
+      <c r="ML50"/>
+      <c r="MM50"/>
+      <c r="MN50"/>
+      <c r="MO50"/>
+      <c r="MP50"/>
+      <c r="MQ50"/>
+      <c r="MR50"/>
+      <c r="MS50"/>
+      <c r="MT50"/>
+      <c r="MU50"/>
+      <c r="MV50"/>
+      <c r="MW50"/>
+      <c r="MX50"/>
+      <c r="MY50"/>
+      <c r="MZ50"/>
+      <c r="NA50"/>
+      <c r="NB50"/>
+      <c r="NC50"/>
+      <c r="ND50"/>
+      <c r="NE50"/>
+      <c r="NF50"/>
+      <c r="NG50"/>
+      <c r="NH50"/>
+      <c r="NI50"/>
+      <c r="NJ50"/>
+      <c r="NK50"/>
+      <c r="NL50"/>
+      <c r="NM50"/>
+      <c r="NN50"/>
+      <c r="NO50"/>
+      <c r="NP50"/>
+      <c r="NQ50"/>
+      <c r="NR50"/>
+      <c r="NS50"/>
+      <c r="NT50"/>
+      <c r="NU50"/>
+      <c r="NV50"/>
+      <c r="NW50"/>
+      <c r="NX50"/>
+      <c r="NY50"/>
+      <c r="NZ50"/>
+      <c r="OA50"/>
+      <c r="OB50"/>
+      <c r="OC50"/>
+      <c r="OD50"/>
+      <c r="OE50"/>
+      <c r="OF50"/>
+      <c r="OG50"/>
+      <c r="OH50"/>
+      <c r="OI50"/>
+      <c r="OJ50"/>
+      <c r="OK50"/>
+      <c r="OL50"/>
+      <c r="OM50"/>
+      <c r="ON50"/>
+      <c r="OO50"/>
+      <c r="OP50"/>
+      <c r="OQ50"/>
+      <c r="OR50"/>
+      <c r="OS50"/>
+      <c r="OT50"/>
+      <c r="OU50"/>
+      <c r="OV50"/>
+      <c r="OW50"/>
+      <c r="OX50"/>
+      <c r="OY50"/>
+      <c r="OZ50"/>
+      <c r="PA50"/>
+      <c r="PB50"/>
+      <c r="PC50"/>
+      <c r="PD50"/>
+      <c r="PE50"/>
+      <c r="PF50"/>
+      <c r="PG50"/>
+      <c r="PH50"/>
+      <c r="PI50"/>
+      <c r="PJ50"/>
+      <c r="PK50"/>
+      <c r="PL50"/>
+      <c r="PM50"/>
+      <c r="PN50"/>
+      <c r="PO50"/>
+      <c r="PP50"/>
+      <c r="PQ50"/>
+      <c r="PR50"/>
+      <c r="PS50"/>
+      <c r="PT50"/>
+      <c r="PU50"/>
+      <c r="PV50"/>
+      <c r="PW50"/>
+      <c r="PX50"/>
+      <c r="PY50"/>
+      <c r="PZ50"/>
+      <c r="QA50"/>
+      <c r="QB50"/>
+      <c r="QC50"/>
+      <c r="QD50"/>
+      <c r="QE50"/>
+      <c r="QF50"/>
+      <c r="QG50"/>
+      <c r="QH50"/>
+      <c r="QI50"/>
+      <c r="QJ50"/>
+      <c r="QK50"/>
+      <c r="QL50"/>
+      <c r="QM50"/>
+      <c r="QN50"/>
+      <c r="QO50"/>
+      <c r="QP50"/>
+      <c r="QQ50"/>
+      <c r="QR50"/>
+      <c r="QS50"/>
+      <c r="QT50"/>
+      <c r="QU50"/>
+      <c r="QV50"/>
+      <c r="QW50"/>
+      <c r="QX50"/>
+      <c r="QY50"/>
+      <c r="QZ50"/>
+      <c r="RA50"/>
+      <c r="RB50"/>
+      <c r="RC50"/>
+      <c r="RD50"/>
+      <c r="RE50"/>
+      <c r="RF50"/>
+      <c r="RG50"/>
+      <c r="RH50"/>
+      <c r="RI50"/>
+      <c r="RJ50"/>
+      <c r="RK50"/>
+      <c r="RL50"/>
+      <c r="RM50"/>
+      <c r="RN50"/>
+      <c r="RO50"/>
+      <c r="RP50"/>
+      <c r="RQ50"/>
+      <c r="RR50"/>
+      <c r="RS50"/>
+      <c r="RT50"/>
+      <c r="RU50"/>
+      <c r="RV50"/>
+      <c r="RW50"/>
+      <c r="RX50"/>
+      <c r="RY50"/>
+      <c r="RZ50"/>
+      <c r="SA50"/>
+      <c r="SB50"/>
+      <c r="SC50"/>
+      <c r="SD50"/>
+      <c r="SE50"/>
+      <c r="SF50"/>
+      <c r="SG50"/>
+      <c r="SH50"/>
+      <c r="SI50"/>
+      <c r="SJ50"/>
+      <c r="SK50"/>
+      <c r="SL50"/>
+      <c r="SM50"/>
+      <c r="SN50"/>
+      <c r="SO50"/>
+      <c r="SP50"/>
+      <c r="SQ50"/>
+      <c r="SR50"/>
+      <c r="SS50"/>
+      <c r="ST50"/>
+      <c r="SU50"/>
+      <c r="SV50"/>
+      <c r="SW50"/>
+      <c r="SX50"/>
+      <c r="SY50"/>
+      <c r="SZ50"/>
+      <c r="TA50"/>
+      <c r="TB50"/>
+      <c r="TC50"/>
+      <c r="TD50"/>
+      <c r="TE50"/>
+      <c r="TF50"/>
+      <c r="TG50"/>
+      <c r="TH50"/>
+      <c r="TI50"/>
+      <c r="TJ50"/>
+      <c r="TK50"/>
+      <c r="TL50"/>
+      <c r="TM50"/>
+      <c r="TN50"/>
+      <c r="TO50"/>
+      <c r="TP50"/>
+      <c r="TQ50"/>
+      <c r="TR50"/>
+      <c r="TS50"/>
+      <c r="TT50"/>
+      <c r="TU50"/>
+      <c r="TV50"/>
+      <c r="TW50"/>
+      <c r="TX50"/>
+      <c r="TY50"/>
+      <c r="TZ50"/>
+      <c r="UA50"/>
+      <c r="UB50"/>
+      <c r="UC50"/>
+      <c r="UD50"/>
+      <c r="UE50"/>
+      <c r="UF50"/>
+      <c r="UG50"/>
+      <c r="UH50"/>
+      <c r="UI50"/>
+      <c r="UJ50"/>
+      <c r="UK50"/>
+      <c r="UL50"/>
+      <c r="UM50"/>
+      <c r="UN50"/>
+      <c r="UO50"/>
+      <c r="UP50"/>
+      <c r="UQ50"/>
+      <c r="UR50"/>
+      <c r="US50"/>
+      <c r="UT50"/>
+      <c r="UU50"/>
+      <c r="UV50"/>
+      <c r="UW50"/>
+      <c r="UX50"/>
+      <c r="UY50"/>
+      <c r="UZ50"/>
+      <c r="VA50"/>
+      <c r="VB50"/>
+      <c r="VC50"/>
+      <c r="VD50"/>
+      <c r="VE50"/>
+      <c r="VF50"/>
+      <c r="VG50"/>
+      <c r="VH50"/>
+      <c r="VI50"/>
+      <c r="VJ50"/>
+      <c r="VK50"/>
+      <c r="VL50"/>
+      <c r="VM50"/>
+      <c r="VN50"/>
+      <c r="VO50"/>
+      <c r="VP50"/>
+      <c r="VQ50"/>
+      <c r="VR50"/>
+      <c r="VS50"/>
+      <c r="VT50"/>
+      <c r="VU50"/>
+      <c r="VV50"/>
+      <c r="VW50"/>
+      <c r="VX50"/>
+      <c r="VY50"/>
+      <c r="VZ50"/>
+      <c r="WA50"/>
+      <c r="WB50"/>
+      <c r="WC50"/>
+      <c r="WD50"/>
+      <c r="WE50"/>
+      <c r="WF50"/>
+      <c r="WG50"/>
+      <c r="WH50"/>
+      <c r="WI50"/>
+      <c r="WJ50"/>
+      <c r="WK50"/>
+      <c r="WL50"/>
+      <c r="WM50"/>
+      <c r="WN50"/>
+      <c r="WO50"/>
+      <c r="WP50"/>
+      <c r="WQ50"/>
+      <c r="WR50"/>
+      <c r="WS50"/>
+      <c r="WT50"/>
+      <c r="WU50"/>
+      <c r="WV50"/>
+      <c r="WW50"/>
+      <c r="WX50"/>
+      <c r="WY50"/>
+      <c r="WZ50"/>
+      <c r="XA50"/>
+      <c r="XB50"/>
+      <c r="XC50"/>
+      <c r="XD50"/>
+      <c r="XE50"/>
+      <c r="XF50"/>
+      <c r="XG50"/>
+      <c r="XH50"/>
+      <c r="XI50"/>
+      <c r="XJ50"/>
+      <c r="XK50"/>
+      <c r="XL50"/>
+      <c r="XM50"/>
+      <c r="XN50"/>
+      <c r="XO50"/>
+      <c r="XP50"/>
+      <c r="XQ50"/>
+      <c r="XR50"/>
+      <c r="XS50"/>
+      <c r="XT50"/>
+      <c r="XU50"/>
+      <c r="XV50"/>
+      <c r="XW50"/>
+      <c r="XX50"/>
+      <c r="XY50"/>
+      <c r="XZ50"/>
+      <c r="YA50"/>
+      <c r="YB50"/>
+      <c r="YC50"/>
+      <c r="YD50"/>
+      <c r="YE50"/>
+      <c r="YF50"/>
+      <c r="YG50"/>
+      <c r="YH50"/>
+      <c r="YI50"/>
+      <c r="YJ50"/>
+      <c r="YK50"/>
+      <c r="YL50"/>
+      <c r="YM50"/>
+      <c r="YN50"/>
+      <c r="YO50"/>
+      <c r="YP50"/>
+      <c r="YQ50"/>
+      <c r="YR50"/>
+      <c r="YS50"/>
+      <c r="YT50"/>
+      <c r="YU50"/>
+      <c r="YV50"/>
+      <c r="YW50"/>
+      <c r="YX50"/>
+      <c r="YY50"/>
+      <c r="YZ50"/>
+      <c r="ZA50"/>
+      <c r="ZB50"/>
+      <c r="ZC50"/>
+      <c r="ZD50"/>
+      <c r="ZE50"/>
+      <c r="ZF50"/>
+      <c r="ZG50"/>
+      <c r="ZH50"/>
+      <c r="ZI50"/>
+      <c r="ZJ50"/>
+      <c r="ZK50"/>
+      <c r="ZL50"/>
+      <c r="ZM50"/>
+      <c r="ZN50"/>
+      <c r="ZO50"/>
+      <c r="ZP50"/>
+      <c r="ZQ50"/>
+      <c r="ZR50"/>
+      <c r="ZS50"/>
+      <c r="ZT50"/>
+      <c r="ZU50"/>
+      <c r="ZV50"/>
+      <c r="ZW50"/>
+      <c r="ZX50"/>
+      <c r="ZY50"/>
+      <c r="ZZ50"/>
+      <c r="AAA50"/>
+      <c r="AAB50"/>
+      <c r="AAC50"/>
+      <c r="AAD50"/>
+      <c r="AAE50"/>
+      <c r="AAF50"/>
+      <c r="AAG50"/>
+      <c r="AAH50"/>
+      <c r="AAI50"/>
+      <c r="AAJ50"/>
+      <c r="AAK50"/>
+      <c r="AAL50"/>
+      <c r="AAM50"/>
+      <c r="AAN50"/>
+      <c r="AAO50"/>
+      <c r="AAP50"/>
+      <c r="AAQ50"/>
+      <c r="AAR50"/>
+      <c r="AAS50"/>
+      <c r="AAT50"/>
+      <c r="AAU50"/>
+      <c r="AAV50"/>
+      <c r="AAW50"/>
+      <c r="AAX50"/>
+      <c r="AAY50"/>
+      <c r="AAZ50"/>
+      <c r="ABA50"/>
+      <c r="ABB50"/>
+      <c r="ABC50"/>
+      <c r="ABD50"/>
+      <c r="ABE50"/>
+      <c r="ABF50"/>
+      <c r="ABG50"/>
+      <c r="ABH50"/>
+      <c r="ABI50"/>
+      <c r="ABJ50"/>
+      <c r="ABK50"/>
+      <c r="ABL50"/>
+      <c r="ABM50"/>
+      <c r="ABN50"/>
+      <c r="ABO50"/>
+      <c r="ABP50"/>
+      <c r="ABQ50"/>
+      <c r="ABR50"/>
+      <c r="ABS50"/>
+      <c r="ABT50"/>
+      <c r="ABU50"/>
+      <c r="ABV50"/>
+      <c r="ABW50"/>
+      <c r="ABX50"/>
+      <c r="ABY50"/>
+      <c r="ABZ50"/>
+      <c r="ACA50"/>
+      <c r="ACB50"/>
+      <c r="ACC50"/>
+      <c r="ACD50"/>
+      <c r="ACE50"/>
+      <c r="ACF50"/>
+      <c r="ACG50"/>
+      <c r="ACH50"/>
+      <c r="ACI50"/>
+      <c r="ACJ50"/>
+      <c r="ACK50"/>
+      <c r="ACL50"/>
+      <c r="ACM50"/>
+      <c r="ACN50"/>
+      <c r="ACO50"/>
+      <c r="ACP50"/>
+      <c r="ACQ50"/>
+      <c r="ACR50"/>
+      <c r="ACS50"/>
+      <c r="ACT50"/>
+      <c r="ACU50"/>
+      <c r="ACV50"/>
+      <c r="ACW50"/>
+      <c r="ACX50"/>
+      <c r="ACY50"/>
+      <c r="ACZ50"/>
+      <c r="ADA50"/>
+      <c r="ADB50"/>
+      <c r="ADC50"/>
+      <c r="ADD50"/>
+      <c r="ADE50"/>
+      <c r="ADF50"/>
+      <c r="ADG50"/>
+      <c r="ADH50"/>
+      <c r="ADI50"/>
+      <c r="ADJ50"/>
+      <c r="ADK50"/>
+      <c r="ADL50"/>
+      <c r="ADM50"/>
+      <c r="ADN50"/>
+      <c r="ADO50"/>
+      <c r="ADP50"/>
+      <c r="ADQ50"/>
+      <c r="ADR50"/>
+      <c r="ADS50"/>
+      <c r="ADT50"/>
+      <c r="ADU50"/>
+      <c r="ADV50"/>
+      <c r="ADW50"/>
+      <c r="ADX50"/>
+      <c r="ADY50"/>
+      <c r="ADZ50"/>
+      <c r="AEA50"/>
+      <c r="AEB50"/>
+      <c r="AEC50"/>
+      <c r="AED50"/>
+      <c r="AEE50"/>
+      <c r="AEF50"/>
+      <c r="AEG50"/>
+      <c r="AEH50"/>
+      <c r="AEI50"/>
+      <c r="AEJ50"/>
+      <c r="AEK50"/>
+      <c r="AEL50"/>
+      <c r="AEM50"/>
+      <c r="AEN50"/>
+      <c r="AEO50"/>
+      <c r="AEP50"/>
+      <c r="AEQ50"/>
+      <c r="AER50"/>
+      <c r="AES50"/>
+      <c r="AET50"/>
+      <c r="AEU50"/>
+      <c r="AEV50"/>
+      <c r="AEW50"/>
+      <c r="AEX50"/>
+      <c r="AEY50"/>
+      <c r="AEZ50"/>
+      <c r="AFA50"/>
+      <c r="AFB50"/>
+      <c r="AFC50"/>
+      <c r="AFD50"/>
+      <c r="AFE50"/>
+      <c r="AFF50"/>
+      <c r="AFG50"/>
+      <c r="AFH50"/>
+      <c r="AFI50"/>
+      <c r="AFJ50"/>
+      <c r="AFK50"/>
+      <c r="AFL50"/>
+      <c r="AFM50"/>
+      <c r="AFN50"/>
+      <c r="AFO50"/>
+      <c r="AFP50"/>
+      <c r="AFQ50"/>
+      <c r="AFR50"/>
+      <c r="AFS50"/>
+      <c r="AFT50"/>
+      <c r="AFU50"/>
+      <c r="AFV50"/>
+      <c r="AFW50"/>
+      <c r="AFX50"/>
+      <c r="AFY50"/>
+      <c r="AFZ50"/>
+      <c r="AGA50"/>
+      <c r="AGB50"/>
+      <c r="AGC50"/>
+      <c r="AGD50"/>
+      <c r="AGE50"/>
+      <c r="AGF50"/>
+      <c r="AGG50"/>
+      <c r="AGH50"/>
+      <c r="AGI50"/>
+      <c r="AGJ50"/>
+      <c r="AGK50"/>
+      <c r="AGL50"/>
+      <c r="AGM50"/>
+      <c r="AGN50"/>
+      <c r="AGO50"/>
+      <c r="AGP50"/>
+      <c r="AGQ50"/>
+      <c r="AGR50"/>
+      <c r="AGS50"/>
+      <c r="AGT50"/>
+      <c r="AGU50"/>
+      <c r="AGV50"/>
+      <c r="AGW50"/>
+      <c r="AGX50"/>
+      <c r="AGY50"/>
+      <c r="AGZ50"/>
+      <c r="AHA50"/>
+      <c r="AHB50"/>
+      <c r="AHC50"/>
+      <c r="AHD50"/>
+      <c r="AHE50"/>
+      <c r="AHF50"/>
+      <c r="AHG50"/>
+      <c r="AHH50"/>
+      <c r="AHI50"/>
+      <c r="AHJ50"/>
+      <c r="AHK50"/>
+      <c r="AHL50"/>
+      <c r="AHM50"/>
+      <c r="AHN50"/>
+      <c r="AHO50"/>
+      <c r="AHP50"/>
+      <c r="AHQ50"/>
+      <c r="AHR50"/>
+      <c r="AHS50"/>
+      <c r="AHT50"/>
+      <c r="AHU50"/>
+      <c r="AHV50"/>
+      <c r="AHW50"/>
+      <c r="AHX50"/>
+      <c r="AHY50"/>
+      <c r="AHZ50"/>
+      <c r="AIA50"/>
+      <c r="AIB50"/>
+      <c r="AIC50"/>
+      <c r="AID50"/>
+      <c r="AIE50"/>
+      <c r="AIF50"/>
+      <c r="AIG50"/>
+      <c r="AIH50"/>
+      <c r="AII50"/>
+      <c r="AIJ50"/>
+      <c r="AIK50"/>
+      <c r="AIL50"/>
+      <c r="AIM50"/>
+      <c r="AIN50"/>
+      <c r="AIO50"/>
+      <c r="AIP50"/>
+      <c r="AIQ50"/>
+      <c r="AIR50"/>
+      <c r="AIS50"/>
+      <c r="AIT50"/>
+      <c r="AIU50"/>
+      <c r="AIV50"/>
+      <c r="AIW50"/>
+      <c r="AIX50"/>
+      <c r="AIY50"/>
+      <c r="AIZ50"/>
+      <c r="AJA50"/>
+      <c r="AJB50"/>
+      <c r="AJC50"/>
+      <c r="AJD50"/>
+      <c r="AJE50"/>
+      <c r="AJF50"/>
+      <c r="AJG50"/>
+      <c r="AJH50"/>
+      <c r="AJI50"/>
+      <c r="AJJ50"/>
+      <c r="AJK50"/>
+      <c r="AJL50"/>
+      <c r="AJM50"/>
+      <c r="AJN50"/>
+      <c r="AJO50"/>
+      <c r="AJP50"/>
+      <c r="AJQ50"/>
+      <c r="AJR50"/>
+      <c r="AJS50"/>
+      <c r="AJT50"/>
+      <c r="AJU50"/>
+      <c r="AJV50"/>
+      <c r="AJW50"/>
+      <c r="AJX50"/>
+      <c r="AJY50"/>
+      <c r="AJZ50"/>
+      <c r="AKA50"/>
+      <c r="AKB50"/>
+      <c r="AKC50"/>
+      <c r="AKD50"/>
+      <c r="AKE50"/>
+      <c r="AKF50"/>
+      <c r="AKG50"/>
+      <c r="AKH50"/>
+      <c r="AKI50"/>
+      <c r="AKJ50"/>
+      <c r="AKK50"/>
+      <c r="AKL50"/>
+      <c r="AKM50"/>
+      <c r="AKN50"/>
+      <c r="AKO50"/>
+      <c r="AKP50"/>
+      <c r="AKQ50"/>
+      <c r="AKR50"/>
+      <c r="AKS50"/>
+      <c r="AKT50"/>
+      <c r="AKU50"/>
+      <c r="AKV50"/>
+      <c r="AKW50"/>
+      <c r="AKX50"/>
+      <c r="AKY50"/>
+      <c r="AKZ50"/>
+      <c r="ALA50"/>
+      <c r="ALB50"/>
+      <c r="ALC50"/>
+      <c r="ALD50"/>
+      <c r="ALE50"/>
+      <c r="ALF50"/>
+      <c r="ALG50"/>
+      <c r="ALH50"/>
+      <c r="ALI50"/>
+      <c r="ALJ50"/>
+      <c r="ALK50"/>
+      <c r="ALL50"/>
+      <c r="ALM50"/>
+      <c r="ALN50"/>
+      <c r="ALO50"/>
+      <c r="ALP50"/>
+      <c r="ALQ50"/>
+      <c r="ALR50"/>
+      <c r="ALS50"/>
+      <c r="ALT50"/>
+      <c r="ALU50"/>
+      <c r="ALV50"/>
+      <c r="ALW50"/>
+      <c r="ALX50"/>
+      <c r="ALY50"/>
+      <c r="ALZ50"/>
+      <c r="AMA50"/>
+      <c r="AMB50"/>
+      <c r="AMC50"/>
+      <c r="AMD50"/>
+      <c r="AME50"/>
+      <c r="AMF50"/>
+      <c r="AMG50"/>
+      <c r="AMH50"/>
+      <c r="AMI50"/>
+      <c r="AMJ50"/>
+    </row>
+    <row r="51" spans="1:1024" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="25" t="s">
         <v>71</v>
-      </c>
-      <c r="B50" s="22" t="s">
-        <v>2869</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="26" t="s">
-        <v>72</v>
       </c>
       <c r="B51" s="22" t="s">
         <v>2869</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="25" t="s">
+    <row r="52" spans="1:1024" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="B52" s="22" t="s">
+        <v>2869</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1024" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="25" t="s">
         <v>69</v>
-      </c>
-      <c r="B52" s="22" t="s">
-        <v>2865</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="26" t="s">
-        <v>70</v>
       </c>
       <c r="B53" s="22" t="s">
         <v>2865</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="25" t="s">
+    <row r="54" spans="1:1024" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B54" s="22" t="s">
+        <v>2865</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1024" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="25" t="s">
         <v>3037</v>
       </c>
-      <c r="B54" s="22" t="s">
+      <c r="B55" s="22" t="s">
         <v>3038</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="25" t="s">
+    <row r="56" spans="1:1024" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="25" t="s">
         <v>81</v>
-      </c>
-      <c r="B55" s="22" t="s">
-        <v>2874</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="30" t="s">
-        <v>82</v>
       </c>
       <c r="B56" s="22" t="s">
         <v>2874</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="25" t="s">
+    <row r="57" spans="1:1024" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="B57" s="22" t="s">
+        <v>2874</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1024" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="B57" s="22" t="s">
+      <c r="B58" s="22" t="s">
         <v>2870</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="25" t="s">
+    <row r="59" spans="1:1024" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="25" t="s">
         <v>77</v>
-      </c>
-      <c r="B58" s="22" t="s">
-        <v>2872</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="30" t="s">
-        <v>78</v>
       </c>
       <c r="B59" s="22" t="s">
         <v>2872</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="27" t="s">
+    <row r="60" spans="1:1024" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="B60" s="22" t="s">
+        <v>2872</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1024" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="27" t="s">
         <v>75</v>
-      </c>
-      <c r="B60" s="22" t="s">
-        <v>2871</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="29" t="s">
-        <v>76</v>
       </c>
       <c r="B61" s="22" t="s">
         <v>2871</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="26" t="s">
+    <row r="62" spans="1:1024" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="B62" s="22" t="s">
+        <v>2871</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1024" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="B62" s="22" t="s">
+      <c r="B63" s="22" t="s">
         <v>2870</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="25" t="s">
+    <row r="64" spans="1:1024" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="25" t="s">
         <v>106</v>
-      </c>
-      <c r="B63" s="22" t="s">
-        <v>2887</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="26" t="s">
-        <v>2886</v>
       </c>
       <c r="B64" s="22" t="s">
         <v>2887</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="25" t="s">
+      <c r="A65" s="26" t="s">
+        <v>2886</v>
+      </c>
+      <c r="B65" s="22" t="s">
+        <v>2887</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="25" t="s">
         <v>104</v>
-      </c>
-      <c r="B65" s="22" t="s">
-        <v>2885</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="26" t="s">
-        <v>105</v>
       </c>
       <c r="B66" s="22" t="s">
         <v>2885</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="25" t="s">
+      <c r="A67" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="B67" s="22" t="s">
+        <v>2885</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="25" t="s">
         <v>102</v>
-      </c>
-      <c r="B67" s="22" t="s">
-        <v>2884</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="26" t="s">
-        <v>103</v>
       </c>
       <c r="B68" s="22" t="s">
         <v>2884</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="25" t="s">
-        <v>115</v>
+      <c r="A69" s="26" t="s">
+        <v>103</v>
       </c>
       <c r="B69" s="22" t="s">
-        <v>116</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="B70" s="22" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="25" t="s">
         <v>120</v>
-      </c>
-      <c r="B70" s="22" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="26" t="s">
-        <v>122</v>
       </c>
       <c r="B71" s="22" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="25" t="s">
-        <v>113</v>
+      <c r="A72" s="26" t="s">
+        <v>122</v>
       </c>
       <c r="B72" s="22" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="B73" s="22" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="25" t="s">
         <v>110</v>
-      </c>
-      <c r="B73" s="22" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="26" t="s">
-        <v>112</v>
       </c>
       <c r="B74" s="22" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="25" t="s">
+      <c r="A75" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="B75" s="22" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="25" t="s">
         <v>117</v>
-      </c>
-      <c r="B75" s="22" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="26" t="s">
-        <v>119</v>
       </c>
       <c r="B76" s="22" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="25" t="s">
+      <c r="A77" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="B77" s="22" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="25" t="s">
         <v>90</v>
-      </c>
-      <c r="B77" s="22" t="s">
-        <v>2879</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="30" t="s">
-        <v>91</v>
       </c>
       <c r="B78" s="22" t="s">
         <v>2879</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="25" t="s">
+      <c r="A79" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="B79" s="22" t="s">
+        <v>2879</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="25" t="s">
         <v>88</v>
-      </c>
-      <c r="B79" s="22" t="s">
-        <v>2878</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="30" t="s">
-        <v>89</v>
       </c>
       <c r="B80" s="22" t="s">
         <v>2878</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="25" t="s">
+      <c r="A81" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="B81" s="22" t="s">
+        <v>2878</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="25" t="s">
         <v>107</v>
-      </c>
-      <c r="B81" s="22" t="s">
-        <v>2888</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="26" t="s">
-        <v>108</v>
       </c>
       <c r="B82" s="22" t="s">
         <v>2888</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="25" t="s">
-        <v>109</v>
+      <c r="A83" s="26" t="s">
+        <v>108</v>
       </c>
       <c r="B83" s="22" t="s">
-        <v>2889</v>
+        <v>2888</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="B84" s="22" t="s">
+        <v>2889</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="25" t="s">
         <v>92</v>
-      </c>
-      <c r="B84" s="22" t="s">
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="26" t="s">
-        <v>93</v>
       </c>
       <c r="B85" s="22" t="s">
         <v>2880</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="25" t="s">
+      <c r="A86" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="B86" s="22" t="s">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B86" s="22" t="s">
+      <c r="B87" s="22" t="s">
         <v>2854</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="27" t="s">
+    <row r="88" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="B87" s="22" t="s">
+      <c r="B88" s="22" t="s">
         <v>2850</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="28" t="s">
+    <row r="89" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B88" s="22" t="s">
+      <c r="B89" s="22" t="s">
         <v>2855</v>
       </c>
     </row>
-    <row r="89" spans="1:2" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="26" t="s">
+    <row r="90" spans="1:2" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B89" s="22" t="s">
+      <c r="B90" s="22" t="s">
         <v>2854</v>
       </c>
     </row>
-    <row r="90" spans="1:2" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="25" t="s">
+    <row r="91" spans="1:2" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="B90" s="22" t="s">
+      <c r="B91" s="22" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="91" spans="1:2" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="27" t="s">
+    <row r="92" spans="1:2" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="B91" s="22" t="s">
+      <c r="B92" s="22" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="92" spans="1:2" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="28" t="s">
+    <row r="93" spans="1:2" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="B92" s="22" t="s">
+      <c r="B93" s="22" t="s">
         <v>2848</v>
       </c>
     </row>
-    <row r="93" spans="1:2" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="26" t="s">
+    <row r="94" spans="1:2" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="B93" s="22" t="s">
+      <c r="B94" s="22" t="s">
         <v>2849</v>
       </c>
     </row>
-    <row r="94" spans="1:2" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="25" t="s">
+    <row r="95" spans="1:2" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="B94" s="22" t="s">
+      <c r="B95" s="22" t="s">
         <v>2853</v>
       </c>
     </row>
-    <row r="95" spans="1:2" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="27" t="s">
+    <row r="96" spans="1:2" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="B95" s="22" t="s">
+      <c r="B96" s="22" t="s">
         <v>2859</v>
       </c>
     </row>
-    <row r="96" spans="1:2" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="28" t="s">
+    <row r="97" spans="1:2" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B96" s="22" t="s">
+      <c r="B97" s="22" t="s">
         <v>2860</v>
       </c>
     </row>
-    <row r="97" spans="1:2" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="26" t="s">
+    <row r="98" spans="1:2" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="B97" s="22" t="s">
+      <c r="B98" s="22" t="s">
         <v>2858</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="25" t="s">
-        <v>3086</v>
-      </c>
-      <c r="B98" s="22" t="s">
-        <v>3090</v>
       </c>
     </row>
     <row r="99" spans="1:2" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="25" t="s">
-        <v>3087</v>
+        <v>3086</v>
       </c>
       <c r="B99" s="22" t="s">
-        <v>3091</v>
+        <v>3090</v>
       </c>
     </row>
     <row r="100" spans="1:2" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="25" t="s">
-        <v>3088</v>
+        <v>3087</v>
       </c>
       <c r="B100" s="22" t="s">
-        <v>3092</v>
+        <v>3091</v>
       </c>
     </row>
     <row r="101" spans="1:2" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="25" t="s">
+        <v>3088</v>
+      </c>
+      <c r="B101" s="22" t="s">
+        <v>3092</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="25" t="s">
         <v>3089</v>
       </c>
-      <c r="B101" s="22" t="s">
+      <c r="B102" s="22" t="s">
         <v>3093</v>
       </c>
     </row>
-    <row r="102" spans="1:2" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="31" t="s">
+    <row r="103" spans="1:2" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="B102" s="22" t="s">
+      <c r="B103" s="22" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="103" spans="1:2" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="33" t="s">
+    <row r="104" spans="1:2" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="33" t="s">
         <v>24</v>
-      </c>
-      <c r="B103" s="22" t="s">
-        <v>2890</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="34" t="s">
-        <v>26</v>
       </c>
       <c r="B104" s="22" t="s">
         <v>2890</v>
       </c>
     </row>
     <row r="105" spans="1:2" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="32" t="s">
+      <c r="A105" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="B105" s="22" t="s">
+        <v>2890</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="B105" s="22" t="s">
+      <c r="B106" s="22" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="106" spans="1:2" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="31" t="s">
+    <row r="107" spans="1:2" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="31" t="s">
         <v>144</v>
-      </c>
-      <c r="B106" s="22" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="32" t="s">
-        <v>146</v>
       </c>
       <c r="B107" s="22" t="s">
         <v>145</v>
       </c>
     </row>
+    <row r="108" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="B108" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B107" xr:uid="{00000000-0001-0000-0100-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B107">
-      <sortCondition ref="A1:A107"/>
+  <autoFilter ref="A1:B108" xr:uid="{00000000-0001-0000-0100-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B108">
+      <sortCondition ref="A1:A108"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -24663,6 +25864,125 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4B921D9-4D0A-4B11-83CA-D758FB36E05E}">
+  <sheetPr>
+    <tabColor theme="4" tint="-0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="25.42578125" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="25.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="36" t="s">
+        <v>160</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="36" t="s">
+        <v>3098</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>3097</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>3096</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="36"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+    </row>
+    <row r="6" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="36"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+    </row>
+    <row r="7" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="36"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+    </row>
+    <row r="8" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="36"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+    </row>
+    <row r="9" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="36"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+    </row>
+    <row r="10" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="36"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+    </row>
+    <row r="11" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="36"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <sheetPr>
     <tabColor rgb="FF203864"/>
@@ -25192,7 +26512,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <sheetPr>
     <tabColor rgb="FF8FAADC"/>
@@ -25706,7 +27026,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1222EE5D-A799-4399-870D-D36E617D256C}">
   <sheetPr>
     <tabColor theme="4" tint="-0.499984740745262"/>
@@ -26180,7 +27500,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <sheetPr>
     <tabColor rgb="FF385724"/>
@@ -26699,7 +28019,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <sheetPr>
     <tabColor rgb="FFA9D18E"/>
@@ -27213,7 +28533,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <sheetPr>
     <tabColor rgb="FF203864"/>
@@ -27743,7 +29063,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <sheetPr>
     <tabColor rgb="FF8FAADC"/>
@@ -28258,7 +29578,965 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FF0D0D0D"/>
+  </sheetPr>
+  <dimension ref="A1:B105"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="43" style="36" customWidth="1"/>
+    <col min="2" max="2" width="96.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="46" t="s">
+        <v>2891</v>
+      </c>
+      <c r="B2" s="68" t="s">
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" s="68" t="s">
+        <v>2844</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="46" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4" s="68" t="s">
+        <v>2844</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="48" t="s">
+        <v>129</v>
+      </c>
+      <c r="B5" s="68" t="s">
+        <v>2844</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="49" t="s">
+        <v>131</v>
+      </c>
+      <c r="B6" s="68" t="s">
+        <v>2844</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="B7" s="68" t="s">
+        <v>2844</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="46" t="s">
+        <v>132</v>
+      </c>
+      <c r="B8" s="68" t="s">
+        <v>2844</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="48" t="s">
+        <v>135</v>
+      </c>
+      <c r="B9" s="68" t="s">
+        <v>2844</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="49" t="s">
+        <v>137</v>
+      </c>
+      <c r="B10" s="68" t="s">
+        <v>2844</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="B11" s="68" t="s">
+        <v>2844</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="46" t="s">
+        <v>138</v>
+      </c>
+      <c r="B12" s="68" t="s">
+        <v>2844</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="B13" s="68" t="s">
+        <v>2844</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="49" t="s">
+        <v>143</v>
+      </c>
+      <c r="B14" s="68" t="s">
+        <v>2844</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="47" t="s">
+        <v>140</v>
+      </c>
+      <c r="B15" s="68" t="s">
+        <v>2844</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="44" t="s">
+        <v>149</v>
+      </c>
+      <c r="B16" s="69" t="s">
+        <v>2845</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="B17" s="69" t="s">
+        <v>2840</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="69" t="s">
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" s="69" t="s">
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="69" t="s">
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="69" t="s">
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" s="69" t="s">
+        <v>2845</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23" s="69" t="s">
+        <v>2845</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24" s="68" t="s">
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="B25" s="69" t="s">
+        <v>2845</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" s="69" t="s">
+        <v>2840</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" s="69" t="s">
+        <v>2840</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="68" t="s">
+        <v>2844</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="B29" s="68" t="s">
+        <v>2846</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="B30" s="68" t="s">
+        <v>2846</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" s="69" t="s">
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" s="69" t="s">
+        <v>2845</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" s="69" t="s">
+        <v>2845</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" s="69" t="s">
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="B35" s="69" t="s">
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="B36" s="69" t="s">
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="B37" s="69" t="s">
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="B38" s="69" t="s">
+        <v>2839</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="B39" s="69" t="s">
+        <v>2839</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" s="69" t="s">
+        <v>2839</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" s="69" t="s">
+        <v>2839</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42" s="69" t="s">
+        <v>2839</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="B43" s="69" t="s">
+        <v>2839</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="B44" s="69" t="s">
+        <v>2845</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="B45" s="69" t="s">
+        <v>2845</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="B46" s="69" t="s">
+        <v>2845</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="B47" s="69" t="s">
+        <v>2845</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="B48" s="68" t="s">
+        <v>2847</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="B49" s="68" t="s">
+        <v>2847</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="B50" s="68" t="s">
+        <v>2847</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="45" t="s">
+        <v>99</v>
+      </c>
+      <c r="B51" s="68" t="s">
+        <v>2847</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="25" t="s">
+        <v>3094</v>
+      </c>
+      <c r="B52" s="68" t="s">
+        <v>2844</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="B53" s="69" t="s">
+        <v>2845</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="B54" s="69" t="s">
+        <v>2845</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="B55" s="69" t="s">
+        <v>2840</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="B56" s="69" t="s">
+        <v>2840</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="B57" s="69" t="s">
+        <v>2845</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="B58" s="69" t="s">
+        <v>2845</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="B59" s="69" t="s">
+        <v>2845</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="B60" s="69" t="s">
+        <v>2845</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="B61" s="69" t="s">
+        <v>2845</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="B62" s="69" t="s">
+        <v>2845</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="B63" s="69" t="s">
+        <v>2845</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="B64" s="69" t="s">
+        <v>2845</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="B65" s="68" t="s">
+        <v>2842</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="39" t="s">
+        <v>2886</v>
+      </c>
+      <c r="B66" s="68" t="s">
+        <v>2842</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="B67" s="68" t="s">
+        <v>2842</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="B68" s="68" t="s">
+        <v>2842</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="B69" s="68" t="s">
+        <v>2842</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="B70" s="68" t="s">
+        <v>2842</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="B71" s="68" t="s">
+        <v>2843</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="B72" s="68" t="s">
+        <v>2843</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="B73" s="68" t="s">
+        <v>2843</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="B74" s="68" t="s">
+        <v>2843</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="B75" s="68" t="s">
+        <v>2843</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="B76" s="68" t="s">
+        <v>2843</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="B77" s="68" t="s">
+        <v>2843</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="39" t="s">
+        <v>119</v>
+      </c>
+      <c r="B78" s="68" t="s">
+        <v>2843</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="B79" s="69" t="s">
+        <v>2845</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="B80" s="69" t="s">
+        <v>2845</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="B81" s="69" t="s">
+        <v>2845</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="B82" s="69" t="s">
+        <v>2845</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="B83" s="69" t="s">
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="B84" s="69" t="s">
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="B85" s="69" t="s">
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="B86" s="69" t="s">
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="B87" s="69" t="s">
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B88" s="69" t="s">
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="B89" s="69" t="s">
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="B90" s="69" t="s">
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="B91" s="69" t="s">
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B92" s="69" t="s">
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B93" s="69" t="s">
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B94" s="69" t="s">
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B95" s="69" t="s">
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="B96" s="69" t="s">
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="B97" s="69" t="s">
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="B98" s="69" t="s">
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="B99" s="69" t="s">
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="B100" s="68" t="s">
+        <v>2844</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="B101" s="68" t="s">
+        <v>2844</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="B102" s="68" t="s">
+        <v>2844</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="B103" s="68" t="s">
+        <v>2844</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="46" t="s">
+        <v>144</v>
+      </c>
+      <c r="B104" s="68" t="s">
+        <v>2844</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="47" t="s">
+        <v>146</v>
+      </c>
+      <c r="B105" s="68" t="s">
+        <v>2844</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:B105" xr:uid="{00000000-0001-0000-0200-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B105">
+      <sortCondition ref="A1:A105"/>
+    </sortState>
+  </autoFilter>
+  <hyperlinks>
+    <hyperlink ref="B28" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="B24" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000039000000}"/>
+    <hyperlink ref="B29" r:id="rId3" xr:uid="{00000000-0004-0000-0200-00003A000000}"/>
+    <hyperlink ref="B30" r:id="rId4" xr:uid="{00000000-0004-0000-0200-00003B000000}"/>
+    <hyperlink ref="B69" r:id="rId5" display="https://www.fs.fed.us/foresthealth/technology/pdfs/WesternRootDiseaseModelV3-0UserGuide2018.pdf" xr:uid="{00000000-0004-0000-0200-000040000000}"/>
+    <hyperlink ref="B70" r:id="rId6" display="https://www.fs.fed.us/foresthealth/technology/pdfs/WesternRootDiseaseModelV3-0UserGuide2018.pdf" xr:uid="{00000000-0004-0000-0200-000041000000}"/>
+    <hyperlink ref="B67" r:id="rId7" display="https://www.fs.fed.us/foresthealth/technology/pdfs/WesternRootDiseaseModelV3-0UserGuide2018.pdf" xr:uid="{00000000-0004-0000-0200-000042000000}"/>
+    <hyperlink ref="B68" r:id="rId8" display="https://www.fs.fed.us/foresthealth/technology/pdfs/WesternRootDiseaseModelV3-0UserGuide2018.pdf" xr:uid="{00000000-0004-0000-0200-000043000000}"/>
+    <hyperlink ref="B65" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000044000000}"/>
+    <hyperlink ref="B66" r:id="rId10" display="https://www.fs.fed.us/foresthealth/technology/pdfs/WesternRootDiseaseModelV3-0UserGuide2018.pdf" xr:uid="{00000000-0004-0000-0200-000045000000}"/>
+    <hyperlink ref="B75" r:id="rId11" display="https://www.fs.fed.us/rm/pubs_int/int_gtr279.pdf" xr:uid="{00000000-0004-0000-0200-000049000000}"/>
+    <hyperlink ref="B76" r:id="rId12" xr:uid="{00000000-0004-0000-0200-00004A000000}"/>
+    <hyperlink ref="B74" r:id="rId13" display="https://www.fs.fed.us/rm/pubs_int/int_gtr279.pdf" xr:uid="{00000000-0004-0000-0200-00004B000000}"/>
+    <hyperlink ref="B71" r:id="rId14" display="https://www.fs.fed.us/rm/pubs_int/int_gtr279.pdf" xr:uid="{00000000-0004-0000-0200-00004C000000}"/>
+    <hyperlink ref="B77" r:id="rId15" display="https://www.fs.fed.us/rm/pubs_int/int_gtr279.pdf" xr:uid="{00000000-0004-0000-0200-00004D000000}"/>
+    <hyperlink ref="B78" r:id="rId16" display="https://www.fs.fed.us/rm/pubs_int/int_gtr279.pdf" xr:uid="{00000000-0004-0000-0200-00004E000000}"/>
+    <hyperlink ref="B72" r:id="rId17" xr:uid="{00000000-0004-0000-0200-00004F000000}"/>
+    <hyperlink ref="B73" r:id="rId18" display="https://www.fs.fed.us/rm/pubs_int/int_gtr279.pdf" xr:uid="{00000000-0004-0000-0200-000050000000}"/>
+    <hyperlink ref="B100" r:id="rId19" xr:uid="{00000000-0004-0000-0200-000051000000}"/>
+    <hyperlink ref="B103" r:id="rId20" display="https://www.fs.fed.us/.ftproot/pub/fmsc/ftp/fvs/docs/gtr/DBSUserGuide.pdf" xr:uid="{00000000-0004-0000-0200-000052000000}"/>
+    <hyperlink ref="B101" r:id="rId21" display="https://www.fs.fed.us/.ftproot/pub/fmsc/ftp/fvs/docs/gtr/DBSUserGuide.pdf" xr:uid="{00000000-0004-0000-0200-000053000000}"/>
+    <hyperlink ref="B6" r:id="rId22" display="https://www.fs.fed.us/.ftproot/pub/fmsc/ftp/fvs/docs/gtr/DBSUserGuide.pdf" xr:uid="{00000000-0004-0000-0200-000054000000}"/>
+    <hyperlink ref="B8" r:id="rId23" display="https://www.fs.fed.us/.ftproot/pub/fmsc/ftp/fvs/docs/gtr/DBSUserGuide.pdf" xr:uid="{00000000-0004-0000-0200-000055000000}"/>
+    <hyperlink ref="B11" r:id="rId24" display="https://www.fs.fed.us/.ftproot/pub/fmsc/ftp/fvs/docs/gtr/DBSUserGuide.pdf" xr:uid="{00000000-0004-0000-0200-000056000000}"/>
+    <hyperlink ref="B9" r:id="rId25" display="https://www.fs.fed.us/.ftproot/pub/fmsc/ftp/fvs/docs/gtr/DBSUserGuide.pdf" xr:uid="{00000000-0004-0000-0200-000057000000}"/>
+    <hyperlink ref="B10" r:id="rId26" display="https://www.fs.fed.us/.ftproot/pub/fmsc/ftp/fvs/docs/gtr/DBSUserGuide.pdf" xr:uid="{00000000-0004-0000-0200-000058000000}"/>
+    <hyperlink ref="B12" r:id="rId27" display="https://www.fs.fed.us/.ftproot/pub/fmsc/ftp/fvs/docs/gtr/DBSUserGuide.pdf" xr:uid="{00000000-0004-0000-0200-000059000000}"/>
+    <hyperlink ref="B15" r:id="rId28" display="https://www.fs.fed.us/.ftproot/pub/fmsc/ftp/fvs/docs/gtr/DBSUserGuide.pdf" xr:uid="{00000000-0004-0000-0200-00005A000000}"/>
+    <hyperlink ref="B13" r:id="rId29" display="https://www.fs.fed.us/.ftproot/pub/fmsc/ftp/fvs/docs/gtr/DBSUserGuide.pdf" xr:uid="{00000000-0004-0000-0200-00005B000000}"/>
+    <hyperlink ref="B14" r:id="rId30" display="https://www.fs.fed.us/.ftproot/pub/fmsc/ftp/fvs/docs/gtr/DBSUserGuide.pdf" xr:uid="{00000000-0004-0000-0200-00005C000000}"/>
+    <hyperlink ref="B104" r:id="rId31" display="https://www.fs.fed.us/.ftproot/pub/fmsc/ftp/fvs/docs/gtr/DBSUserGuide.pdf" xr:uid="{00000000-0004-0000-0200-00005D000000}"/>
+    <hyperlink ref="B105" r:id="rId32" display="https://www.fs.fed.us/.ftproot/pub/fmsc/ftp/fvs/docs/gtr/DBSUserGuide.pdf" xr:uid="{00000000-0004-0000-0200-00005E000000}"/>
+    <hyperlink ref="B4:B12" r:id="rId33" display="https://www.fs.usda.gov/fmsc/ftp/fvs/docs/gtr/EssentialFVS.pdf" xr:uid="{6CE9C5D9-2F71-47A5-BF06-D125F285F31E}"/>
+    <hyperlink ref="B13:B18" r:id="rId34" display="https://www.fs.usda.gov/foresthealth/technology/pdfs/DM_User_Guide_MAG-95-2_2005_nonspatial_20120627.pdf" xr:uid="{0B74CD2B-52AA-47F6-8AD6-59A69ABBF370}"/>
+    <hyperlink ref="B36:B37" r:id="rId35" display="https://www.nrs.fs.usda.gov/pubs/gtr/gtr_nrs77.pdf" xr:uid="{04F1A4D5-94B3-4437-AFD1-CF4A65768EDD}"/>
+    <hyperlink ref="B75:B77" r:id="rId36" display="https://www.fs.usda.gov/fmsc/ftp/fvs/docs/gtr/EssentialFVS.pdf" xr:uid="{724622E8-AB0A-455D-A662-F4478FD6CE4A}"/>
+    <hyperlink ref="B69:B74" r:id="rId37" display="https://www.fs.usda.gov/foresthealth/technology/pdfs/WesternRootDiseaseModelV3-0UserGuide2018.pdf" xr:uid="{A45C1C7E-D416-47D7-9699-A4AC25E90D2B}"/>
+    <hyperlink ref="B3:B15" r:id="rId38" display="https://www.fs.usda.gov/fmsc/ftp/fvs/docs/gtr/DBSUserGuide.pdf" xr:uid="{261A95DD-AEFB-4DFB-AD12-27CC80911E1B}"/>
+    <hyperlink ref="B16" r:id="rId39" xr:uid="{99236ADD-9300-436C-96C3-C512BE900BF9}"/>
+    <hyperlink ref="B17" r:id="rId40" xr:uid="{515E748A-8492-45EB-94A8-590F22C729CA}"/>
+    <hyperlink ref="B18" r:id="rId41" xr:uid="{58D42C0C-2BA3-456E-B574-518B4D0137C1}"/>
+    <hyperlink ref="B18:B21" r:id="rId42" display="https://www.fs.usda.gov/fmsc/ftp/fvs/docs/gtr/EssentialFVS.pdf" xr:uid="{9206D5B1-629F-479E-AE22-4BCD7F14855F}"/>
+    <hyperlink ref="B22" r:id="rId43" xr:uid="{B3179AC1-3A18-43AF-BD40-D8657AC11626}"/>
+    <hyperlink ref="B23" r:id="rId44" xr:uid="{F4B95ABB-DE82-44F6-87DF-6FD6C7AE494D}"/>
+    <hyperlink ref="B22:B23" r:id="rId45" display="https://www.fs.usda.gov/fmsc/ftp/fvs/docs/gtr/FFEguide.pdf" xr:uid="{CAFC0A53-672F-490A-9658-45E042FDE4D8}"/>
+    <hyperlink ref="B20" r:id="rId46" xr:uid="{7E0DD365-C578-429F-A1E9-329F35243E75}"/>
+    <hyperlink ref="B25" r:id="rId47" xr:uid="{7AA995E0-E2E4-4FB5-A35E-4089B959E0FF}"/>
+    <hyperlink ref="B26" r:id="rId48" xr:uid="{1A2F07BB-A756-4087-9A7F-D2C37880D636}"/>
+    <hyperlink ref="B4" r:id="rId49" xr:uid="{DD507D26-1866-4B46-A959-C9C474C2B06B}"/>
+    <hyperlink ref="B29:B30" r:id="rId50" display="https://www.fs.usda.gov/fmsc/ftp/fvs/docs/climateFVS/ClimateFVS_UsersGuide.pdf" xr:uid="{DC8CB791-3A30-409E-8923-BDC11A9B860B}"/>
+    <hyperlink ref="B31" r:id="rId51" xr:uid="{8383C88E-47BD-44E6-96EB-693027B5DE68}"/>
+    <hyperlink ref="B32:B33" r:id="rId52" display="https://www.fs.usda.gov/fmsc/ftp/fvs/docs/gtr/FFEguide.pdf" xr:uid="{D17C07AF-E9F0-46EA-A3CA-226952BDAADB}"/>
+    <hyperlink ref="B34:B37" r:id="rId53" display="https://www.fs.usda.gov/fmsc/ftp/fvs/docs/gtr/EssentialFVS.pdf" xr:uid="{920435D6-665D-4AEF-AF52-6800516E8225}"/>
+    <hyperlink ref="B38" r:id="rId54" xr:uid="{5474C227-2634-480F-85A5-662E8E6D0091}"/>
+    <hyperlink ref="B38:B43" r:id="rId55" display="https://www.fs.usda.gov/foresthealth/technology/pdfs/DM_User_Guide_MAG-95-2_2005_nonspatial_20120627.pdf" xr:uid="{10B39E5E-C702-49FF-8710-97BBDED46AB3}"/>
+    <hyperlink ref="B32" r:id="rId56" xr:uid="{6F7B4C0F-EE1E-4401-B563-966067AC4DF8}"/>
+    <hyperlink ref="B44:B47" r:id="rId57" display="https://www.fs.usda.gov/fmsc/ftp/fvs/docs/gtr/FFEguide.pdf" xr:uid="{5D1F4559-80C7-4675-BEDC-472837EED4CA}"/>
+    <hyperlink ref="B48:B51" r:id="rId58" display="https://www.fs.usda.gov/fmsc/ftp/fvs/docs/gtr/EconUserGuide.pdf" xr:uid="{A583F457-4439-4C58-AD46-5CB86D6E99D5}"/>
+    <hyperlink ref="B44" r:id="rId59" xr:uid="{0FFE02AC-96DE-4B2A-966B-4DA4DE6EBB69}"/>
+    <hyperlink ref="B53:B54" r:id="rId60" display="https://www.fs.usda.gov/fmsc/ftp/fvs/docs/gtr/FFEguide.pdf" xr:uid="{0D2FE747-AC1C-49EB-8158-FA57BB210517}"/>
+    <hyperlink ref="B55:B56" r:id="rId61" display="https://www.nrs.fs.usda.gov/pubs/gtr/gtr_nrs77.pdf" xr:uid="{D85991A4-3322-4551-A493-CB23DFF4B7B0}"/>
+    <hyperlink ref="B57:B58" r:id="rId62" display="https://www.fs.usda.gov/fmsc/ftp/fvs/docs/gtr/FFEguide.pdf" xr:uid="{8CAFEC56-B459-40E8-82A9-F5A6FB1A6962}"/>
+    <hyperlink ref="B59:B60" r:id="rId63" display="https://www.fs.usda.gov/fmsc/ftp/fvs/docs/gtr/FFEguide.pdf" xr:uid="{3AC6E603-58BF-4CC3-B5A6-081D533A4FFE}"/>
+    <hyperlink ref="B61:B62" r:id="rId64" display="https://www.fs.usda.gov/fmsc/ftp/fvs/docs/gtr/FFEguide.pdf" xr:uid="{647569C7-260D-47CC-9148-0008679347FE}"/>
+    <hyperlink ref="B63:B64" r:id="rId65" display="https://www.fs.usda.gov/fmsc/ftp/fvs/docs/gtr/FFEguide.pdf" xr:uid="{BC54E847-E9D4-4CD8-B74A-B9B9C0F0B7F0}"/>
+    <hyperlink ref="B57:B64" r:id="rId66" display="https://www.fs.usda.gov/fmsc/ftp/fvs/docs/gtr/FFEguide.pdf" xr:uid="{CA3179BC-646A-4AB0-8CE3-0A1E22EBABC2}"/>
+    <hyperlink ref="B65:B70" r:id="rId67" display="https://www.fs.usda.gov/foresthealth/technology/pdfs/WesternRootDiseaseModelV3-0UserGuide2018.pdf" xr:uid="{230828C7-84A8-4D43-BD31-65033AC6CC31}"/>
+    <hyperlink ref="B71:B78" r:id="rId68" display="https://www.fs.usda.gov/rm/pubs_int/int_gtr279.pdf" xr:uid="{01104C55-42D5-4CB9-B6B4-0F8C1374BB7D}"/>
+    <hyperlink ref="B57" r:id="rId69" xr:uid="{685CAB23-0502-41D9-A9B9-4B74D7F0859D}"/>
+    <hyperlink ref="B79:B80" r:id="rId70" display="https://www.fs.usda.gov/fmsc/ftp/fvs/docs/gtr/FFEguide.pdf" xr:uid="{F2C93C41-06E3-44C2-8674-ED37C386425C}"/>
+    <hyperlink ref="B81" r:id="rId71" xr:uid="{9D3ED900-B4C3-4595-83DB-BEE96C5F7E8F}"/>
+    <hyperlink ref="B79:B81" r:id="rId72" display="https://www.fs.usda.gov/fmsc/ftp/fvs/docs/gtr/FFEguide.pdf" xr:uid="{80B5D81C-3F23-4B1F-AB94-8FB2D60D4A49}"/>
+    <hyperlink ref="B85:B86" r:id="rId73" display="https://www.nrs.fs.usda.gov/pubs/gtr/gtr_nrs77.pdf" xr:uid="{6092A20E-1C93-4B16-A5DC-BA33D21F49E7}"/>
+    <hyperlink ref="B83:B86" r:id="rId74" display="https://www.fs.usda.gov/fmsc/ftp/fvs/docs/gtr/EssentialFVS.pdf" xr:uid="{D74048F6-2C31-4559-8786-6301519E8447}"/>
+    <hyperlink ref="B89:B90" r:id="rId75" display="https://www.nrs.fs.usda.gov/pubs/gtr/gtr_nrs77.pdf" xr:uid="{2DC19F4A-5742-45B5-BD7B-35315179DEF1}"/>
+    <hyperlink ref="B87:B90" r:id="rId76" display="https://www.fs.usda.gov/fmsc/ftp/fvs/docs/gtr/EssentialFVS.pdf" xr:uid="{C5A18F86-90F0-4426-9C33-E0E474ACAAF2}"/>
+    <hyperlink ref="B93:B94" r:id="rId77" display="https://www.nrs.fs.usda.gov/pubs/gtr/gtr_nrs77.pdf" xr:uid="{C6F8C986-2E6C-4EDB-8D18-A7F0DFC14F36}"/>
+    <hyperlink ref="B91:B94" r:id="rId78" display="https://www.fs.usda.gov/fmsc/ftp/fvs/docs/gtr/EssentialFVS.pdf" xr:uid="{4E57FA0B-D60A-4E6C-BB5B-5AEB658C2A22}"/>
+    <hyperlink ref="B97:B98" r:id="rId79" display="https://www.nrs.fs.usda.gov/pubs/gtr/gtr_nrs77.pdf" xr:uid="{FF3ED5FB-BF24-4947-873F-C13912D22236}"/>
+    <hyperlink ref="B95:B98" r:id="rId80" display="https://www.fs.usda.gov/fmsc/ftp/fvs/docs/gtr/EssentialFVS.pdf" xr:uid="{4B8B0D61-F6A6-42D9-8C7D-C83D26C009DE}"/>
+    <hyperlink ref="B95" r:id="rId81" xr:uid="{41672F0C-92B3-416C-85B6-DD3BF44B6A75}"/>
+    <hyperlink ref="B83:B99" r:id="rId82" display="https://www.fs.usda.gov/fmsc/ftp/fvs/docs/gtr/EssentialFVS.pdf" xr:uid="{FE7EEACD-BA94-4DEC-BEDF-120981E57CA1}"/>
+    <hyperlink ref="B100:B105" r:id="rId83" display="https://www.fs.usda.gov/fmsc/ftp/fvs/docs/gtr/DBSUserGuide.pdf" xr:uid="{0D49BF94-3900-4073-B0CC-0EA945AA38D0}"/>
+    <hyperlink ref="B83" r:id="rId84" xr:uid="{5C0D567A-77C4-4720-899D-10CC872FA00B}"/>
+    <hyperlink ref="B27" r:id="rId85" xr:uid="{CCFFDACD-3E7F-45A7-A1E2-D0739704B4CD}"/>
+    <hyperlink ref="B82" r:id="rId86" xr:uid="{5BE80ACC-66C8-4939-BC9C-678BE69A216A}"/>
+    <hyperlink ref="B2" r:id="rId87" xr:uid="{0D24E4ED-2BFA-4687-B9F6-2AEA971D5593}"/>
+    <hyperlink ref="B52" r:id="rId88" display="https://www.fs.fed.us/.ftproot/pub/fmsc/ftp/fvs/docs/gtr/DBSUserGuide.pdf" xr:uid="{19096A2E-8DC0-4221-AD4B-933896E0A285}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF17D78E-0037-4F94-A8A8-CA4F2AE6B333}">
   <sheetPr>
     <tabColor theme="4" tint="-0.499984740745262"/>
@@ -28732,956 +31010,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr>
-    <tabColor rgb="FF0D0D0D"/>
-  </sheetPr>
-  <dimension ref="A1:B104"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="43" style="36" customWidth="1"/>
-    <col min="2" max="2" width="96.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
-        <v>2891</v>
-      </c>
-      <c r="B2" s="68" t="s">
-        <v>2841</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="50" t="s">
-        <v>124</v>
-      </c>
-      <c r="B3" s="68" t="s">
-        <v>2844</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="46" t="s">
-        <v>126</v>
-      </c>
-      <c r="B4" s="68" t="s">
-        <v>2844</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="48" t="s">
-        <v>129</v>
-      </c>
-      <c r="B5" s="68" t="s">
-        <v>2844</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="49" t="s">
-        <v>131</v>
-      </c>
-      <c r="B6" s="68" t="s">
-        <v>2844</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="47" t="s">
-        <v>128</v>
-      </c>
-      <c r="B7" s="68" t="s">
-        <v>2844</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="46" t="s">
-        <v>132</v>
-      </c>
-      <c r="B8" s="68" t="s">
-        <v>2844</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="48" t="s">
-        <v>135</v>
-      </c>
-      <c r="B9" s="68" t="s">
-        <v>2844</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="49" t="s">
-        <v>137</v>
-      </c>
-      <c r="B10" s="68" t="s">
-        <v>2844</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="47" t="s">
-        <v>134</v>
-      </c>
-      <c r="B11" s="68" t="s">
-        <v>2844</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="46" t="s">
-        <v>138</v>
-      </c>
-      <c r="B12" s="68" t="s">
-        <v>2844</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="48" t="s">
-        <v>141</v>
-      </c>
-      <c r="B13" s="68" t="s">
-        <v>2844</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="49" t="s">
-        <v>143</v>
-      </c>
-      <c r="B14" s="68" t="s">
-        <v>2844</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="47" t="s">
-        <v>140</v>
-      </c>
-      <c r="B15" s="68" t="s">
-        <v>2844</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="44" t="s">
-        <v>149</v>
-      </c>
-      <c r="B16" s="69" t="s">
-        <v>2845</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="42" t="s">
-        <v>148</v>
-      </c>
-      <c r="B17" s="69" t="s">
-        <v>2840</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="B18" s="69" t="s">
-        <v>2841</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="B19" s="69" t="s">
-        <v>2841</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="41" t="s">
-        <v>64</v>
-      </c>
-      <c r="B20" s="69" t="s">
-        <v>2841</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="B21" s="69" t="s">
-        <v>2841</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="38" t="s">
-        <v>79</v>
-      </c>
-      <c r="B22" s="69" t="s">
-        <v>2845</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="44" t="s">
-        <v>80</v>
-      </c>
-      <c r="B23" s="69" t="s">
-        <v>2845</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="38" t="s">
-        <v>94</v>
-      </c>
-      <c r="B24" s="68" t="s">
-        <v>2841</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="B25" s="69" t="s">
-        <v>2845</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="B26" s="69" t="s">
-        <v>2840</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="B27" s="69" t="s">
-        <v>2840</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="B28" s="68" t="s">
-        <v>2844</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="38" t="s">
-        <v>96</v>
-      </c>
-      <c r="B29" s="68" t="s">
-        <v>2846</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="B30" s="68" t="s">
-        <v>2846</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="B31" s="69" t="s">
-        <v>2841</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="B32" s="69" t="s">
-        <v>2845</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="B33" s="69" t="s">
-        <v>2845</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="B34" s="69" t="s">
-        <v>2841</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="B35" s="69" t="s">
-        <v>2841</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="41" t="s">
-        <v>60</v>
-      </c>
-      <c r="B36" s="69" t="s">
-        <v>2841</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="B37" s="69" t="s">
-        <v>2841</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="B38" s="69" t="s">
-        <v>2839</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="B39" s="69" t="s">
-        <v>2839</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="B40" s="69" t="s">
-        <v>2839</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="B41" s="69" t="s">
-        <v>2839</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="B42" s="69" t="s">
-        <v>2839</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="B43" s="69" t="s">
-        <v>2839</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="38" t="s">
-        <v>83</v>
-      </c>
-      <c r="B44" s="69" t="s">
-        <v>2845</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="B45" s="69" t="s">
-        <v>2845</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="B46" s="69" t="s">
-        <v>2845</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="B47" s="69" t="s">
-        <v>2845</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="B48" s="68" t="s">
-        <v>2847</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="B49" s="68" t="s">
-        <v>2847</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="38" t="s">
-        <v>98</v>
-      </c>
-      <c r="B50" s="68" t="s">
-        <v>2847</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="45" t="s">
-        <v>99</v>
-      </c>
-      <c r="B51" s="68" t="s">
-        <v>2847</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="B52" s="69" t="s">
-        <v>2845</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="B53" s="69" t="s">
-        <v>2845</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="B54" s="69" t="s">
-        <v>2840</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="B55" s="69" t="s">
-        <v>2840</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="B56" s="69" t="s">
-        <v>2845</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="44" t="s">
-        <v>82</v>
-      </c>
-      <c r="B57" s="69" t="s">
-        <v>2845</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="B58" s="69" t="s">
-        <v>2845</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="B59" s="69" t="s">
-        <v>2845</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="44" t="s">
-        <v>78</v>
-      </c>
-      <c r="B60" s="69" t="s">
-        <v>2845</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="B61" s="69" t="s">
-        <v>2845</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="44" t="s">
-        <v>76</v>
-      </c>
-      <c r="B62" s="69" t="s">
-        <v>2845</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="B63" s="69" t="s">
-        <v>2845</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="B64" s="68" t="s">
-        <v>2842</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="39" t="s">
-        <v>2886</v>
-      </c>
-      <c r="B65" s="68" t="s">
-        <v>2842</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="38" t="s">
-        <v>104</v>
-      </c>
-      <c r="B66" s="68" t="s">
-        <v>2842</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="B67" s="68" t="s">
-        <v>2842</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="B68" s="68" t="s">
-        <v>2842</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="B69" s="68" t="s">
-        <v>2842</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="38" t="s">
-        <v>115</v>
-      </c>
-      <c r="B70" s="68" t="s">
-        <v>2843</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="38" t="s">
-        <v>120</v>
-      </c>
-      <c r="B71" s="68" t="s">
-        <v>2843</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="39" t="s">
-        <v>122</v>
-      </c>
-      <c r="B72" s="68" t="s">
-        <v>2843</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="38" t="s">
-        <v>113</v>
-      </c>
-      <c r="B73" s="68" t="s">
-        <v>2843</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="38" t="s">
-        <v>110</v>
-      </c>
-      <c r="B74" s="68" t="s">
-        <v>2843</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="39" t="s">
-        <v>112</v>
-      </c>
-      <c r="B75" s="68" t="s">
-        <v>2843</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="38" t="s">
-        <v>117</v>
-      </c>
-      <c r="B76" s="68" t="s">
-        <v>2843</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="39" t="s">
-        <v>119</v>
-      </c>
-      <c r="B77" s="68" t="s">
-        <v>2843</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="B78" s="69" t="s">
-        <v>2845</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="44" t="s">
-        <v>91</v>
-      </c>
-      <c r="B79" s="69" t="s">
-        <v>2845</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="B80" s="69" t="s">
-        <v>2845</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="B81" s="69" t="s">
-        <v>2845</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="B82" s="69" t="s">
-        <v>2841</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="39" t="s">
-        <v>108</v>
-      </c>
-      <c r="B83" s="69" t="s">
-        <v>2841</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="38" t="s">
-        <v>109</v>
-      </c>
-      <c r="B84" s="69" t="s">
-        <v>2841</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="B85" s="69" t="s">
-        <v>2841</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="42" t="s">
-        <v>93</v>
-      </c>
-      <c r="B86" s="69" t="s">
-        <v>2841</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="B87" s="69" t="s">
-        <v>2841</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="B88" s="69" t="s">
-        <v>2841</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="B89" s="69" t="s">
-        <v>2841</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="B90" s="69" t="s">
-        <v>2841</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="B91" s="69" t="s">
-        <v>2841</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="B92" s="69" t="s">
-        <v>2841</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="B93" s="69" t="s">
-        <v>2841</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="B94" s="69" t="s">
-        <v>2841</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="B95" s="69" t="s">
-        <v>2841</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="B96" s="69" t="s">
-        <v>2841</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="B97" s="69" t="s">
-        <v>2841</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="B98" s="69" t="s">
-        <v>2841</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="B99" s="68" t="s">
-        <v>2844</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="48" t="s">
-        <v>24</v>
-      </c>
-      <c r="B100" s="68" t="s">
-        <v>2844</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="49" t="s">
-        <v>26</v>
-      </c>
-      <c r="B101" s="68" t="s">
-        <v>2844</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="B102" s="68" t="s">
-        <v>2844</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="46" t="s">
-        <v>144</v>
-      </c>
-      <c r="B103" s="68" t="s">
-        <v>2844</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="47" t="s">
-        <v>146</v>
-      </c>
-      <c r="B104" s="68" t="s">
-        <v>2844</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:B104" xr:uid="{00000000-0001-0000-0200-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B104">
-      <sortCondition ref="A1:A104"/>
-    </sortState>
-  </autoFilter>
-  <hyperlinks>
-    <hyperlink ref="B28" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="B24" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000039000000}"/>
-    <hyperlink ref="B29" r:id="rId3" xr:uid="{00000000-0004-0000-0200-00003A000000}"/>
-    <hyperlink ref="B30" r:id="rId4" xr:uid="{00000000-0004-0000-0200-00003B000000}"/>
-    <hyperlink ref="B68" r:id="rId5" display="https://www.fs.fed.us/foresthealth/technology/pdfs/WesternRootDiseaseModelV3-0UserGuide2018.pdf" xr:uid="{00000000-0004-0000-0200-000040000000}"/>
-    <hyperlink ref="B69" r:id="rId6" display="https://www.fs.fed.us/foresthealth/technology/pdfs/WesternRootDiseaseModelV3-0UserGuide2018.pdf" xr:uid="{00000000-0004-0000-0200-000041000000}"/>
-    <hyperlink ref="B66" r:id="rId7" display="https://www.fs.fed.us/foresthealth/technology/pdfs/WesternRootDiseaseModelV3-0UserGuide2018.pdf" xr:uid="{00000000-0004-0000-0200-000042000000}"/>
-    <hyperlink ref="B67" r:id="rId8" display="https://www.fs.fed.us/foresthealth/technology/pdfs/WesternRootDiseaseModelV3-0UserGuide2018.pdf" xr:uid="{00000000-0004-0000-0200-000043000000}"/>
-    <hyperlink ref="B64" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000044000000}"/>
-    <hyperlink ref="B65" r:id="rId10" display="https://www.fs.fed.us/foresthealth/technology/pdfs/WesternRootDiseaseModelV3-0UserGuide2018.pdf" xr:uid="{00000000-0004-0000-0200-000045000000}"/>
-    <hyperlink ref="B74" r:id="rId11" display="https://www.fs.fed.us/rm/pubs_int/int_gtr279.pdf" xr:uid="{00000000-0004-0000-0200-000049000000}"/>
-    <hyperlink ref="B75" r:id="rId12" xr:uid="{00000000-0004-0000-0200-00004A000000}"/>
-    <hyperlink ref="B73" r:id="rId13" display="https://www.fs.fed.us/rm/pubs_int/int_gtr279.pdf" xr:uid="{00000000-0004-0000-0200-00004B000000}"/>
-    <hyperlink ref="B70" r:id="rId14" display="https://www.fs.fed.us/rm/pubs_int/int_gtr279.pdf" xr:uid="{00000000-0004-0000-0200-00004C000000}"/>
-    <hyperlink ref="B76" r:id="rId15" display="https://www.fs.fed.us/rm/pubs_int/int_gtr279.pdf" xr:uid="{00000000-0004-0000-0200-00004D000000}"/>
-    <hyperlink ref="B77" r:id="rId16" display="https://www.fs.fed.us/rm/pubs_int/int_gtr279.pdf" xr:uid="{00000000-0004-0000-0200-00004E000000}"/>
-    <hyperlink ref="B71" r:id="rId17" xr:uid="{00000000-0004-0000-0200-00004F000000}"/>
-    <hyperlink ref="B72" r:id="rId18" display="https://www.fs.fed.us/rm/pubs_int/int_gtr279.pdf" xr:uid="{00000000-0004-0000-0200-000050000000}"/>
-    <hyperlink ref="B99" r:id="rId19" xr:uid="{00000000-0004-0000-0200-000051000000}"/>
-    <hyperlink ref="B102" r:id="rId20" display="https://www.fs.fed.us/.ftproot/pub/fmsc/ftp/fvs/docs/gtr/DBSUserGuide.pdf" xr:uid="{00000000-0004-0000-0200-000052000000}"/>
-    <hyperlink ref="B100" r:id="rId21" display="https://www.fs.fed.us/.ftproot/pub/fmsc/ftp/fvs/docs/gtr/DBSUserGuide.pdf" xr:uid="{00000000-0004-0000-0200-000053000000}"/>
-    <hyperlink ref="B6" r:id="rId22" display="https://www.fs.fed.us/.ftproot/pub/fmsc/ftp/fvs/docs/gtr/DBSUserGuide.pdf" xr:uid="{00000000-0004-0000-0200-000054000000}"/>
-    <hyperlink ref="B8" r:id="rId23" display="https://www.fs.fed.us/.ftproot/pub/fmsc/ftp/fvs/docs/gtr/DBSUserGuide.pdf" xr:uid="{00000000-0004-0000-0200-000055000000}"/>
-    <hyperlink ref="B11" r:id="rId24" display="https://www.fs.fed.us/.ftproot/pub/fmsc/ftp/fvs/docs/gtr/DBSUserGuide.pdf" xr:uid="{00000000-0004-0000-0200-000056000000}"/>
-    <hyperlink ref="B9" r:id="rId25" display="https://www.fs.fed.us/.ftproot/pub/fmsc/ftp/fvs/docs/gtr/DBSUserGuide.pdf" xr:uid="{00000000-0004-0000-0200-000057000000}"/>
-    <hyperlink ref="B10" r:id="rId26" display="https://www.fs.fed.us/.ftproot/pub/fmsc/ftp/fvs/docs/gtr/DBSUserGuide.pdf" xr:uid="{00000000-0004-0000-0200-000058000000}"/>
-    <hyperlink ref="B12" r:id="rId27" display="https://www.fs.fed.us/.ftproot/pub/fmsc/ftp/fvs/docs/gtr/DBSUserGuide.pdf" xr:uid="{00000000-0004-0000-0200-000059000000}"/>
-    <hyperlink ref="B15" r:id="rId28" display="https://www.fs.fed.us/.ftproot/pub/fmsc/ftp/fvs/docs/gtr/DBSUserGuide.pdf" xr:uid="{00000000-0004-0000-0200-00005A000000}"/>
-    <hyperlink ref="B13" r:id="rId29" display="https://www.fs.fed.us/.ftproot/pub/fmsc/ftp/fvs/docs/gtr/DBSUserGuide.pdf" xr:uid="{00000000-0004-0000-0200-00005B000000}"/>
-    <hyperlink ref="B14" r:id="rId30" display="https://www.fs.fed.us/.ftproot/pub/fmsc/ftp/fvs/docs/gtr/DBSUserGuide.pdf" xr:uid="{00000000-0004-0000-0200-00005C000000}"/>
-    <hyperlink ref="B103" r:id="rId31" display="https://www.fs.fed.us/.ftproot/pub/fmsc/ftp/fvs/docs/gtr/DBSUserGuide.pdf" xr:uid="{00000000-0004-0000-0200-00005D000000}"/>
-    <hyperlink ref="B104" r:id="rId32" display="https://www.fs.fed.us/.ftproot/pub/fmsc/ftp/fvs/docs/gtr/DBSUserGuide.pdf" xr:uid="{00000000-0004-0000-0200-00005E000000}"/>
-    <hyperlink ref="B4:B12" r:id="rId33" display="https://www.fs.usda.gov/fmsc/ftp/fvs/docs/gtr/EssentialFVS.pdf" xr:uid="{6CE9C5D9-2F71-47A5-BF06-D125F285F31E}"/>
-    <hyperlink ref="B13:B18" r:id="rId34" display="https://www.fs.usda.gov/foresthealth/technology/pdfs/DM_User_Guide_MAG-95-2_2005_nonspatial_20120627.pdf" xr:uid="{0B74CD2B-52AA-47F6-8AD6-59A69ABBF370}"/>
-    <hyperlink ref="B36:B37" r:id="rId35" display="https://www.nrs.fs.usda.gov/pubs/gtr/gtr_nrs77.pdf" xr:uid="{04F1A4D5-94B3-4437-AFD1-CF4A65768EDD}"/>
-    <hyperlink ref="B74:B76" r:id="rId36" display="https://www.fs.usda.gov/fmsc/ftp/fvs/docs/gtr/EssentialFVS.pdf" xr:uid="{724622E8-AB0A-455D-A662-F4478FD6CE4A}"/>
-    <hyperlink ref="B68:B73" r:id="rId37" display="https://www.fs.usda.gov/foresthealth/technology/pdfs/WesternRootDiseaseModelV3-0UserGuide2018.pdf" xr:uid="{A45C1C7E-D416-47D7-9699-A4AC25E90D2B}"/>
-    <hyperlink ref="B3:B15" r:id="rId38" display="https://www.fs.usda.gov/fmsc/ftp/fvs/docs/gtr/DBSUserGuide.pdf" xr:uid="{261A95DD-AEFB-4DFB-AD12-27CC80911E1B}"/>
-    <hyperlink ref="B16" r:id="rId39" xr:uid="{99236ADD-9300-436C-96C3-C512BE900BF9}"/>
-    <hyperlink ref="B17" r:id="rId40" xr:uid="{515E748A-8492-45EB-94A8-590F22C729CA}"/>
-    <hyperlink ref="B18" r:id="rId41" xr:uid="{58D42C0C-2BA3-456E-B574-518B4D0137C1}"/>
-    <hyperlink ref="B18:B21" r:id="rId42" display="https://www.fs.usda.gov/fmsc/ftp/fvs/docs/gtr/EssentialFVS.pdf" xr:uid="{9206D5B1-629F-479E-AE22-4BCD7F14855F}"/>
-    <hyperlink ref="B22" r:id="rId43" xr:uid="{B3179AC1-3A18-43AF-BD40-D8657AC11626}"/>
-    <hyperlink ref="B23" r:id="rId44" xr:uid="{F4B95ABB-DE82-44F6-87DF-6FD6C7AE494D}"/>
-    <hyperlink ref="B22:B23" r:id="rId45" display="https://www.fs.usda.gov/fmsc/ftp/fvs/docs/gtr/FFEguide.pdf" xr:uid="{CAFC0A53-672F-490A-9658-45E042FDE4D8}"/>
-    <hyperlink ref="B20" r:id="rId46" xr:uid="{7E0DD365-C578-429F-A1E9-329F35243E75}"/>
-    <hyperlink ref="B25" r:id="rId47" xr:uid="{7AA995E0-E2E4-4FB5-A35E-4089B959E0FF}"/>
-    <hyperlink ref="B26" r:id="rId48" xr:uid="{1A2F07BB-A756-4087-9A7F-D2C37880D636}"/>
-    <hyperlink ref="B4" r:id="rId49" xr:uid="{DD507D26-1866-4B46-A959-C9C474C2B06B}"/>
-    <hyperlink ref="B29:B30" r:id="rId50" display="https://www.fs.usda.gov/fmsc/ftp/fvs/docs/climateFVS/ClimateFVS_UsersGuide.pdf" xr:uid="{DC8CB791-3A30-409E-8923-BDC11A9B860B}"/>
-    <hyperlink ref="B31" r:id="rId51" xr:uid="{8383C88E-47BD-44E6-96EB-693027B5DE68}"/>
-    <hyperlink ref="B32:B33" r:id="rId52" display="https://www.fs.usda.gov/fmsc/ftp/fvs/docs/gtr/FFEguide.pdf" xr:uid="{D17C07AF-E9F0-46EA-A3CA-226952BDAADB}"/>
-    <hyperlink ref="B34:B37" r:id="rId53" display="https://www.fs.usda.gov/fmsc/ftp/fvs/docs/gtr/EssentialFVS.pdf" xr:uid="{920435D6-665D-4AEF-AF52-6800516E8225}"/>
-    <hyperlink ref="B38" r:id="rId54" xr:uid="{5474C227-2634-480F-85A5-662E8E6D0091}"/>
-    <hyperlink ref="B38:B43" r:id="rId55" display="https://www.fs.usda.gov/foresthealth/technology/pdfs/DM_User_Guide_MAG-95-2_2005_nonspatial_20120627.pdf" xr:uid="{10B39E5E-C702-49FF-8710-97BBDED46AB3}"/>
-    <hyperlink ref="B32" r:id="rId56" xr:uid="{6F7B4C0F-EE1E-4401-B563-966067AC4DF8}"/>
-    <hyperlink ref="B44:B47" r:id="rId57" display="https://www.fs.usda.gov/fmsc/ftp/fvs/docs/gtr/FFEguide.pdf" xr:uid="{5D1F4559-80C7-4675-BEDC-472837EED4CA}"/>
-    <hyperlink ref="B48:B51" r:id="rId58" display="https://www.fs.usda.gov/fmsc/ftp/fvs/docs/gtr/EconUserGuide.pdf" xr:uid="{A583F457-4439-4C58-AD46-5CB86D6E99D5}"/>
-    <hyperlink ref="B44" r:id="rId59" xr:uid="{0FFE02AC-96DE-4B2A-966B-4DA4DE6EBB69}"/>
-    <hyperlink ref="B52:B53" r:id="rId60" display="https://www.fs.usda.gov/fmsc/ftp/fvs/docs/gtr/FFEguide.pdf" xr:uid="{0D2FE747-AC1C-49EB-8158-FA57BB210517}"/>
-    <hyperlink ref="B54:B55" r:id="rId61" display="https://www.nrs.fs.usda.gov/pubs/gtr/gtr_nrs77.pdf" xr:uid="{D85991A4-3322-4551-A493-CB23DFF4B7B0}"/>
-    <hyperlink ref="B56:B57" r:id="rId62" display="https://www.fs.usda.gov/fmsc/ftp/fvs/docs/gtr/FFEguide.pdf" xr:uid="{8CAFEC56-B459-40E8-82A9-F5A6FB1A6962}"/>
-    <hyperlink ref="B58:B59" r:id="rId63" display="https://www.fs.usda.gov/fmsc/ftp/fvs/docs/gtr/FFEguide.pdf" xr:uid="{3AC6E603-58BF-4CC3-B5A6-081D533A4FFE}"/>
-    <hyperlink ref="B60:B61" r:id="rId64" display="https://www.fs.usda.gov/fmsc/ftp/fvs/docs/gtr/FFEguide.pdf" xr:uid="{647569C7-260D-47CC-9148-0008679347FE}"/>
-    <hyperlink ref="B62:B63" r:id="rId65" display="https://www.fs.usda.gov/fmsc/ftp/fvs/docs/gtr/FFEguide.pdf" xr:uid="{BC54E847-E9D4-4CD8-B74A-B9B9C0F0B7F0}"/>
-    <hyperlink ref="B56:B63" r:id="rId66" display="https://www.fs.usda.gov/fmsc/ftp/fvs/docs/gtr/FFEguide.pdf" xr:uid="{CA3179BC-646A-4AB0-8CE3-0A1E22EBABC2}"/>
-    <hyperlink ref="B64:B69" r:id="rId67" display="https://www.fs.usda.gov/foresthealth/technology/pdfs/WesternRootDiseaseModelV3-0UserGuide2018.pdf" xr:uid="{230828C7-84A8-4D43-BD31-65033AC6CC31}"/>
-    <hyperlink ref="B70:B77" r:id="rId68" display="https://www.fs.usda.gov/rm/pubs_int/int_gtr279.pdf" xr:uid="{01104C55-42D5-4CB9-B6B4-0F8C1374BB7D}"/>
-    <hyperlink ref="B56" r:id="rId69" xr:uid="{685CAB23-0502-41D9-A9B9-4B74D7F0859D}"/>
-    <hyperlink ref="B78:B79" r:id="rId70" display="https://www.fs.usda.gov/fmsc/ftp/fvs/docs/gtr/FFEguide.pdf" xr:uid="{F2C93C41-06E3-44C2-8674-ED37C386425C}"/>
-    <hyperlink ref="B80" r:id="rId71" xr:uid="{9D3ED900-B4C3-4595-83DB-BEE96C5F7E8F}"/>
-    <hyperlink ref="B78:B80" r:id="rId72" display="https://www.fs.usda.gov/fmsc/ftp/fvs/docs/gtr/FFEguide.pdf" xr:uid="{80B5D81C-3F23-4B1F-AB94-8FB2D60D4A49}"/>
-    <hyperlink ref="B84:B85" r:id="rId73" display="https://www.nrs.fs.usda.gov/pubs/gtr/gtr_nrs77.pdf" xr:uid="{6092A20E-1C93-4B16-A5DC-BA33D21F49E7}"/>
-    <hyperlink ref="B82:B85" r:id="rId74" display="https://www.fs.usda.gov/fmsc/ftp/fvs/docs/gtr/EssentialFVS.pdf" xr:uid="{D74048F6-2C31-4559-8786-6301519E8447}"/>
-    <hyperlink ref="B88:B89" r:id="rId75" display="https://www.nrs.fs.usda.gov/pubs/gtr/gtr_nrs77.pdf" xr:uid="{2DC19F4A-5742-45B5-BD7B-35315179DEF1}"/>
-    <hyperlink ref="B86:B89" r:id="rId76" display="https://www.fs.usda.gov/fmsc/ftp/fvs/docs/gtr/EssentialFVS.pdf" xr:uid="{C5A18F86-90F0-4426-9C33-E0E474ACAAF2}"/>
-    <hyperlink ref="B92:B93" r:id="rId77" display="https://www.nrs.fs.usda.gov/pubs/gtr/gtr_nrs77.pdf" xr:uid="{C6F8C986-2E6C-4EDB-8D18-A7F0DFC14F36}"/>
-    <hyperlink ref="B90:B93" r:id="rId78" display="https://www.fs.usda.gov/fmsc/ftp/fvs/docs/gtr/EssentialFVS.pdf" xr:uid="{4E57FA0B-D60A-4E6C-BB5B-5AEB658C2A22}"/>
-    <hyperlink ref="B96:B97" r:id="rId79" display="https://www.nrs.fs.usda.gov/pubs/gtr/gtr_nrs77.pdf" xr:uid="{FF3ED5FB-BF24-4947-873F-C13912D22236}"/>
-    <hyperlink ref="B94:B97" r:id="rId80" display="https://www.fs.usda.gov/fmsc/ftp/fvs/docs/gtr/EssentialFVS.pdf" xr:uid="{4B8B0D61-F6A6-42D9-8C7D-C83D26C009DE}"/>
-    <hyperlink ref="B94" r:id="rId81" xr:uid="{41672F0C-92B3-416C-85B6-DD3BF44B6A75}"/>
-    <hyperlink ref="B82:B98" r:id="rId82" display="https://www.fs.usda.gov/fmsc/ftp/fvs/docs/gtr/EssentialFVS.pdf" xr:uid="{FE7EEACD-BA94-4DEC-BEDF-120981E57CA1}"/>
-    <hyperlink ref="B99:B104" r:id="rId83" display="https://www.fs.usda.gov/fmsc/ftp/fvs/docs/gtr/DBSUserGuide.pdf" xr:uid="{0D49BF94-3900-4073-B0CC-0EA945AA38D0}"/>
-    <hyperlink ref="B82" r:id="rId84" xr:uid="{5C0D567A-77C4-4720-899D-10CC872FA00B}"/>
-    <hyperlink ref="B27" r:id="rId85" xr:uid="{CCFFDACD-3E7F-45A7-A1E2-D0739704B4CD}"/>
-    <hyperlink ref="B81" r:id="rId86" xr:uid="{5BE80ACC-66C8-4939-BC9C-678BE69A216A}"/>
-    <hyperlink ref="B2" r:id="rId87" xr:uid="{0D24E4ED-2BFA-4687-B9F6-2AEA971D5593}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <sheetPr>
     <tabColor rgb="FF385724"/>
@@ -30195,7 +31524,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <sheetPr>
     <tabColor rgb="FFA9D18E"/>
@@ -30709,7 +32038,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <sheetPr>
     <tabColor rgb="FF203864"/>
@@ -31239,7 +32568,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
   <sheetPr>
     <tabColor rgb="FF8FAADC"/>
@@ -31753,7 +33082,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACAF52A4-5F5D-40CE-8B40-91AF9A6E898F}">
   <sheetPr>
     <tabColor theme="4" tint="-0.499984740745262"/>
@@ -32227,7 +33556,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
   <sheetPr>
     <tabColor rgb="FF385724"/>
@@ -32741,7 +34070,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
   <sheetPr>
     <tabColor rgb="FFA9D18E"/>
@@ -33255,7 +34584,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
   <sheetPr>
     <tabColor rgb="FF203864"/>
@@ -33518,7 +34847,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
   <sheetPr>
     <tabColor rgb="FF8FAADC"/>
@@ -33774,310 +35103,6 @@
       </c>
       <c r="E15" s="36"/>
       <c r="F15" s="36"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
-  <sheetPr>
-    <tabColor rgb="FF203864"/>
-  </sheetPr>
-  <dimension ref="A1:AMJ20"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="27" style="36" customWidth="1"/>
-    <col min="2" max="2" width="56.7109375" style="36" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" style="36" customWidth="1"/>
-    <col min="4" max="4" width="78.28515625" style="36" customWidth="1"/>
-    <col min="5" max="1024" width="8.5703125" style="55"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
-        <v>150</v>
-      </c>
-      <c r="B1" s="37" t="s">
-        <v>151</v>
-      </c>
-      <c r="C1" s="37" t="s">
-        <v>152</v>
-      </c>
-      <c r="D1" s="37" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
-        <v>153</v>
-      </c>
-      <c r="B2" s="36" t="s">
-        <v>154</v>
-      </c>
-      <c r="C2" s="36" t="s">
-        <v>155</v>
-      </c>
-      <c r="D2" s="36" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
-        <v>160</v>
-      </c>
-      <c r="B3" s="36" t="s">
-        <v>161</v>
-      </c>
-      <c r="C3" s="36" t="s">
-        <v>155</v>
-      </c>
-      <c r="D3" s="36" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
-        <v>188</v>
-      </c>
-      <c r="B4" s="36" t="s">
-        <v>188</v>
-      </c>
-      <c r="C4" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="D4" s="36" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="s">
-        <v>734</v>
-      </c>
-      <c r="B5" s="36" t="s">
-        <v>735</v>
-      </c>
-      <c r="C5" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="D5" s="36" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
-        <v>737</v>
-      </c>
-      <c r="B6" s="36" t="s">
-        <v>738</v>
-      </c>
-      <c r="C6" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="D6" s="36" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="36" t="s">
-        <v>740</v>
-      </c>
-      <c r="B7" s="36" t="s">
-        <v>741</v>
-      </c>
-      <c r="C7" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="D7" s="36" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="36" t="s">
-        <v>743</v>
-      </c>
-      <c r="B8" s="36" t="s">
-        <v>744</v>
-      </c>
-      <c r="C8" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="D8" s="36" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="36" t="s">
-        <v>746</v>
-      </c>
-      <c r="B9" s="36" t="s">
-        <v>747</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="D9" s="36" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="36" t="s">
-        <v>749</v>
-      </c>
-      <c r="B10" s="36" t="s">
-        <v>750</v>
-      </c>
-      <c r="C10" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="D10" s="36" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="36" t="s">
-        <v>752</v>
-      </c>
-      <c r="B11" s="36" t="s">
-        <v>753</v>
-      </c>
-      <c r="C11" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="D11" s="36" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="36" t="s">
-        <v>755</v>
-      </c>
-      <c r="B12" s="36" t="s">
-        <v>756</v>
-      </c>
-      <c r="C12" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="D12" s="36" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="36" t="s">
-        <v>758</v>
-      </c>
-      <c r="B13" s="36" t="s">
-        <v>759</v>
-      </c>
-      <c r="C13" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="D13" s="36" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="36" t="s">
-        <v>761</v>
-      </c>
-      <c r="B14" s="36" t="s">
-        <v>762</v>
-      </c>
-      <c r="C14" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="D14" s="36" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="36" t="s">
-        <v>764</v>
-      </c>
-      <c r="B15" s="36" t="s">
-        <v>765</v>
-      </c>
-      <c r="C15" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="D15" s="36" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="36" t="s">
-        <v>767</v>
-      </c>
-      <c r="B16" s="36" t="s">
-        <v>768</v>
-      </c>
-      <c r="C16" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="D16" s="36" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="36" t="s">
-        <v>770</v>
-      </c>
-      <c r="B17" s="36" t="s">
-        <v>771</v>
-      </c>
-      <c r="C17" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="D17" s="36" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="36" t="s">
-        <v>773</v>
-      </c>
-      <c r="B18" s="36" t="s">
-        <v>774</v>
-      </c>
-      <c r="C18" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="D18" s="36" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="36" t="s">
-        <v>776</v>
-      </c>
-      <c r="B19" s="36" t="s">
-        <v>777</v>
-      </c>
-      <c r="C19" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="D19" s="36" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="36" t="s">
-        <v>779</v>
-      </c>
-      <c r="B20" s="36" t="s">
-        <v>780</v>
-      </c>
-      <c r="C20" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="D20" s="36" t="s">
-        <v>781</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -34292,6 +35317,310 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FF203864"/>
+  </sheetPr>
+  <dimension ref="A1:AMJ20"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27" style="36" customWidth="1"/>
+    <col min="2" max="2" width="56.7109375" style="36" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" style="36" customWidth="1"/>
+    <col min="4" max="4" width="78.28515625" style="36" customWidth="1"/>
+    <col min="5" max="1024" width="8.5703125" style="55"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="36" t="s">
+        <v>160</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="36" t="s">
+        <v>734</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>735</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="36" t="s">
+        <v>737</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>738</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="36" t="s">
+        <v>740</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>741</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="36" t="s">
+        <v>743</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>744</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="36" t="s">
+        <v>746</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>747</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="36" t="s">
+        <v>749</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>750</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="36" t="s">
+        <v>752</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>753</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="36" t="s">
+        <v>755</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>756</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="36" t="s">
+        <v>758</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>759</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="36" t="s">
+        <v>761</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>762</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="D14" s="36" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="36" t="s">
+        <v>764</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>765</v>
+      </c>
+      <c r="C15" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="D15" s="36" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="36" t="s">
+        <v>767</v>
+      </c>
+      <c r="B16" s="36" t="s">
+        <v>768</v>
+      </c>
+      <c r="C16" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="D16" s="36" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="36" t="s">
+        <v>770</v>
+      </c>
+      <c r="B17" s="36" t="s">
+        <v>771</v>
+      </c>
+      <c r="C17" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="D17" s="36" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="36" t="s">
+        <v>773</v>
+      </c>
+      <c r="B18" s="36" t="s">
+        <v>774</v>
+      </c>
+      <c r="C18" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="D18" s="36" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="36" t="s">
+        <v>776</v>
+      </c>
+      <c r="B19" s="36" t="s">
+        <v>777</v>
+      </c>
+      <c r="C19" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="D19" s="36" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="36" t="s">
+        <v>779</v>
+      </c>
+      <c r="B20" s="36" t="s">
+        <v>780</v>
+      </c>
+      <c r="C20" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="D20" s="36" t="s">
+        <v>781</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
   <sheetPr>
     <tabColor rgb="FF8FAADC"/>
@@ -34595,7 +35924,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2300-000000000000}">
   <sheetPr>
     <tabColor rgb="FF203864"/>
@@ -34760,7 +36089,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2400-000000000000}">
   <sheetPr>
     <tabColor rgb="FF8FAADC"/>
@@ -34924,7 +36253,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2500-000000000000}">
   <sheetPr>
     <tabColor rgb="FF203864"/>
@@ -35270,7 +36599,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2600-000000000000}">
   <sheetPr>
     <tabColor rgb="FF8FAADC"/>
@@ -35616,7 +36945,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2700-000000000000}">
   <sheetPr>
     <tabColor rgb="FF203864"/>
@@ -36060,7 +37389,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2800-000000000000}">
   <sheetPr>
     <tabColor rgb="FF8FAADC"/>
@@ -36504,7 +37833,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2900-000000000000}">
   <sheetPr>
     <tabColor rgb="FF385724"/>
@@ -36836,7 +38165,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2A00-000000000000}">
   <sheetPr>
     <tabColor rgb="FFA9D18E"/>
@@ -37160,221 +38489,6 @@
       </c>
       <c r="D22" s="36" t="s">
         <v>1022</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2B00-000000000000}">
-  <sheetPr>
-    <tabColor rgb="FF203864"/>
-  </sheetPr>
-  <dimension ref="A1:D18"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20.28515625" customWidth="1"/>
-    <col min="2" max="2" width="32.42578125" customWidth="1"/>
-    <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="67.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
-        <v>150</v>
-      </c>
-      <c r="B1" s="58" t="s">
-        <v>151</v>
-      </c>
-      <c r="C1" s="58" t="s">
-        <v>152</v>
-      </c>
-      <c r="D1" s="58" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
-        <v>153</v>
-      </c>
-      <c r="B2" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="C2" s="43" t="s">
-        <v>155</v>
-      </c>
-      <c r="D2" s="43" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
-        <v>160</v>
-      </c>
-      <c r="B3" s="43" t="s">
-        <v>161</v>
-      </c>
-      <c r="C3" s="43" t="s">
-        <v>155</v>
-      </c>
-      <c r="D3" s="43" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1044</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1045</v>
-      </c>
-      <c r="C4" s="43" t="s">
-        <v>155</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>1047</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1048</v>
-      </c>
-      <c r="C5" s="43" t="s">
-        <v>174</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1049</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>1050</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1051</v>
-      </c>
-      <c r="C6" s="43" t="s">
-        <v>189</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>1053</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1054</v>
-      </c>
-      <c r="C7" s="43" t="s">
-        <v>174</v>
-      </c>
-      <c r="D7" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1057</v>
-      </c>
-      <c r="C8" s="43" t="s">
-        <v>174</v>
-      </c>
-      <c r="D8" t="s">
-        <v>1058</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>1059</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1060</v>
-      </c>
-      <c r="C9" s="43" t="s">
-        <v>174</v>
-      </c>
-      <c r="D9" t="s">
-        <v>1061</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>1062</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1063</v>
-      </c>
-      <c r="C10" s="43" t="s">
-        <v>174</v>
-      </c>
-      <c r="D10" t="s">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="59" t="s">
-        <v>1065</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1066</v>
-      </c>
-      <c r="C11" s="43" t="s">
-        <v>174</v>
-      </c>
-      <c r="D11" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>1068</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1069</v>
-      </c>
-      <c r="C12" s="43" t="s">
-        <v>174</v>
-      </c>
-      <c r="D12" t="s">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>1071</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1072</v>
-      </c>
-      <c r="C13" s="43" t="s">
-        <v>174</v>
-      </c>
-      <c r="D13" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D18" t="s">
-        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -37805,6 +38919,221 @@
 </file>
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2B00-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FF203864"/>
+  </sheetPr>
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+    <col min="2" max="2" width="32.42578125" customWidth="1"/>
+    <col min="3" max="3" width="9" customWidth="1"/>
+    <col min="4" max="4" width="67.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="58" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1" s="58" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1" s="58" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1" s="58" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="43" t="s">
+        <v>153</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>155</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="43" t="s">
+        <v>160</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>161</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>155</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>155</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>174</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>189</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>174</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>174</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C9" s="43" t="s">
+        <v>174</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C10" s="43" t="s">
+        <v>174</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="59" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C11" s="43" t="s">
+        <v>174</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C12" s="43" t="s">
+        <v>174</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C13" s="43" t="s">
+        <v>174</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>233</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2C00-000000000000}">
   <sheetPr>
     <tabColor rgb="FF8FAADC"/>
@@ -38019,7 +39348,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2D00-000000000000}">
   <sheetPr>
     <tabColor rgb="FF203864"/>
@@ -38379,7 +39708,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2E00-000000000000}">
   <sheetPr>
     <tabColor rgb="FF8FAADC"/>
@@ -38739,7 +40068,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2F00-000000000000}">
   <sheetPr>
     <tabColor rgb="FF203864"/>
@@ -39085,7 +40414,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3000-000000000000}">
   <sheetPr>
     <tabColor rgb="FF8FAADC"/>
@@ -39431,7 +40760,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3100-000000000000}">
   <sheetPr>
     <tabColor rgb="FF203864"/>
@@ -39707,7 +41036,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3200-000000000000}">
   <sheetPr>
     <tabColor rgb="FF8FAADC"/>
@@ -39983,7 +41312,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3300-000000000000}">
   <sheetPr>
     <tabColor rgb="FF203864"/>
@@ -40287,7 +41616,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3400-000000000000}">
   <sheetPr>
     <tabColor rgb="FF8FAADC"/>
@@ -40583,142 +41912,6 @@
       </c>
       <c r="D20" s="36" t="s">
         <v>1349</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3500-000000000000}">
-  <sheetPr>
-    <tabColor rgb="FF203864"/>
-  </sheetPr>
-  <dimension ref="A1:AMJ8"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="23.5703125" style="55" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" style="55" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" style="55" customWidth="1"/>
-    <col min="4" max="4" width="61.7109375" style="55" customWidth="1"/>
-    <col min="5" max="1024" width="8.5703125" style="55"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
-        <v>150</v>
-      </c>
-      <c r="B1" s="37" t="s">
-        <v>151</v>
-      </c>
-      <c r="C1" s="37" t="s">
-        <v>152</v>
-      </c>
-      <c r="D1" s="37" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
-        <v>153</v>
-      </c>
-      <c r="B2" s="36" t="s">
-        <v>154</v>
-      </c>
-      <c r="C2" s="55" t="s">
-        <v>155</v>
-      </c>
-      <c r="D2" s="55" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="55" t="s">
-        <v>160</v>
-      </c>
-      <c r="B3" s="36" t="s">
-        <v>161</v>
-      </c>
-      <c r="C3" s="55" t="s">
-        <v>155</v>
-      </c>
-      <c r="D3" s="55" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="55" t="s">
-        <v>188</v>
-      </c>
-      <c r="B4" s="36" t="s">
-        <v>188</v>
-      </c>
-      <c r="C4" s="55" t="s">
-        <v>189</v>
-      </c>
-      <c r="D4" s="55" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="55" t="s">
-        <v>1394</v>
-      </c>
-      <c r="B5" s="55" t="s">
-        <v>622</v>
-      </c>
-      <c r="C5" s="55" t="s">
-        <v>174</v>
-      </c>
-      <c r="D5" s="55" t="s">
-        <v>1395</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="55" t="s">
-        <v>1396</v>
-      </c>
-      <c r="B6" s="55" t="s">
-        <v>1397</v>
-      </c>
-      <c r="C6" s="55" t="s">
-        <v>174</v>
-      </c>
-      <c r="D6" s="55" t="s">
-        <v>1398</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="55" t="s">
-        <v>1399</v>
-      </c>
-      <c r="B7" s="55" t="s">
-        <v>558</v>
-      </c>
-      <c r="C7" s="55" t="s">
-        <v>174</v>
-      </c>
-      <c r="D7" s="55" t="s">
-        <v>1395</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="55" t="s">
-        <v>1400</v>
-      </c>
-      <c r="B8" s="55" t="s">
-        <v>1401</v>
-      </c>
-      <c r="C8" s="55" t="s">
-        <v>174</v>
-      </c>
-      <c r="D8" s="55" t="s">
-        <v>1398</v>
       </c>
     </row>
   </sheetData>
@@ -41237,6 +42430,142 @@
 </file>
 
 <file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3500-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FF203864"/>
+  </sheetPr>
+  <dimension ref="A1:AMJ8"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.5703125" style="55" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" style="55" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" style="55" customWidth="1"/>
+    <col min="4" max="4" width="61.7109375" style="55" customWidth="1"/>
+    <col min="5" max="1024" width="8.5703125" style="55"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="55" t="s">
+        <v>153</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>155</v>
+      </c>
+      <c r="D2" s="55" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="55" t="s">
+        <v>160</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="C3" s="55" t="s">
+        <v>155</v>
+      </c>
+      <c r="D3" s="55" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="55" t="s">
+        <v>188</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="C4" s="55" t="s">
+        <v>189</v>
+      </c>
+      <c r="D4" s="55" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="55" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B5" s="55" t="s">
+        <v>622</v>
+      </c>
+      <c r="C5" s="55" t="s">
+        <v>174</v>
+      </c>
+      <c r="D5" s="55" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="55" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B6" s="55" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C6" s="55" t="s">
+        <v>174</v>
+      </c>
+      <c r="D6" s="55" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="55" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B7" s="55" t="s">
+        <v>558</v>
+      </c>
+      <c r="C7" s="55" t="s">
+        <v>174</v>
+      </c>
+      <c r="D7" s="55" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="55" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B8" s="55" t="s">
+        <v>1401</v>
+      </c>
+      <c r="C8" s="55" t="s">
+        <v>174</v>
+      </c>
+      <c r="D8" s="55" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3600-000000000000}">
   <sheetPr>
     <tabColor rgb="FF203864"/>
@@ -41526,7 +42855,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3700-000000000000}">
   <sheetPr>
     <tabColor rgb="FF8FAADC"/>
@@ -41816,7 +43145,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3800-000000000000}">
   <sheetPr>
     <tabColor rgb="FF203864"/>
@@ -42092,7 +43421,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3900-000000000000}">
   <sheetPr>
     <tabColor rgb="FF8FAADC"/>
@@ -42368,7 +43697,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3A00-000000000000}">
   <sheetPr>
     <tabColor rgb="FF203864"/>
@@ -43050,7 +44379,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3B00-000000000000}">
   <sheetPr>
     <tabColor rgb="FF8FAADC"/>
@@ -43732,7 +45061,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3C00-000000000000}">
   <sheetPr>
     <tabColor rgb="FF203864"/>
@@ -43940,7 +45269,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3D00-000000000000}">
   <sheetPr>
     <tabColor rgb="FF203864"/>
@@ -44188,7 +45517,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3E00-000000000000}">
   <sheetPr>
     <tabColor rgb="FF8FAADC"/>
@@ -44428,310 +45757,6 @@
       </c>
       <c r="D16" s="36" t="s">
         <v>1696</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3F00-000000000000}">
-  <sheetPr>
-    <tabColor rgb="FF203864"/>
-  </sheetPr>
-  <dimension ref="A1:AMJ20"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="23.42578125" style="36" customWidth="1"/>
-    <col min="2" max="2" width="36.85546875" style="36" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" style="36" customWidth="1"/>
-    <col min="4" max="4" width="136.85546875" style="36" customWidth="1"/>
-    <col min="5" max="1024" width="8.5703125" style="55"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
-        <v>150</v>
-      </c>
-      <c r="B1" s="37" t="s">
-        <v>151</v>
-      </c>
-      <c r="C1" s="37" t="s">
-        <v>152</v>
-      </c>
-      <c r="D1" s="37" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
-        <v>153</v>
-      </c>
-      <c r="B2" s="36" t="s">
-        <v>154</v>
-      </c>
-      <c r="C2" s="36" t="s">
-        <v>155</v>
-      </c>
-      <c r="D2" s="36" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
-        <v>188</v>
-      </c>
-      <c r="B3" s="36" t="s">
-        <v>188</v>
-      </c>
-      <c r="C3" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="D3" s="36" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
-        <v>1699</v>
-      </c>
-      <c r="B4" s="36" t="s">
-        <v>1699</v>
-      </c>
-      <c r="C4" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="D4" s="36" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="s">
-        <v>1700</v>
-      </c>
-      <c r="B5" s="36" t="s">
-        <v>1701</v>
-      </c>
-      <c r="C5" s="36" t="s">
-        <v>155</v>
-      </c>
-      <c r="D5" s="36" t="s">
-        <v>1702</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
-        <v>1703</v>
-      </c>
-      <c r="B6" s="36" t="s">
-        <v>1704</v>
-      </c>
-      <c r="C6" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="D6" s="36" t="s">
-        <v>1705</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="36" t="s">
-        <v>1706</v>
-      </c>
-      <c r="B7" s="36" t="s">
-        <v>1707</v>
-      </c>
-      <c r="C7" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="D7" s="36" t="s">
-        <v>1708</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="36" t="s">
-        <v>1709</v>
-      </c>
-      <c r="B8" s="36" t="s">
-        <v>1710</v>
-      </c>
-      <c r="C8" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="D8" s="36" t="s">
-        <v>1711</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="36" t="s">
-        <v>1712</v>
-      </c>
-      <c r="B9" s="36" t="s">
-        <v>1713</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="D9" s="36" t="s">
-        <v>1714</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="36" t="s">
-        <v>1715</v>
-      </c>
-      <c r="B10" s="36" t="s">
-        <v>1716</v>
-      </c>
-      <c r="C10" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="D10" s="36" t="s">
-        <v>1717</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="36" t="s">
-        <v>1718</v>
-      </c>
-      <c r="B11" s="36" t="s">
-        <v>1719</v>
-      </c>
-      <c r="C11" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="D11" s="36" t="s">
-        <v>1720</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="36" t="s">
-        <v>1721</v>
-      </c>
-      <c r="B12" s="36" t="s">
-        <v>1722</v>
-      </c>
-      <c r="C12" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="D12" s="36" t="s">
-        <v>1723</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="36" t="s">
-        <v>1724</v>
-      </c>
-      <c r="B13" s="36" t="s">
-        <v>1725</v>
-      </c>
-      <c r="C13" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="D13" s="36" t="s">
-        <v>1726</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="36" t="s">
-        <v>1727</v>
-      </c>
-      <c r="B14" s="36" t="s">
-        <v>1728</v>
-      </c>
-      <c r="C14" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="D14" s="36" t="s">
-        <v>1729</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="36" t="s">
-        <v>1730</v>
-      </c>
-      <c r="B15" s="36" t="s">
-        <v>1731</v>
-      </c>
-      <c r="C15" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="D15" s="36" t="s">
-        <v>1732</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="36" t="s">
-        <v>1733</v>
-      </c>
-      <c r="B16" s="36" t="s">
-        <v>1734</v>
-      </c>
-      <c r="C16" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="D16" s="36" t="s">
-        <v>1735</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="36" t="s">
-        <v>1736</v>
-      </c>
-      <c r="B17" s="36" t="s">
-        <v>1737</v>
-      </c>
-      <c r="C17" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="D17" s="36" t="s">
-        <v>1738</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="36" t="s">
-        <v>1739</v>
-      </c>
-      <c r="B18" s="36" t="s">
-        <v>1740</v>
-      </c>
-      <c r="C18" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="D18" s="36" t="s">
-        <v>1741</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="36" t="s">
-        <v>1742</v>
-      </c>
-      <c r="B19" s="36" t="s">
-        <v>1743</v>
-      </c>
-      <c r="C19" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="D19" s="36" t="s">
-        <v>1744</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="36" t="s">
-        <v>1745</v>
-      </c>
-      <c r="B20" s="36" t="s">
-        <v>1746</v>
-      </c>
-      <c r="C20" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="D20" s="36" t="s">
-        <v>1747</v>
       </c>
     </row>
   </sheetData>
@@ -45187,6 +46212,310 @@
 </file>
 
 <file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3F00-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FF203864"/>
+  </sheetPr>
+  <dimension ref="A1:AMJ20"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.42578125" style="36" customWidth="1"/>
+    <col min="2" max="2" width="36.85546875" style="36" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="36" customWidth="1"/>
+    <col min="4" max="4" width="136.85546875" style="36" customWidth="1"/>
+    <col min="5" max="1024" width="8.5703125" style="55"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="36" t="s">
+        <v>1699</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>1699</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="36" t="s">
+        <v>1700</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>1701</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="36" t="s">
+        <v>1703</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="36" t="s">
+        <v>1706</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>1707</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="36" t="s">
+        <v>1709</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>1710</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="36" t="s">
+        <v>1712</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>1713</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="36" t="s">
+        <v>1715</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>1716</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="36" t="s">
+        <v>1718</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>1719</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="36" t="s">
+        <v>1721</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>1722</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="36" t="s">
+        <v>1724</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>1725</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="36" t="s">
+        <v>1727</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>1728</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="D14" s="36" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="36" t="s">
+        <v>1730</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>1731</v>
+      </c>
+      <c r="C15" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="D15" s="36" t="s">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="36" t="s">
+        <v>1733</v>
+      </c>
+      <c r="B16" s="36" t="s">
+        <v>1734</v>
+      </c>
+      <c r="C16" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="D16" s="36" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="36" t="s">
+        <v>1736</v>
+      </c>
+      <c r="B17" s="36" t="s">
+        <v>1737</v>
+      </c>
+      <c r="C17" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="D17" s="36" t="s">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="36" t="s">
+        <v>1739</v>
+      </c>
+      <c r="B18" s="36" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C18" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="D18" s="36" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="36" t="s">
+        <v>1742</v>
+      </c>
+      <c r="B19" s="36" t="s">
+        <v>1743</v>
+      </c>
+      <c r="C19" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="D19" s="36" t="s">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="36" t="s">
+        <v>1745</v>
+      </c>
+      <c r="B20" s="36" t="s">
+        <v>1746</v>
+      </c>
+      <c r="C20" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="D20" s="36" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4000-000000000000}">
   <sheetPr>
     <tabColor rgb="FF8FAADC"/>
@@ -45490,7 +46819,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4100-000000000000}">
   <sheetPr>
     <tabColor rgb="FF203864"/>
@@ -45766,7 +47095,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4200-000000000000}">
   <sheetPr>
     <tabColor rgb="FF8FAADC"/>
@@ -46041,7 +47370,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4300-000000000000}">
   <sheetPr>
     <tabColor rgb="FF203864"/>
@@ -46359,7 +47688,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4400-000000000000}">
   <sheetPr>
     <tabColor rgb="FFB4C7E7"/>
@@ -46677,7 +48006,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4500-000000000000}">
   <sheetPr>
     <tabColor rgb="FF203864"/>
@@ -47052,7 +48381,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4600-000000000000}">
   <sheetPr>
     <tabColor rgb="FF8FAADC"/>
@@ -47427,7 +48756,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4700-000000000000}">
   <sheetPr>
     <tabColor rgb="FF203864"/>
@@ -47941,7 +49270,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4800-000000000000}">
   <sheetPr>
     <tabColor rgb="FF8FAADC"/>
@@ -48450,211 +49779,6 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4900-000000000000}">
-  <sheetPr>
-    <tabColor rgb="FF203864"/>
-  </sheetPr>
-  <dimension ref="A1:AMJ13"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="27.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.140625" style="56" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" style="56" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="56" customWidth="1"/>
-    <col min="4" max="4" width="62.140625" style="56" customWidth="1"/>
-    <col min="5" max="1024" width="27.85546875" style="56"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
-        <v>150</v>
-      </c>
-      <c r="B1" s="37" t="s">
-        <v>151</v>
-      </c>
-      <c r="C1" s="37" t="s">
-        <v>152</v>
-      </c>
-      <c r="D1" s="37" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
-        <v>153</v>
-      </c>
-      <c r="B2" s="36" t="s">
-        <v>154</v>
-      </c>
-      <c r="C2" s="36" t="s">
-        <v>155</v>
-      </c>
-      <c r="D2" s="36" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="56" t="s">
-        <v>160</v>
-      </c>
-      <c r="B3" s="36" t="s">
-        <v>161</v>
-      </c>
-      <c r="C3" s="36" t="s">
-        <v>155</v>
-      </c>
-      <c r="D3" s="36" t="s">
-        <v>1940</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="56" t="s">
-        <v>188</v>
-      </c>
-      <c r="B4" s="36" t="s">
-        <v>188</v>
-      </c>
-      <c r="C4" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="D4" s="36" t="s">
-        <v>1941</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
-        <v>529</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>530</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
-        <v>532</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>533</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
-        <v>535</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>536</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="56" t="s">
-        <v>2062</v>
-      </c>
-      <c r="B8" s="36" t="s">
-        <v>194</v>
-      </c>
-      <c r="C8" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="D8" s="36" t="s">
-        <v>2063</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="56" t="s">
-        <v>2064</v>
-      </c>
-      <c r="B9" s="36" t="s">
-        <v>197</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="D9" s="36" t="s">
-        <v>2065</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="56" t="s">
-        <v>2059</v>
-      </c>
-      <c r="B10" s="36" t="s">
-        <v>2060</v>
-      </c>
-      <c r="C10" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="D10" s="36" t="s">
-        <v>2061</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="56" t="s">
-        <v>2057</v>
-      </c>
-      <c r="B11" s="36" t="s">
-        <v>216</v>
-      </c>
-      <c r="C11" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="D11" s="36" t="s">
-        <v>2058</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="56" t="s">
-        <v>3007</v>
-      </c>
-      <c r="B12" s="56" t="s">
-        <v>3008</v>
-      </c>
-      <c r="C12" s="56" t="s">
-        <v>174</v>
-      </c>
-      <c r="D12" s="56" t="s">
-        <v>3009</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="56" t="s">
-        <v>3010</v>
-      </c>
-      <c r="B13" s="56" t="s">
-        <v>3011</v>
-      </c>
-      <c r="D13" s="56" t="s">
-        <v>3012</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -49108,6 +50232,211 @@
 </file>
 
 <file path=xl/worksheets/sheet80.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4900-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FF203864"/>
+  </sheetPr>
+  <dimension ref="A1:AMJ13"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="27.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" style="56" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" style="56" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="56" customWidth="1"/>
+    <col min="4" max="4" width="62.140625" style="56" customWidth="1"/>
+    <col min="5" max="1024" width="27.85546875" style="56"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="56" t="s">
+        <v>153</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="56" t="s">
+        <v>160</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="56" t="s">
+        <v>188</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
+        <v>529</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>530</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
+        <v>532</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>533</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
+        <v>535</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>536</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="56" t="s">
+        <v>2062</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>194</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>2063</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="56" t="s">
+        <v>2064</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>197</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>2065</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="56" t="s">
+        <v>2059</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>2060</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>2061</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="56" t="s">
+        <v>2057</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>216</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>2058</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="56" t="s">
+        <v>3007</v>
+      </c>
+      <c r="B12" s="56" t="s">
+        <v>3008</v>
+      </c>
+      <c r="C12" s="56" t="s">
+        <v>174</v>
+      </c>
+      <c r="D12" s="56" t="s">
+        <v>3009</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="56" t="s">
+        <v>3010</v>
+      </c>
+      <c r="B13" s="56" t="s">
+        <v>3011</v>
+      </c>
+      <c r="D13" s="56" t="s">
+        <v>3012</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4A00-000000000000}">
   <sheetPr>
     <tabColor rgb="FF8FAADC"/>
@@ -49285,7 +50614,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4B00-000000000000}">
   <sheetPr>
     <tabColor rgb="FF203864"/>
@@ -49507,7 +50836,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4C00-000000000000}">
   <sheetPr>
     <tabColor rgb="FF203864"/>
@@ -49659,7 +50988,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4D00-000000000000}">
   <sheetPr>
     <tabColor rgb="FF8FAADC"/>
@@ -49812,7 +51141,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4E00-000000000000}">
   <sheetPr>
     <tabColor rgb="FF203864"/>
@@ -49962,7 +51291,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4F00-000000000000}">
   <sheetPr>
     <tabColor rgb="FF203864"/>
@@ -50083,7 +51412,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5000-000000000000}">
   <sheetPr>
     <tabColor rgb="FF203864"/>
@@ -50332,7 +51661,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5100-000000000000}">
   <sheetPr>
     <tabColor rgb="FF8FAADC"/>
@@ -50582,7 +51911,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5200-000000000000}">
   <sheetPr>
     <tabColor rgb="FF203864"/>
@@ -50751,184 +52080,6 @@
         <v>233</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5300-000000000000}">
-  <sheetPr>
-    <tabColor rgb="FF8FAADC"/>
-  </sheetPr>
-  <dimension ref="A1:D32"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
-    <col min="2" max="2" width="50" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
-    <col min="4" max="4" width="72" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>151</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>153</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="C2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>160</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="C3" t="s">
-        <v>155</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>1940</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>188</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="C4" t="s">
-        <v>189</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>2174</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>2175</v>
-      </c>
-      <c r="B5" s="36" t="s">
-        <v>2181</v>
-      </c>
-      <c r="C5" t="s">
-        <v>174</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>2177</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
-        <v>529</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>530</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
-        <v>532</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>533</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
-        <v>535</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>536</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>2178</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>2182</v>
-      </c>
-      <c r="C9" t="s">
-        <v>189</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>2180</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="22"/>
-    </row>
-    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="22"/>
-    </row>
-    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="22"/>
-    </row>
-    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="22"/>
-    </row>
-    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="22"/>
-    </row>
-    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="22"/>
-    </row>
-    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="22"/>
-    </row>
-    <row r="31" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -51382,6 +52533,184 @@
 </file>
 
 <file path=xl/worksheets/sheet90.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5300-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FF8FAADC"/>
+  </sheetPr>
+  <dimension ref="A1:D32"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="50" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="72" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="C3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="C4" t="s">
+        <v>189</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>2174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2175</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>2181</v>
+      </c>
+      <c r="C5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>2177</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
+        <v>529</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>530</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
+        <v>532</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>533</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
+        <v>535</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>536</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>2178</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>2182</v>
+      </c>
+      <c r="C9" t="s">
+        <v>189</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>2180</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="22"/>
+    </row>
+    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="22"/>
+    </row>
+    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="22"/>
+    </row>
+    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="22"/>
+    </row>
+    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="22"/>
+    </row>
+    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="22"/>
+    </row>
+    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="22"/>
+    </row>
+    <row r="31" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5400-000000000000}">
   <sheetPr>
     <tabColor rgb="FF181717"/>
@@ -51445,7 +52774,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5500-000000000000}">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
@@ -51526,7 +52855,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5600-000000000000}">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
@@ -52546,7 +53875,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5700-000000000000}">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
@@ -54600,7 +55929,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5800-000000000000}">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
@@ -55088,7 +56417,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5900-000000000000}">
   <sheetPr>
     <tabColor rgb="FF843C0B"/>
@@ -55543,7 +56872,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5A00-000000000000}">
   <sheetPr>
     <tabColor rgb="FFF4B183"/>
@@ -55953,7 +57282,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet98.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5B00-000000000000}">
   <sheetPr>
     <tabColor rgb="FFBF9000"/>
@@ -56355,7 +57684,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet98.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet99.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5C00-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFD966"/>
@@ -56759,159 +58088,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet99.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5D00-000000000000}">
-  <sheetPr>
-    <tabColor rgb="FF000000"/>
-  </sheetPr>
-  <dimension ref="A1:D9"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="30.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
-        <v>150</v>
-      </c>
-      <c r="B1" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="C1" s="51" t="s">
-        <v>152</v>
-      </c>
-      <c r="D1" s="51" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>166</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2612</v>
-      </c>
-      <c r="C2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2613</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>185</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2614</v>
-      </c>
-      <c r="C3" t="s">
-        <v>155</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2615</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>176</v>
-      </c>
-      <c r="B4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C4" t="s">
-        <v>155</v>
-      </c>
-      <c r="D4" t="s">
-        <v>2616</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>2617</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2618</v>
-      </c>
-      <c r="C5" t="s">
-        <v>155</v>
-      </c>
-      <c r="D5" t="s">
-        <v>2619</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>2620</v>
-      </c>
-      <c r="B6" t="s">
-        <v>2621</v>
-      </c>
-      <c r="C6" t="s">
-        <v>155</v>
-      </c>
-      <c r="D6" t="s">
-        <v>2622</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>178</v>
-      </c>
-      <c r="B7" t="s">
-        <v>178</v>
-      </c>
-      <c r="C7" t="s">
-        <v>155</v>
-      </c>
-      <c r="D7" t="s">
-        <v>2623</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>180</v>
-      </c>
-      <c r="B8" t="s">
-        <v>181</v>
-      </c>
-      <c r="C8" t="s">
-        <v>155</v>
-      </c>
-      <c r="D8" t="s">
-        <v>2624</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>169</v>
-      </c>
-      <c r="B9" t="s">
-        <v>170</v>
-      </c>
-      <c r="C9" t="s">
-        <v>155</v>
-      </c>
-      <c r="D9" t="s">
-        <v>2625</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>
--- a/fvsOL/inst/extdata/databaseDescription.xlsx
+++ b/fvsOL/inst/extdata/databaseDescription.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\stable_repos\ForestVegetationSimulator-Interface\fvsOL\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC7EEEFF-11E5-403A-830A-4B28405166A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C53C12-80FF-4291-9168-FD005A21FCB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="718" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2115" yWindow="1365" windowWidth="21600" windowHeight="11295" tabRatio="718" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ColorKey" sheetId="1" r:id="rId1"/>
@@ -125,7 +125,7 @@
     <sheet name="View_DWN_Metric" sheetId="108" r:id="rId110"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">GuideLinks!$A$1:$B$104</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">GuideLinks!$A$1:$B$105</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">OutputTableDescriptions!$A$1:$B$103</definedName>
     <definedName name="OLE_LINK3" localSheetId="32">FVS_Carbon!$D$5</definedName>
     <definedName name="OLE_LINK3" localSheetId="90">StdStk!$D$5</definedName>
@@ -141,7 +141,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10108" uniqueCount="2927">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10110" uniqueCount="2927">
   <si>
     <t>Tab Color</t>
   </si>
@@ -16973,8 +16973,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50:XFD50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="77.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22695,10 +22695,10 @@
   <sheetPr>
     <tabColor rgb="FF0D0D0D"/>
   </sheetPr>
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:AMJ105"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23091,7 +23091,7 @@
         <v>2849</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A49" s="39" t="s">
         <v>101</v>
       </c>
@@ -23099,7 +23099,7 @@
         <v>2849</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A50" s="38" t="s">
         <v>98</v>
       </c>
@@ -23107,7 +23107,7 @@
         <v>2849</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A51" s="45" t="s">
         <v>99</v>
       </c>
@@ -23115,177 +23115,1199 @@
         <v>2849</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="38" t="s">
+    <row r="52" spans="1:1024" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="25" t="s">
+        <v>2925</v>
+      </c>
+      <c r="B52" s="68" t="s">
+        <v>2846</v>
+      </c>
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="21"/>
+      <c r="H52" s="21"/>
+      <c r="I52" s="21"/>
+      <c r="J52" s="21"/>
+      <c r="K52" s="21"/>
+      <c r="L52" s="21"/>
+      <c r="M52" s="21"/>
+      <c r="N52" s="21"/>
+      <c r="O52" s="21"/>
+      <c r="P52" s="21"/>
+      <c r="Q52" s="21"/>
+      <c r="R52" s="21"/>
+      <c r="S52" s="21"/>
+      <c r="T52" s="21"/>
+      <c r="U52" s="21"/>
+      <c r="V52" s="21"/>
+      <c r="W52" s="21"/>
+      <c r="X52" s="21"/>
+      <c r="Y52" s="21"/>
+      <c r="Z52" s="21"/>
+      <c r="AA52" s="21"/>
+      <c r="AB52" s="21"/>
+      <c r="AC52" s="21"/>
+      <c r="AD52" s="21"/>
+      <c r="AE52" s="21"/>
+      <c r="AF52" s="21"/>
+      <c r="AG52" s="21"/>
+      <c r="AH52" s="21"/>
+      <c r="AI52" s="21"/>
+      <c r="AJ52" s="21"/>
+      <c r="AK52" s="21"/>
+      <c r="AL52" s="21"/>
+      <c r="AM52" s="21"/>
+      <c r="AN52" s="21"/>
+      <c r="AO52" s="21"/>
+      <c r="AP52" s="21"/>
+      <c r="AQ52" s="21"/>
+      <c r="AR52" s="21"/>
+      <c r="AS52" s="21"/>
+      <c r="AT52" s="21"/>
+      <c r="AU52" s="21"/>
+      <c r="AV52" s="21"/>
+      <c r="AW52" s="21"/>
+      <c r="AX52" s="21"/>
+      <c r="AY52" s="21"/>
+      <c r="AZ52" s="21"/>
+      <c r="BA52" s="21"/>
+      <c r="BB52" s="21"/>
+      <c r="BC52" s="21"/>
+      <c r="BD52" s="21"/>
+      <c r="BE52" s="21"/>
+      <c r="BF52" s="21"/>
+      <c r="BG52" s="21"/>
+      <c r="BH52" s="21"/>
+      <c r="BI52" s="21"/>
+      <c r="BJ52" s="21"/>
+      <c r="BK52" s="21"/>
+      <c r="BL52" s="21"/>
+      <c r="BM52" s="21"/>
+      <c r="BN52" s="21"/>
+      <c r="BO52" s="21"/>
+      <c r="BP52" s="21"/>
+      <c r="BQ52" s="21"/>
+      <c r="BR52" s="21"/>
+      <c r="BS52" s="21"/>
+      <c r="BT52" s="21"/>
+      <c r="BU52" s="21"/>
+      <c r="BV52" s="21"/>
+      <c r="BW52" s="21"/>
+      <c r="BX52" s="21"/>
+      <c r="BY52" s="21"/>
+      <c r="BZ52" s="21"/>
+      <c r="CA52" s="21"/>
+      <c r="CB52" s="21"/>
+      <c r="CC52" s="21"/>
+      <c r="CD52" s="21"/>
+      <c r="CE52" s="21"/>
+      <c r="CF52" s="21"/>
+      <c r="CG52" s="21"/>
+      <c r="CH52" s="21"/>
+      <c r="CI52" s="21"/>
+      <c r="CJ52" s="21"/>
+      <c r="CK52" s="21"/>
+      <c r="CL52" s="21"/>
+      <c r="CM52" s="21"/>
+      <c r="CN52" s="21"/>
+      <c r="CO52" s="21"/>
+      <c r="CP52" s="21"/>
+      <c r="CQ52" s="21"/>
+      <c r="CR52" s="21"/>
+      <c r="CS52" s="21"/>
+      <c r="CT52" s="21"/>
+      <c r="CU52" s="21"/>
+      <c r="CV52" s="21"/>
+      <c r="CW52" s="21"/>
+      <c r="CX52" s="21"/>
+      <c r="CY52" s="21"/>
+      <c r="CZ52" s="21"/>
+      <c r="DA52" s="21"/>
+      <c r="DB52" s="21"/>
+      <c r="DC52" s="21"/>
+      <c r="DD52" s="21"/>
+      <c r="DE52" s="21"/>
+      <c r="DF52" s="21"/>
+      <c r="DG52" s="21"/>
+      <c r="DH52" s="21"/>
+      <c r="DI52" s="21"/>
+      <c r="DJ52" s="21"/>
+      <c r="DK52" s="21"/>
+      <c r="DL52" s="21"/>
+      <c r="DM52" s="21"/>
+      <c r="DN52" s="21"/>
+      <c r="DO52" s="21"/>
+      <c r="DP52" s="21"/>
+      <c r="DQ52" s="21"/>
+      <c r="DR52" s="21"/>
+      <c r="DS52" s="21"/>
+      <c r="DT52" s="21"/>
+      <c r="DU52" s="21"/>
+      <c r="DV52" s="21"/>
+      <c r="DW52" s="21"/>
+      <c r="DX52" s="21"/>
+      <c r="DY52" s="21"/>
+      <c r="DZ52" s="21"/>
+      <c r="EA52" s="21"/>
+      <c r="EB52" s="21"/>
+      <c r="EC52" s="21"/>
+      <c r="ED52" s="21"/>
+      <c r="EE52" s="21"/>
+      <c r="EF52" s="21"/>
+      <c r="EG52" s="21"/>
+      <c r="EH52" s="21"/>
+      <c r="EI52" s="21"/>
+      <c r="EJ52" s="21"/>
+      <c r="EK52" s="21"/>
+      <c r="EL52" s="21"/>
+      <c r="EM52" s="21"/>
+      <c r="EN52" s="21"/>
+      <c r="EO52" s="21"/>
+      <c r="EP52" s="21"/>
+      <c r="EQ52" s="21"/>
+      <c r="ER52" s="21"/>
+      <c r="ES52" s="21"/>
+      <c r="ET52" s="21"/>
+      <c r="EU52" s="21"/>
+      <c r="EV52" s="21"/>
+      <c r="EW52" s="21"/>
+      <c r="EX52" s="21"/>
+      <c r="EY52" s="21"/>
+      <c r="EZ52" s="21"/>
+      <c r="FA52" s="21"/>
+      <c r="FB52" s="21"/>
+      <c r="FC52" s="21"/>
+      <c r="FD52" s="21"/>
+      <c r="FE52" s="21"/>
+      <c r="FF52" s="21"/>
+      <c r="FG52" s="21"/>
+      <c r="FH52" s="21"/>
+      <c r="FI52" s="21"/>
+      <c r="FJ52" s="21"/>
+      <c r="FK52" s="21"/>
+      <c r="FL52" s="21"/>
+      <c r="FM52" s="21"/>
+      <c r="FN52" s="21"/>
+      <c r="FO52" s="21"/>
+      <c r="FP52" s="21"/>
+      <c r="FQ52" s="21"/>
+      <c r="FR52" s="21"/>
+      <c r="FS52" s="21"/>
+      <c r="FT52" s="21"/>
+      <c r="FU52" s="21"/>
+      <c r="FV52" s="21"/>
+      <c r="FW52" s="21"/>
+      <c r="FX52" s="21"/>
+      <c r="FY52" s="21"/>
+      <c r="FZ52" s="21"/>
+      <c r="GA52" s="21"/>
+      <c r="GB52" s="21"/>
+      <c r="GC52" s="21"/>
+      <c r="GD52" s="21"/>
+      <c r="GE52" s="21"/>
+      <c r="GF52" s="21"/>
+      <c r="GG52" s="21"/>
+      <c r="GH52" s="21"/>
+      <c r="GI52" s="21"/>
+      <c r="GJ52" s="21"/>
+      <c r="GK52" s="21"/>
+      <c r="GL52" s="21"/>
+      <c r="GM52" s="21"/>
+      <c r="GN52" s="21"/>
+      <c r="GO52" s="21"/>
+      <c r="GP52" s="21"/>
+      <c r="GQ52" s="21"/>
+      <c r="GR52" s="21"/>
+      <c r="GS52" s="21"/>
+      <c r="GT52" s="21"/>
+      <c r="GU52" s="21"/>
+      <c r="GV52" s="21"/>
+      <c r="GW52" s="21"/>
+      <c r="GX52" s="21"/>
+      <c r="GY52" s="21"/>
+      <c r="GZ52" s="21"/>
+      <c r="HA52" s="21"/>
+      <c r="HB52" s="21"/>
+      <c r="HC52" s="21"/>
+      <c r="HD52" s="21"/>
+      <c r="HE52" s="21"/>
+      <c r="HF52" s="21"/>
+      <c r="HG52" s="21"/>
+      <c r="HH52" s="21"/>
+      <c r="HI52" s="21"/>
+      <c r="HJ52" s="21"/>
+      <c r="HK52" s="21"/>
+      <c r="HL52" s="21"/>
+      <c r="HM52" s="21"/>
+      <c r="HN52" s="21"/>
+      <c r="HO52" s="21"/>
+      <c r="HP52" s="21"/>
+      <c r="HQ52" s="21"/>
+      <c r="HR52" s="21"/>
+      <c r="HS52" s="21"/>
+      <c r="HT52" s="21"/>
+      <c r="HU52" s="21"/>
+      <c r="HV52" s="21"/>
+      <c r="HW52" s="21"/>
+      <c r="HX52" s="21"/>
+      <c r="HY52" s="21"/>
+      <c r="HZ52" s="21"/>
+      <c r="IA52" s="21"/>
+      <c r="IB52" s="21"/>
+      <c r="IC52" s="21"/>
+      <c r="ID52" s="21"/>
+      <c r="IE52" s="21"/>
+      <c r="IF52" s="21"/>
+      <c r="IG52" s="21"/>
+      <c r="IH52" s="21"/>
+      <c r="II52" s="21"/>
+      <c r="IJ52" s="21"/>
+      <c r="IK52" s="21"/>
+      <c r="IL52" s="21"/>
+      <c r="IM52" s="21"/>
+      <c r="IN52" s="21"/>
+      <c r="IO52" s="21"/>
+      <c r="IP52" s="21"/>
+      <c r="IQ52" s="21"/>
+      <c r="IR52" s="21"/>
+      <c r="IS52" s="21"/>
+      <c r="IT52" s="21"/>
+      <c r="IU52" s="21"/>
+      <c r="IV52" s="21"/>
+      <c r="IW52" s="21"/>
+      <c r="IX52" s="21"/>
+      <c r="IY52" s="21"/>
+      <c r="IZ52" s="21"/>
+      <c r="JA52" s="21"/>
+      <c r="JB52" s="21"/>
+      <c r="JC52" s="21"/>
+      <c r="JD52" s="21"/>
+      <c r="JE52" s="21"/>
+      <c r="JF52" s="21"/>
+      <c r="JG52" s="21"/>
+      <c r="JH52" s="21"/>
+      <c r="JI52" s="21"/>
+      <c r="JJ52" s="21"/>
+      <c r="JK52" s="21"/>
+      <c r="JL52" s="21"/>
+      <c r="JM52" s="21"/>
+      <c r="JN52" s="21"/>
+      <c r="JO52" s="21"/>
+      <c r="JP52" s="21"/>
+      <c r="JQ52" s="21"/>
+      <c r="JR52" s="21"/>
+      <c r="JS52" s="21"/>
+      <c r="JT52" s="21"/>
+      <c r="JU52" s="21"/>
+      <c r="JV52" s="21"/>
+      <c r="JW52" s="21"/>
+      <c r="JX52" s="21"/>
+      <c r="JY52" s="21"/>
+      <c r="JZ52" s="21"/>
+      <c r="KA52" s="21"/>
+      <c r="KB52" s="21"/>
+      <c r="KC52" s="21"/>
+      <c r="KD52" s="21"/>
+      <c r="KE52" s="21"/>
+      <c r="KF52" s="21"/>
+      <c r="KG52" s="21"/>
+      <c r="KH52" s="21"/>
+      <c r="KI52" s="21"/>
+      <c r="KJ52" s="21"/>
+      <c r="KK52" s="21"/>
+      <c r="KL52" s="21"/>
+      <c r="KM52" s="21"/>
+      <c r="KN52" s="21"/>
+      <c r="KO52" s="21"/>
+      <c r="KP52" s="21"/>
+      <c r="KQ52" s="21"/>
+      <c r="KR52" s="21"/>
+      <c r="KS52" s="21"/>
+      <c r="KT52" s="21"/>
+      <c r="KU52" s="21"/>
+      <c r="KV52" s="21"/>
+      <c r="KW52" s="21"/>
+      <c r="KX52" s="21"/>
+      <c r="KY52" s="21"/>
+      <c r="KZ52" s="21"/>
+      <c r="LA52" s="21"/>
+      <c r="LB52" s="21"/>
+      <c r="LC52" s="21"/>
+      <c r="LD52" s="21"/>
+      <c r="LE52" s="21"/>
+      <c r="LF52" s="21"/>
+      <c r="LG52" s="21"/>
+      <c r="LH52" s="21"/>
+      <c r="LI52" s="21"/>
+      <c r="LJ52" s="21"/>
+      <c r="LK52" s="21"/>
+      <c r="LL52" s="21"/>
+      <c r="LM52" s="21"/>
+      <c r="LN52" s="21"/>
+      <c r="LO52" s="21"/>
+      <c r="LP52" s="21"/>
+      <c r="LQ52" s="21"/>
+      <c r="LR52" s="21"/>
+      <c r="LS52" s="21"/>
+      <c r="LT52" s="21"/>
+      <c r="LU52" s="21"/>
+      <c r="LV52" s="21"/>
+      <c r="LW52" s="21"/>
+      <c r="LX52" s="21"/>
+      <c r="LY52" s="21"/>
+      <c r="LZ52" s="21"/>
+      <c r="MA52" s="21"/>
+      <c r="MB52" s="21"/>
+      <c r="MC52" s="21"/>
+      <c r="MD52" s="21"/>
+      <c r="ME52" s="21"/>
+      <c r="MF52" s="21"/>
+      <c r="MG52" s="21"/>
+      <c r="MH52" s="21"/>
+      <c r="MI52" s="21"/>
+      <c r="MJ52" s="21"/>
+      <c r="MK52" s="21"/>
+      <c r="ML52" s="21"/>
+      <c r="MM52" s="21"/>
+      <c r="MN52" s="21"/>
+      <c r="MO52" s="21"/>
+      <c r="MP52" s="21"/>
+      <c r="MQ52" s="21"/>
+      <c r="MR52" s="21"/>
+      <c r="MS52" s="21"/>
+      <c r="MT52" s="21"/>
+      <c r="MU52" s="21"/>
+      <c r="MV52" s="21"/>
+      <c r="MW52" s="21"/>
+      <c r="MX52" s="21"/>
+      <c r="MY52" s="21"/>
+      <c r="MZ52" s="21"/>
+      <c r="NA52" s="21"/>
+      <c r="NB52" s="21"/>
+      <c r="NC52" s="21"/>
+      <c r="ND52" s="21"/>
+      <c r="NE52" s="21"/>
+      <c r="NF52" s="21"/>
+      <c r="NG52" s="21"/>
+      <c r="NH52" s="21"/>
+      <c r="NI52" s="21"/>
+      <c r="NJ52" s="21"/>
+      <c r="NK52" s="21"/>
+      <c r="NL52" s="21"/>
+      <c r="NM52" s="21"/>
+      <c r="NN52" s="21"/>
+      <c r="NO52" s="21"/>
+      <c r="NP52" s="21"/>
+      <c r="NQ52" s="21"/>
+      <c r="NR52" s="21"/>
+      <c r="NS52" s="21"/>
+      <c r="NT52" s="21"/>
+      <c r="NU52" s="21"/>
+      <c r="NV52" s="21"/>
+      <c r="NW52" s="21"/>
+      <c r="NX52" s="21"/>
+      <c r="NY52" s="21"/>
+      <c r="NZ52" s="21"/>
+      <c r="OA52" s="21"/>
+      <c r="OB52" s="21"/>
+      <c r="OC52" s="21"/>
+      <c r="OD52" s="21"/>
+      <c r="OE52" s="21"/>
+      <c r="OF52" s="21"/>
+      <c r="OG52" s="21"/>
+      <c r="OH52" s="21"/>
+      <c r="OI52" s="21"/>
+      <c r="OJ52" s="21"/>
+      <c r="OK52" s="21"/>
+      <c r="OL52" s="21"/>
+      <c r="OM52" s="21"/>
+      <c r="ON52" s="21"/>
+      <c r="OO52" s="21"/>
+      <c r="OP52" s="21"/>
+      <c r="OQ52" s="21"/>
+      <c r="OR52" s="21"/>
+      <c r="OS52" s="21"/>
+      <c r="OT52" s="21"/>
+      <c r="OU52" s="21"/>
+      <c r="OV52" s="21"/>
+      <c r="OW52" s="21"/>
+      <c r="OX52" s="21"/>
+      <c r="OY52" s="21"/>
+      <c r="OZ52" s="21"/>
+      <c r="PA52" s="21"/>
+      <c r="PB52" s="21"/>
+      <c r="PC52" s="21"/>
+      <c r="PD52" s="21"/>
+      <c r="PE52" s="21"/>
+      <c r="PF52" s="21"/>
+      <c r="PG52" s="21"/>
+      <c r="PH52" s="21"/>
+      <c r="PI52" s="21"/>
+      <c r="PJ52" s="21"/>
+      <c r="PK52" s="21"/>
+      <c r="PL52" s="21"/>
+      <c r="PM52" s="21"/>
+      <c r="PN52" s="21"/>
+      <c r="PO52" s="21"/>
+      <c r="PP52" s="21"/>
+      <c r="PQ52" s="21"/>
+      <c r="PR52" s="21"/>
+      <c r="PS52" s="21"/>
+      <c r="PT52" s="21"/>
+      <c r="PU52" s="21"/>
+      <c r="PV52" s="21"/>
+      <c r="PW52" s="21"/>
+      <c r="PX52" s="21"/>
+      <c r="PY52" s="21"/>
+      <c r="PZ52" s="21"/>
+      <c r="QA52" s="21"/>
+      <c r="QB52" s="21"/>
+      <c r="QC52" s="21"/>
+      <c r="QD52" s="21"/>
+      <c r="QE52" s="21"/>
+      <c r="QF52" s="21"/>
+      <c r="QG52" s="21"/>
+      <c r="QH52" s="21"/>
+      <c r="QI52" s="21"/>
+      <c r="QJ52" s="21"/>
+      <c r="QK52" s="21"/>
+      <c r="QL52" s="21"/>
+      <c r="QM52" s="21"/>
+      <c r="QN52" s="21"/>
+      <c r="QO52" s="21"/>
+      <c r="QP52" s="21"/>
+      <c r="QQ52" s="21"/>
+      <c r="QR52" s="21"/>
+      <c r="QS52" s="21"/>
+      <c r="QT52" s="21"/>
+      <c r="QU52" s="21"/>
+      <c r="QV52" s="21"/>
+      <c r="QW52" s="21"/>
+      <c r="QX52" s="21"/>
+      <c r="QY52" s="21"/>
+      <c r="QZ52" s="21"/>
+      <c r="RA52" s="21"/>
+      <c r="RB52" s="21"/>
+      <c r="RC52" s="21"/>
+      <c r="RD52" s="21"/>
+      <c r="RE52" s="21"/>
+      <c r="RF52" s="21"/>
+      <c r="RG52" s="21"/>
+      <c r="RH52" s="21"/>
+      <c r="RI52" s="21"/>
+      <c r="RJ52" s="21"/>
+      <c r="RK52" s="21"/>
+      <c r="RL52" s="21"/>
+      <c r="RM52" s="21"/>
+      <c r="RN52" s="21"/>
+      <c r="RO52" s="21"/>
+      <c r="RP52" s="21"/>
+      <c r="RQ52" s="21"/>
+      <c r="RR52" s="21"/>
+      <c r="RS52" s="21"/>
+      <c r="RT52" s="21"/>
+      <c r="RU52" s="21"/>
+      <c r="RV52" s="21"/>
+      <c r="RW52" s="21"/>
+      <c r="RX52" s="21"/>
+      <c r="RY52" s="21"/>
+      <c r="RZ52" s="21"/>
+      <c r="SA52" s="21"/>
+      <c r="SB52" s="21"/>
+      <c r="SC52" s="21"/>
+      <c r="SD52" s="21"/>
+      <c r="SE52" s="21"/>
+      <c r="SF52" s="21"/>
+      <c r="SG52" s="21"/>
+      <c r="SH52" s="21"/>
+      <c r="SI52" s="21"/>
+      <c r="SJ52" s="21"/>
+      <c r="SK52" s="21"/>
+      <c r="SL52" s="21"/>
+      <c r="SM52" s="21"/>
+      <c r="SN52" s="21"/>
+      <c r="SO52" s="21"/>
+      <c r="SP52" s="21"/>
+      <c r="SQ52" s="21"/>
+      <c r="SR52" s="21"/>
+      <c r="SS52" s="21"/>
+      <c r="ST52" s="21"/>
+      <c r="SU52" s="21"/>
+      <c r="SV52" s="21"/>
+      <c r="SW52" s="21"/>
+      <c r="SX52" s="21"/>
+      <c r="SY52" s="21"/>
+      <c r="SZ52" s="21"/>
+      <c r="TA52" s="21"/>
+      <c r="TB52" s="21"/>
+      <c r="TC52" s="21"/>
+      <c r="TD52" s="21"/>
+      <c r="TE52" s="21"/>
+      <c r="TF52" s="21"/>
+      <c r="TG52" s="21"/>
+      <c r="TH52" s="21"/>
+      <c r="TI52" s="21"/>
+      <c r="TJ52" s="21"/>
+      <c r="TK52" s="21"/>
+      <c r="TL52" s="21"/>
+      <c r="TM52" s="21"/>
+      <c r="TN52" s="21"/>
+      <c r="TO52" s="21"/>
+      <c r="TP52" s="21"/>
+      <c r="TQ52" s="21"/>
+      <c r="TR52" s="21"/>
+      <c r="TS52" s="21"/>
+      <c r="TT52" s="21"/>
+      <c r="TU52" s="21"/>
+      <c r="TV52" s="21"/>
+      <c r="TW52" s="21"/>
+      <c r="TX52" s="21"/>
+      <c r="TY52" s="21"/>
+      <c r="TZ52" s="21"/>
+      <c r="UA52" s="21"/>
+      <c r="UB52" s="21"/>
+      <c r="UC52" s="21"/>
+      <c r="UD52" s="21"/>
+      <c r="UE52" s="21"/>
+      <c r="UF52" s="21"/>
+      <c r="UG52" s="21"/>
+      <c r="UH52" s="21"/>
+      <c r="UI52" s="21"/>
+      <c r="UJ52" s="21"/>
+      <c r="UK52" s="21"/>
+      <c r="UL52" s="21"/>
+      <c r="UM52" s="21"/>
+      <c r="UN52" s="21"/>
+      <c r="UO52" s="21"/>
+      <c r="UP52" s="21"/>
+      <c r="UQ52" s="21"/>
+      <c r="UR52" s="21"/>
+      <c r="US52" s="21"/>
+      <c r="UT52" s="21"/>
+      <c r="UU52" s="21"/>
+      <c r="UV52" s="21"/>
+      <c r="UW52" s="21"/>
+      <c r="UX52" s="21"/>
+      <c r="UY52" s="21"/>
+      <c r="UZ52" s="21"/>
+      <c r="VA52" s="21"/>
+      <c r="VB52" s="21"/>
+      <c r="VC52" s="21"/>
+      <c r="VD52" s="21"/>
+      <c r="VE52" s="21"/>
+      <c r="VF52" s="21"/>
+      <c r="VG52" s="21"/>
+      <c r="VH52" s="21"/>
+      <c r="VI52" s="21"/>
+      <c r="VJ52" s="21"/>
+      <c r="VK52" s="21"/>
+      <c r="VL52" s="21"/>
+      <c r="VM52" s="21"/>
+      <c r="VN52" s="21"/>
+      <c r="VO52" s="21"/>
+      <c r="VP52" s="21"/>
+      <c r="VQ52" s="21"/>
+      <c r="VR52" s="21"/>
+      <c r="VS52" s="21"/>
+      <c r="VT52" s="21"/>
+      <c r="VU52" s="21"/>
+      <c r="VV52" s="21"/>
+      <c r="VW52" s="21"/>
+      <c r="VX52" s="21"/>
+      <c r="VY52" s="21"/>
+      <c r="VZ52" s="21"/>
+      <c r="WA52" s="21"/>
+      <c r="WB52" s="21"/>
+      <c r="WC52" s="21"/>
+      <c r="WD52" s="21"/>
+      <c r="WE52" s="21"/>
+      <c r="WF52" s="21"/>
+      <c r="WG52" s="21"/>
+      <c r="WH52" s="21"/>
+      <c r="WI52" s="21"/>
+      <c r="WJ52" s="21"/>
+      <c r="WK52" s="21"/>
+      <c r="WL52" s="21"/>
+      <c r="WM52" s="21"/>
+      <c r="WN52" s="21"/>
+      <c r="WO52" s="21"/>
+      <c r="WP52" s="21"/>
+      <c r="WQ52" s="21"/>
+      <c r="WR52" s="21"/>
+      <c r="WS52" s="21"/>
+      <c r="WT52" s="21"/>
+      <c r="WU52" s="21"/>
+      <c r="WV52" s="21"/>
+      <c r="WW52" s="21"/>
+      <c r="WX52" s="21"/>
+      <c r="WY52" s="21"/>
+      <c r="WZ52" s="21"/>
+      <c r="XA52" s="21"/>
+      <c r="XB52" s="21"/>
+      <c r="XC52" s="21"/>
+      <c r="XD52" s="21"/>
+      <c r="XE52" s="21"/>
+      <c r="XF52" s="21"/>
+      <c r="XG52" s="21"/>
+      <c r="XH52" s="21"/>
+      <c r="XI52" s="21"/>
+      <c r="XJ52" s="21"/>
+      <c r="XK52" s="21"/>
+      <c r="XL52" s="21"/>
+      <c r="XM52" s="21"/>
+      <c r="XN52" s="21"/>
+      <c r="XO52" s="21"/>
+      <c r="XP52" s="21"/>
+      <c r="XQ52" s="21"/>
+      <c r="XR52" s="21"/>
+      <c r="XS52" s="21"/>
+      <c r="XT52" s="21"/>
+      <c r="XU52" s="21"/>
+      <c r="XV52" s="21"/>
+      <c r="XW52" s="21"/>
+      <c r="XX52" s="21"/>
+      <c r="XY52" s="21"/>
+      <c r="XZ52" s="21"/>
+      <c r="YA52" s="21"/>
+      <c r="YB52" s="21"/>
+      <c r="YC52" s="21"/>
+      <c r="YD52" s="21"/>
+      <c r="YE52" s="21"/>
+      <c r="YF52" s="21"/>
+      <c r="YG52" s="21"/>
+      <c r="YH52" s="21"/>
+      <c r="YI52" s="21"/>
+      <c r="YJ52" s="21"/>
+      <c r="YK52" s="21"/>
+      <c r="YL52" s="21"/>
+      <c r="YM52" s="21"/>
+      <c r="YN52" s="21"/>
+      <c r="YO52" s="21"/>
+      <c r="YP52" s="21"/>
+      <c r="YQ52" s="21"/>
+      <c r="YR52" s="21"/>
+      <c r="YS52" s="21"/>
+      <c r="YT52" s="21"/>
+      <c r="YU52" s="21"/>
+      <c r="YV52" s="21"/>
+      <c r="YW52" s="21"/>
+      <c r="YX52" s="21"/>
+      <c r="YY52" s="21"/>
+      <c r="YZ52" s="21"/>
+      <c r="ZA52" s="21"/>
+      <c r="ZB52" s="21"/>
+      <c r="ZC52" s="21"/>
+      <c r="ZD52" s="21"/>
+      <c r="ZE52" s="21"/>
+      <c r="ZF52" s="21"/>
+      <c r="ZG52" s="21"/>
+      <c r="ZH52" s="21"/>
+      <c r="ZI52" s="21"/>
+      <c r="ZJ52" s="21"/>
+      <c r="ZK52" s="21"/>
+      <c r="ZL52" s="21"/>
+      <c r="ZM52" s="21"/>
+      <c r="ZN52" s="21"/>
+      <c r="ZO52" s="21"/>
+      <c r="ZP52" s="21"/>
+      <c r="ZQ52" s="21"/>
+      <c r="ZR52" s="21"/>
+      <c r="ZS52" s="21"/>
+      <c r="ZT52" s="21"/>
+      <c r="ZU52" s="21"/>
+      <c r="ZV52" s="21"/>
+      <c r="ZW52" s="21"/>
+      <c r="ZX52" s="21"/>
+      <c r="ZY52" s="21"/>
+      <c r="ZZ52" s="21"/>
+      <c r="AAA52" s="21"/>
+      <c r="AAB52" s="21"/>
+      <c r="AAC52" s="21"/>
+      <c r="AAD52" s="21"/>
+      <c r="AAE52" s="21"/>
+      <c r="AAF52" s="21"/>
+      <c r="AAG52" s="21"/>
+      <c r="AAH52" s="21"/>
+      <c r="AAI52" s="21"/>
+      <c r="AAJ52" s="21"/>
+      <c r="AAK52" s="21"/>
+      <c r="AAL52" s="21"/>
+      <c r="AAM52" s="21"/>
+      <c r="AAN52" s="21"/>
+      <c r="AAO52" s="21"/>
+      <c r="AAP52" s="21"/>
+      <c r="AAQ52" s="21"/>
+      <c r="AAR52" s="21"/>
+      <c r="AAS52" s="21"/>
+      <c r="AAT52" s="21"/>
+      <c r="AAU52" s="21"/>
+      <c r="AAV52" s="21"/>
+      <c r="AAW52" s="21"/>
+      <c r="AAX52" s="21"/>
+      <c r="AAY52" s="21"/>
+      <c r="AAZ52" s="21"/>
+      <c r="ABA52" s="21"/>
+      <c r="ABB52" s="21"/>
+      <c r="ABC52" s="21"/>
+      <c r="ABD52" s="21"/>
+      <c r="ABE52" s="21"/>
+      <c r="ABF52" s="21"/>
+      <c r="ABG52" s="21"/>
+      <c r="ABH52" s="21"/>
+      <c r="ABI52" s="21"/>
+      <c r="ABJ52" s="21"/>
+      <c r="ABK52" s="21"/>
+      <c r="ABL52" s="21"/>
+      <c r="ABM52" s="21"/>
+      <c r="ABN52" s="21"/>
+      <c r="ABO52" s="21"/>
+      <c r="ABP52" s="21"/>
+      <c r="ABQ52" s="21"/>
+      <c r="ABR52" s="21"/>
+      <c r="ABS52" s="21"/>
+      <c r="ABT52" s="21"/>
+      <c r="ABU52" s="21"/>
+      <c r="ABV52" s="21"/>
+      <c r="ABW52" s="21"/>
+      <c r="ABX52" s="21"/>
+      <c r="ABY52" s="21"/>
+      <c r="ABZ52" s="21"/>
+      <c r="ACA52" s="21"/>
+      <c r="ACB52" s="21"/>
+      <c r="ACC52" s="21"/>
+      <c r="ACD52" s="21"/>
+      <c r="ACE52" s="21"/>
+      <c r="ACF52" s="21"/>
+      <c r="ACG52" s="21"/>
+      <c r="ACH52" s="21"/>
+      <c r="ACI52" s="21"/>
+      <c r="ACJ52" s="21"/>
+      <c r="ACK52" s="21"/>
+      <c r="ACL52" s="21"/>
+      <c r="ACM52" s="21"/>
+      <c r="ACN52" s="21"/>
+      <c r="ACO52" s="21"/>
+      <c r="ACP52" s="21"/>
+      <c r="ACQ52" s="21"/>
+      <c r="ACR52" s="21"/>
+      <c r="ACS52" s="21"/>
+      <c r="ACT52" s="21"/>
+      <c r="ACU52" s="21"/>
+      <c r="ACV52" s="21"/>
+      <c r="ACW52" s="21"/>
+      <c r="ACX52" s="21"/>
+      <c r="ACY52" s="21"/>
+      <c r="ACZ52" s="21"/>
+      <c r="ADA52" s="21"/>
+      <c r="ADB52" s="21"/>
+      <c r="ADC52" s="21"/>
+      <c r="ADD52" s="21"/>
+      <c r="ADE52" s="21"/>
+      <c r="ADF52" s="21"/>
+      <c r="ADG52" s="21"/>
+      <c r="ADH52" s="21"/>
+      <c r="ADI52" s="21"/>
+      <c r="ADJ52" s="21"/>
+      <c r="ADK52" s="21"/>
+      <c r="ADL52" s="21"/>
+      <c r="ADM52" s="21"/>
+      <c r="ADN52" s="21"/>
+      <c r="ADO52" s="21"/>
+      <c r="ADP52" s="21"/>
+      <c r="ADQ52" s="21"/>
+      <c r="ADR52" s="21"/>
+      <c r="ADS52" s="21"/>
+      <c r="ADT52" s="21"/>
+      <c r="ADU52" s="21"/>
+      <c r="ADV52" s="21"/>
+      <c r="ADW52" s="21"/>
+      <c r="ADX52" s="21"/>
+      <c r="ADY52" s="21"/>
+      <c r="ADZ52" s="21"/>
+      <c r="AEA52" s="21"/>
+      <c r="AEB52" s="21"/>
+      <c r="AEC52" s="21"/>
+      <c r="AED52" s="21"/>
+      <c r="AEE52" s="21"/>
+      <c r="AEF52" s="21"/>
+      <c r="AEG52" s="21"/>
+      <c r="AEH52" s="21"/>
+      <c r="AEI52" s="21"/>
+      <c r="AEJ52" s="21"/>
+      <c r="AEK52" s="21"/>
+      <c r="AEL52" s="21"/>
+      <c r="AEM52" s="21"/>
+      <c r="AEN52" s="21"/>
+      <c r="AEO52" s="21"/>
+      <c r="AEP52" s="21"/>
+      <c r="AEQ52" s="21"/>
+      <c r="AER52" s="21"/>
+      <c r="AES52" s="21"/>
+      <c r="AET52" s="21"/>
+      <c r="AEU52" s="21"/>
+      <c r="AEV52" s="21"/>
+      <c r="AEW52" s="21"/>
+      <c r="AEX52" s="21"/>
+      <c r="AEY52" s="21"/>
+      <c r="AEZ52" s="21"/>
+      <c r="AFA52" s="21"/>
+      <c r="AFB52" s="21"/>
+      <c r="AFC52" s="21"/>
+      <c r="AFD52" s="21"/>
+      <c r="AFE52" s="21"/>
+      <c r="AFF52" s="21"/>
+      <c r="AFG52" s="21"/>
+      <c r="AFH52" s="21"/>
+      <c r="AFI52" s="21"/>
+      <c r="AFJ52" s="21"/>
+      <c r="AFK52" s="21"/>
+      <c r="AFL52" s="21"/>
+      <c r="AFM52" s="21"/>
+      <c r="AFN52" s="21"/>
+      <c r="AFO52" s="21"/>
+      <c r="AFP52" s="21"/>
+      <c r="AFQ52" s="21"/>
+      <c r="AFR52" s="21"/>
+      <c r="AFS52" s="21"/>
+      <c r="AFT52" s="21"/>
+      <c r="AFU52" s="21"/>
+      <c r="AFV52" s="21"/>
+      <c r="AFW52" s="21"/>
+      <c r="AFX52" s="21"/>
+      <c r="AFY52" s="21"/>
+      <c r="AFZ52" s="21"/>
+      <c r="AGA52" s="21"/>
+      <c r="AGB52" s="21"/>
+      <c r="AGC52" s="21"/>
+      <c r="AGD52" s="21"/>
+      <c r="AGE52" s="21"/>
+      <c r="AGF52" s="21"/>
+      <c r="AGG52" s="21"/>
+      <c r="AGH52" s="21"/>
+      <c r="AGI52" s="21"/>
+      <c r="AGJ52" s="21"/>
+      <c r="AGK52" s="21"/>
+      <c r="AGL52" s="21"/>
+      <c r="AGM52" s="21"/>
+      <c r="AGN52" s="21"/>
+      <c r="AGO52" s="21"/>
+      <c r="AGP52" s="21"/>
+      <c r="AGQ52" s="21"/>
+      <c r="AGR52" s="21"/>
+      <c r="AGS52" s="21"/>
+      <c r="AGT52" s="21"/>
+      <c r="AGU52" s="21"/>
+      <c r="AGV52" s="21"/>
+      <c r="AGW52" s="21"/>
+      <c r="AGX52" s="21"/>
+      <c r="AGY52" s="21"/>
+      <c r="AGZ52" s="21"/>
+      <c r="AHA52" s="21"/>
+      <c r="AHB52" s="21"/>
+      <c r="AHC52" s="21"/>
+      <c r="AHD52" s="21"/>
+      <c r="AHE52" s="21"/>
+      <c r="AHF52" s="21"/>
+      <c r="AHG52" s="21"/>
+      <c r="AHH52" s="21"/>
+      <c r="AHI52" s="21"/>
+      <c r="AHJ52" s="21"/>
+      <c r="AHK52" s="21"/>
+      <c r="AHL52" s="21"/>
+      <c r="AHM52" s="21"/>
+      <c r="AHN52" s="21"/>
+      <c r="AHO52" s="21"/>
+      <c r="AHP52" s="21"/>
+      <c r="AHQ52" s="21"/>
+      <c r="AHR52" s="21"/>
+      <c r="AHS52" s="21"/>
+      <c r="AHT52" s="21"/>
+      <c r="AHU52" s="21"/>
+      <c r="AHV52" s="21"/>
+      <c r="AHW52" s="21"/>
+      <c r="AHX52" s="21"/>
+      <c r="AHY52" s="21"/>
+      <c r="AHZ52" s="21"/>
+      <c r="AIA52" s="21"/>
+      <c r="AIB52" s="21"/>
+      <c r="AIC52" s="21"/>
+      <c r="AID52" s="21"/>
+      <c r="AIE52" s="21"/>
+      <c r="AIF52" s="21"/>
+      <c r="AIG52" s="21"/>
+      <c r="AIH52" s="21"/>
+      <c r="AII52" s="21"/>
+      <c r="AIJ52" s="21"/>
+      <c r="AIK52" s="21"/>
+      <c r="AIL52" s="21"/>
+      <c r="AIM52" s="21"/>
+      <c r="AIN52" s="21"/>
+      <c r="AIO52" s="21"/>
+      <c r="AIP52" s="21"/>
+      <c r="AIQ52" s="21"/>
+      <c r="AIR52" s="21"/>
+      <c r="AIS52" s="21"/>
+      <c r="AIT52" s="21"/>
+      <c r="AIU52" s="21"/>
+      <c r="AIV52" s="21"/>
+      <c r="AIW52" s="21"/>
+      <c r="AIX52" s="21"/>
+      <c r="AIY52" s="21"/>
+      <c r="AIZ52" s="21"/>
+      <c r="AJA52" s="21"/>
+      <c r="AJB52" s="21"/>
+      <c r="AJC52" s="21"/>
+      <c r="AJD52" s="21"/>
+      <c r="AJE52" s="21"/>
+      <c r="AJF52" s="21"/>
+      <c r="AJG52" s="21"/>
+      <c r="AJH52" s="21"/>
+      <c r="AJI52" s="21"/>
+      <c r="AJJ52" s="21"/>
+      <c r="AJK52" s="21"/>
+      <c r="AJL52" s="21"/>
+      <c r="AJM52" s="21"/>
+      <c r="AJN52" s="21"/>
+      <c r="AJO52" s="21"/>
+      <c r="AJP52" s="21"/>
+      <c r="AJQ52" s="21"/>
+      <c r="AJR52" s="21"/>
+      <c r="AJS52" s="21"/>
+      <c r="AJT52" s="21"/>
+      <c r="AJU52" s="21"/>
+      <c r="AJV52" s="21"/>
+      <c r="AJW52" s="21"/>
+      <c r="AJX52" s="21"/>
+      <c r="AJY52" s="21"/>
+      <c r="AJZ52" s="21"/>
+      <c r="AKA52" s="21"/>
+      <c r="AKB52" s="21"/>
+      <c r="AKC52" s="21"/>
+      <c r="AKD52" s="21"/>
+      <c r="AKE52" s="21"/>
+      <c r="AKF52" s="21"/>
+      <c r="AKG52" s="21"/>
+      <c r="AKH52" s="21"/>
+      <c r="AKI52" s="21"/>
+      <c r="AKJ52" s="21"/>
+      <c r="AKK52" s="21"/>
+      <c r="AKL52" s="21"/>
+      <c r="AKM52" s="21"/>
+      <c r="AKN52" s="21"/>
+      <c r="AKO52" s="21"/>
+      <c r="AKP52" s="21"/>
+      <c r="AKQ52" s="21"/>
+      <c r="AKR52" s="21"/>
+      <c r="AKS52" s="21"/>
+      <c r="AKT52" s="21"/>
+      <c r="AKU52" s="21"/>
+      <c r="AKV52" s="21"/>
+      <c r="AKW52" s="21"/>
+      <c r="AKX52" s="21"/>
+      <c r="AKY52" s="21"/>
+      <c r="AKZ52" s="21"/>
+      <c r="ALA52" s="21"/>
+      <c r="ALB52" s="21"/>
+      <c r="ALC52" s="21"/>
+      <c r="ALD52" s="21"/>
+      <c r="ALE52" s="21"/>
+      <c r="ALF52" s="21"/>
+      <c r="ALG52" s="21"/>
+      <c r="ALH52" s="21"/>
+      <c r="ALI52" s="21"/>
+      <c r="ALJ52" s="21"/>
+      <c r="ALK52" s="21"/>
+      <c r="ALL52" s="21"/>
+      <c r="ALM52" s="21"/>
+      <c r="ALN52" s="21"/>
+      <c r="ALO52" s="21"/>
+      <c r="ALP52" s="21"/>
+      <c r="ALQ52" s="21"/>
+      <c r="ALR52" s="21"/>
+      <c r="ALS52" s="21"/>
+      <c r="ALT52" s="21"/>
+      <c r="ALU52" s="21"/>
+      <c r="ALV52" s="21"/>
+      <c r="ALW52" s="21"/>
+      <c r="ALX52" s="21"/>
+      <c r="ALY52" s="21"/>
+      <c r="ALZ52" s="21"/>
+      <c r="AMA52" s="21"/>
+      <c r="AMB52" s="21"/>
+      <c r="AMC52" s="21"/>
+      <c r="AMD52" s="21"/>
+      <c r="AME52" s="21"/>
+      <c r="AMF52" s="21"/>
+      <c r="AMG52" s="21"/>
+      <c r="AMH52" s="21"/>
+      <c r="AMI52" s="21"/>
+      <c r="AMJ52" s="21"/>
+    </row>
+    <row r="53" spans="1:1024" x14ac:dyDescent="0.25">
+      <c r="A53" s="38" t="s">
         <v>71</v>
-      </c>
-      <c r="B52" s="69" t="s">
-        <v>2847</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="39" t="s">
-        <v>72</v>
       </c>
       <c r="B53" s="69" t="s">
         <v>2847</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="38" t="s">
+    <row r="54" spans="1:1024" x14ac:dyDescent="0.25">
+      <c r="A54" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="B54" s="69" t="s">
+        <v>2847</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1024" x14ac:dyDescent="0.25">
+      <c r="A55" s="38" t="s">
         <v>69</v>
-      </c>
-      <c r="B54" s="69" t="s">
-        <v>2842</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="39" t="s">
-        <v>70</v>
       </c>
       <c r="B55" s="69" t="s">
         <v>2842</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="38" t="s">
+    <row r="56" spans="1:1024" x14ac:dyDescent="0.25">
+      <c r="A56" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="B56" s="69" t="s">
+        <v>2842</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1024" x14ac:dyDescent="0.25">
+      <c r="A57" s="38" t="s">
         <v>81</v>
-      </c>
-      <c r="B56" s="69" t="s">
-        <v>2847</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="44" t="s">
-        <v>82</v>
       </c>
       <c r="B57" s="69" t="s">
         <v>2847</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="38" t="s">
-        <v>73</v>
+    <row r="58" spans="1:1024" x14ac:dyDescent="0.25">
+      <c r="A58" s="44" t="s">
+        <v>82</v>
       </c>
       <c r="B58" s="69" t="s">
         <v>2847</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A59" s="38" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B59" s="69" t="s">
         <v>2847</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="44" t="s">
-        <v>78</v>
+    <row r="60" spans="1:1024" x14ac:dyDescent="0.25">
+      <c r="A60" s="38" t="s">
+        <v>77</v>
       </c>
       <c r="B60" s="69" t="s">
         <v>2847</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="40" t="s">
-        <v>75</v>
+    <row r="61" spans="1:1024" x14ac:dyDescent="0.25">
+      <c r="A61" s="44" t="s">
+        <v>78</v>
       </c>
       <c r="B61" s="69" t="s">
         <v>2847</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="44" t="s">
-        <v>76</v>
+    <row r="62" spans="1:1024" x14ac:dyDescent="0.25">
+      <c r="A62" s="40" t="s">
+        <v>75</v>
       </c>
       <c r="B62" s="69" t="s">
         <v>2847</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="42" t="s">
-        <v>74</v>
+    <row r="63" spans="1:1024" x14ac:dyDescent="0.25">
+      <c r="A63" s="44" t="s">
+        <v>76</v>
       </c>
       <c r="B63" s="69" t="s">
         <v>2847</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="38" t="s">
+    <row r="64" spans="1:1024" x14ac:dyDescent="0.25">
+      <c r="A64" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="B64" s="69" t="s">
+        <v>2847</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="38" t="s">
         <v>106</v>
-      </c>
-      <c r="B64" s="68" t="s">
-        <v>2844</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="39" t="s">
-        <v>2888</v>
       </c>
       <c r="B65" s="68" t="s">
         <v>2844</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="38" t="s">
-        <v>104</v>
+      <c r="A66" s="39" t="s">
+        <v>2888</v>
       </c>
       <c r="B66" s="68" t="s">
         <v>2844</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="39" t="s">
-        <v>105</v>
+      <c r="A67" s="38" t="s">
+        <v>104</v>
       </c>
       <c r="B67" s="68" t="s">
         <v>2844</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="38" t="s">
-        <v>102</v>
+      <c r="A68" s="39" t="s">
+        <v>105</v>
       </c>
       <c r="B68" s="68" t="s">
         <v>2844</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="39" t="s">
-        <v>103</v>
+      <c r="A69" s="38" t="s">
+        <v>102</v>
       </c>
       <c r="B69" s="68" t="s">
         <v>2844</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="38" t="s">
-        <v>115</v>
+      <c r="A70" s="39" t="s">
+        <v>103</v>
       </c>
       <c r="B70" s="68" t="s">
-        <v>2845</v>
+        <v>2844</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="38" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B71" s="68" t="s">
         <v>2845</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="39" t="s">
-        <v>122</v>
+      <c r="A72" s="38" t="s">
+        <v>120</v>
       </c>
       <c r="B72" s="68" t="s">
         <v>2845</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="38" t="s">
-        <v>113</v>
+      <c r="A73" s="39" t="s">
+        <v>122</v>
       </c>
       <c r="B73" s="68" t="s">
         <v>2845</v>
@@ -23293,55 +24315,55 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="38" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B74" s="68" t="s">
         <v>2845</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="39" t="s">
-        <v>112</v>
+      <c r="A75" s="38" t="s">
+        <v>110</v>
       </c>
       <c r="B75" s="68" t="s">
         <v>2845</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="38" t="s">
-        <v>117</v>
+      <c r="A76" s="39" t="s">
+        <v>112</v>
       </c>
       <c r="B76" s="68" t="s">
         <v>2845</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="39" t="s">
-        <v>119</v>
+      <c r="A77" s="38" t="s">
+        <v>117</v>
       </c>
       <c r="B77" s="68" t="s">
         <v>2845</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="38" t="s">
+      <c r="A78" s="39" t="s">
+        <v>119</v>
+      </c>
+      <c r="B78" s="68" t="s">
+        <v>2845</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="38" t="s">
         <v>90</v>
-      </c>
-      <c r="B78" s="69" t="s">
-        <v>2847</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="44" t="s">
-        <v>91</v>
       </c>
       <c r="B79" s="69" t="s">
         <v>2847</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="38" t="s">
-        <v>88</v>
+      <c r="A80" s="44" t="s">
+        <v>91</v>
       </c>
       <c r="B80" s="69" t="s">
         <v>2847</v>
@@ -23349,7 +24371,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="38" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B81" s="69" t="s">
         <v>2847</v>
@@ -23357,23 +24379,23 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="B82" s="69" t="s">
+        <v>2847</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="38" t="s">
         <v>107</v>
-      </c>
-      <c r="B82" s="69" t="s">
-        <v>2843</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="39" t="s">
-        <v>108</v>
       </c>
       <c r="B83" s="69" t="s">
         <v>2843</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="38" t="s">
-        <v>109</v>
+      <c r="A84" s="39" t="s">
+        <v>108</v>
       </c>
       <c r="B84" s="69" t="s">
         <v>2843</v>
@@ -23381,168 +24403,176 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="38" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="B85" s="69" t="s">
         <v>2843</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="42" t="s">
-        <v>93</v>
+      <c r="A86" s="38" t="s">
+        <v>92</v>
       </c>
       <c r="B86" s="69" t="s">
         <v>2843</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="38" t="s">
-        <v>12</v>
+      <c r="A87" s="42" t="s">
+        <v>93</v>
       </c>
       <c r="B87" s="69" t="s">
         <v>2843</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="40" t="s">
-        <v>16</v>
+      <c r="A88" s="38" t="s">
+        <v>12</v>
       </c>
       <c r="B88" s="69" t="s">
         <v>2843</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="41" t="s">
-        <v>18</v>
+      <c r="A89" s="40" t="s">
+        <v>16</v>
       </c>
       <c r="B89" s="69" t="s">
         <v>2843</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="39" t="s">
-        <v>14</v>
+      <c r="A90" s="41" t="s">
+        <v>18</v>
       </c>
       <c r="B90" s="69" t="s">
         <v>2843</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="38" t="s">
-        <v>39</v>
+      <c r="A91" s="39" t="s">
+        <v>14</v>
       </c>
       <c r="B91" s="69" t="s">
         <v>2843</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="40" t="s">
-        <v>42</v>
+      <c r="A92" s="38" t="s">
+        <v>39</v>
       </c>
       <c r="B92" s="69" t="s">
         <v>2843</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="41" t="s">
-        <v>44</v>
+      <c r="A93" s="40" t="s">
+        <v>42</v>
       </c>
       <c r="B93" s="69" t="s">
         <v>2843</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="39" t="s">
-        <v>41</v>
+      <c r="A94" s="41" t="s">
+        <v>44</v>
       </c>
       <c r="B94" s="69" t="s">
         <v>2843</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="38" t="s">
-        <v>53</v>
+      <c r="A95" s="39" t="s">
+        <v>41</v>
       </c>
       <c r="B95" s="69" t="s">
         <v>2843</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="40" t="s">
-        <v>55</v>
+      <c r="A96" s="38" t="s">
+        <v>53</v>
       </c>
       <c r="B96" s="69" t="s">
         <v>2843</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="41" t="s">
-        <v>56</v>
+      <c r="A97" s="40" t="s">
+        <v>55</v>
       </c>
       <c r="B97" s="69" t="s">
         <v>2843</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="39" t="s">
-        <v>54</v>
+      <c r="A98" s="41" t="s">
+        <v>56</v>
       </c>
       <c r="B98" s="69" t="s">
         <v>2843</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="46" t="s">
+      <c r="A99" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="B99" s="69" t="s">
+        <v>2843</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="46" t="s">
         <v>20</v>
-      </c>
-      <c r="B99" s="68" t="s">
-        <v>2846</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="48" t="s">
-        <v>24</v>
       </c>
       <c r="B100" s="68" t="s">
         <v>2846</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="49" t="s">
-        <v>26</v>
+      <c r="A101" s="48" t="s">
+        <v>24</v>
       </c>
       <c r="B101" s="68" t="s">
         <v>2846</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="47" t="s">
-        <v>22</v>
+      <c r="A102" s="49" t="s">
+        <v>26</v>
       </c>
       <c r="B102" s="68" t="s">
         <v>2846</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="46" t="s">
-        <v>144</v>
+      <c r="A103" s="47" t="s">
+        <v>22</v>
       </c>
       <c r="B103" s="68" t="s">
         <v>2846</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="47" t="s">
-        <v>146</v>
+      <c r="A104" s="46" t="s">
+        <v>144</v>
       </c>
       <c r="B104" s="68" t="s">
         <v>2846</v>
       </c>
     </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="47" t="s">
+        <v>146</v>
+      </c>
+      <c r="B105" s="68" t="s">
+        <v>2846</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B104" xr:uid="{00000000-0001-0000-0200-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B104">
-      <sortCondition ref="A1:A104"/>
+  <autoFilter ref="A1:B105" xr:uid="{00000000-0001-0000-0200-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B105">
+      <sortCondition ref="A1:A105"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
@@ -23550,23 +24580,23 @@
     <hyperlink ref="B24" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000039000000}"/>
     <hyperlink ref="B29" r:id="rId3" xr:uid="{00000000-0004-0000-0200-00003A000000}"/>
     <hyperlink ref="B30" r:id="rId4" xr:uid="{00000000-0004-0000-0200-00003B000000}"/>
-    <hyperlink ref="B68" r:id="rId5" display="https://www.fs.fed.us/foresthealth/technology/pdfs/WesternRootDiseaseModelV3-0UserGuide2018.pdf" xr:uid="{00000000-0004-0000-0200-000040000000}"/>
-    <hyperlink ref="B69" r:id="rId6" display="https://www.fs.fed.us/foresthealth/technology/pdfs/WesternRootDiseaseModelV3-0UserGuide2018.pdf" xr:uid="{00000000-0004-0000-0200-000041000000}"/>
-    <hyperlink ref="B66" r:id="rId7" display="https://www.fs.fed.us/foresthealth/technology/pdfs/WesternRootDiseaseModelV3-0UserGuide2018.pdf" xr:uid="{00000000-0004-0000-0200-000042000000}"/>
-    <hyperlink ref="B67" r:id="rId8" display="https://www.fs.fed.us/foresthealth/technology/pdfs/WesternRootDiseaseModelV3-0UserGuide2018.pdf" xr:uid="{00000000-0004-0000-0200-000043000000}"/>
-    <hyperlink ref="B64" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000044000000}"/>
-    <hyperlink ref="B65" r:id="rId10" display="https://www.fs.fed.us/foresthealth/technology/pdfs/WesternRootDiseaseModelV3-0UserGuide2018.pdf" xr:uid="{00000000-0004-0000-0200-000045000000}"/>
-    <hyperlink ref="B74" r:id="rId11" display="https://www.fs.fed.us/rm/pubs_int/int_gtr279.pdf" xr:uid="{00000000-0004-0000-0200-000049000000}"/>
-    <hyperlink ref="B75" r:id="rId12" xr:uid="{00000000-0004-0000-0200-00004A000000}"/>
-    <hyperlink ref="B73" r:id="rId13" display="https://www.fs.fed.us/rm/pubs_int/int_gtr279.pdf" xr:uid="{00000000-0004-0000-0200-00004B000000}"/>
-    <hyperlink ref="B70" r:id="rId14" display="https://www.fs.fed.us/rm/pubs_int/int_gtr279.pdf" xr:uid="{00000000-0004-0000-0200-00004C000000}"/>
-    <hyperlink ref="B76" r:id="rId15" display="https://www.fs.fed.us/rm/pubs_int/int_gtr279.pdf" xr:uid="{00000000-0004-0000-0200-00004D000000}"/>
-    <hyperlink ref="B77" r:id="rId16" display="https://www.fs.fed.us/rm/pubs_int/int_gtr279.pdf" xr:uid="{00000000-0004-0000-0200-00004E000000}"/>
-    <hyperlink ref="B71" r:id="rId17" xr:uid="{00000000-0004-0000-0200-00004F000000}"/>
-    <hyperlink ref="B72" r:id="rId18" display="https://www.fs.fed.us/rm/pubs_int/int_gtr279.pdf" xr:uid="{00000000-0004-0000-0200-000050000000}"/>
-    <hyperlink ref="B99" r:id="rId19" xr:uid="{00000000-0004-0000-0200-000051000000}"/>
-    <hyperlink ref="B102" r:id="rId20" display="https://www.fs.fed.us/.ftproot/pub/fmsc/ftp/fvs/docs/gtr/DBSUserGuide.pdf" xr:uid="{00000000-0004-0000-0200-000052000000}"/>
-    <hyperlink ref="B100" r:id="rId21" display="https://www.fs.fed.us/.ftproot/pub/fmsc/ftp/fvs/docs/gtr/DBSUserGuide.pdf" xr:uid="{00000000-0004-0000-0200-000053000000}"/>
+    <hyperlink ref="B69" r:id="rId5" display="https://www.fs.fed.us/foresthealth/technology/pdfs/WesternRootDiseaseModelV3-0UserGuide2018.pdf" xr:uid="{00000000-0004-0000-0200-000040000000}"/>
+    <hyperlink ref="B70" r:id="rId6" display="https://www.fs.fed.us/foresthealth/technology/pdfs/WesternRootDiseaseModelV3-0UserGuide2018.pdf" xr:uid="{00000000-0004-0000-0200-000041000000}"/>
+    <hyperlink ref="B67" r:id="rId7" display="https://www.fs.fed.us/foresthealth/technology/pdfs/WesternRootDiseaseModelV3-0UserGuide2018.pdf" xr:uid="{00000000-0004-0000-0200-000042000000}"/>
+    <hyperlink ref="B68" r:id="rId8" display="https://www.fs.fed.us/foresthealth/technology/pdfs/WesternRootDiseaseModelV3-0UserGuide2018.pdf" xr:uid="{00000000-0004-0000-0200-000043000000}"/>
+    <hyperlink ref="B65" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000044000000}"/>
+    <hyperlink ref="B66" r:id="rId10" display="https://www.fs.fed.us/foresthealth/technology/pdfs/WesternRootDiseaseModelV3-0UserGuide2018.pdf" xr:uid="{00000000-0004-0000-0200-000045000000}"/>
+    <hyperlink ref="B75" r:id="rId11" display="https://www.fs.fed.us/rm/pubs_int/int_gtr279.pdf" xr:uid="{00000000-0004-0000-0200-000049000000}"/>
+    <hyperlink ref="B76" r:id="rId12" xr:uid="{00000000-0004-0000-0200-00004A000000}"/>
+    <hyperlink ref="B74" r:id="rId13" display="https://www.fs.fed.us/rm/pubs_int/int_gtr279.pdf" xr:uid="{00000000-0004-0000-0200-00004B000000}"/>
+    <hyperlink ref="B71" r:id="rId14" display="https://www.fs.fed.us/rm/pubs_int/int_gtr279.pdf" xr:uid="{00000000-0004-0000-0200-00004C000000}"/>
+    <hyperlink ref="B77" r:id="rId15" display="https://www.fs.fed.us/rm/pubs_int/int_gtr279.pdf" xr:uid="{00000000-0004-0000-0200-00004D000000}"/>
+    <hyperlink ref="B78" r:id="rId16" display="https://www.fs.fed.us/rm/pubs_int/int_gtr279.pdf" xr:uid="{00000000-0004-0000-0200-00004E000000}"/>
+    <hyperlink ref="B72" r:id="rId17" xr:uid="{00000000-0004-0000-0200-00004F000000}"/>
+    <hyperlink ref="B73" r:id="rId18" display="https://www.fs.fed.us/rm/pubs_int/int_gtr279.pdf" xr:uid="{00000000-0004-0000-0200-000050000000}"/>
+    <hyperlink ref="B100" r:id="rId19" xr:uid="{00000000-0004-0000-0200-000051000000}"/>
+    <hyperlink ref="B103" r:id="rId20" display="https://www.fs.fed.us/.ftproot/pub/fmsc/ftp/fvs/docs/gtr/DBSUserGuide.pdf" xr:uid="{00000000-0004-0000-0200-000052000000}"/>
+    <hyperlink ref="B101" r:id="rId21" display="https://www.fs.fed.us/.ftproot/pub/fmsc/ftp/fvs/docs/gtr/DBSUserGuide.pdf" xr:uid="{00000000-0004-0000-0200-000053000000}"/>
     <hyperlink ref="B6" r:id="rId22" display="https://www.fs.fed.us/.ftproot/pub/fmsc/ftp/fvs/docs/gtr/DBSUserGuide.pdf" xr:uid="{00000000-0004-0000-0200-000054000000}"/>
     <hyperlink ref="B8" r:id="rId23" display="https://www.fs.fed.us/.ftproot/pub/fmsc/ftp/fvs/docs/gtr/DBSUserGuide.pdf" xr:uid="{00000000-0004-0000-0200-000055000000}"/>
     <hyperlink ref="B11" r:id="rId24" display="https://www.fs.fed.us/.ftproot/pub/fmsc/ftp/fvs/docs/gtr/DBSUserGuide.pdf" xr:uid="{00000000-0004-0000-0200-000056000000}"/>
@@ -23576,13 +24606,13 @@
     <hyperlink ref="B15" r:id="rId28" display="https://www.fs.fed.us/.ftproot/pub/fmsc/ftp/fvs/docs/gtr/DBSUserGuide.pdf" xr:uid="{00000000-0004-0000-0200-00005A000000}"/>
     <hyperlink ref="B13" r:id="rId29" display="https://www.fs.fed.us/.ftproot/pub/fmsc/ftp/fvs/docs/gtr/DBSUserGuide.pdf" xr:uid="{00000000-0004-0000-0200-00005B000000}"/>
     <hyperlink ref="B14" r:id="rId30" display="https://www.fs.fed.us/.ftproot/pub/fmsc/ftp/fvs/docs/gtr/DBSUserGuide.pdf" xr:uid="{00000000-0004-0000-0200-00005C000000}"/>
-    <hyperlink ref="B103" r:id="rId31" display="https://www.fs.fed.us/.ftproot/pub/fmsc/ftp/fvs/docs/gtr/DBSUserGuide.pdf" xr:uid="{00000000-0004-0000-0200-00005D000000}"/>
-    <hyperlink ref="B104" r:id="rId32" display="https://www.fs.fed.us/.ftproot/pub/fmsc/ftp/fvs/docs/gtr/DBSUserGuide.pdf" xr:uid="{00000000-0004-0000-0200-00005E000000}"/>
+    <hyperlink ref="B104" r:id="rId31" display="https://www.fs.fed.us/.ftproot/pub/fmsc/ftp/fvs/docs/gtr/DBSUserGuide.pdf" xr:uid="{00000000-0004-0000-0200-00005D000000}"/>
+    <hyperlink ref="B105" r:id="rId32" display="https://www.fs.fed.us/.ftproot/pub/fmsc/ftp/fvs/docs/gtr/DBSUserGuide.pdf" xr:uid="{00000000-0004-0000-0200-00005E000000}"/>
     <hyperlink ref="B4:B12" r:id="rId33" display="https://www.fs.usda.gov/fmsc/ftp/fvs/docs/gtr/EssentialFVS.pdf" xr:uid="{6CE9C5D9-2F71-47A5-BF06-D125F285F31E}"/>
     <hyperlink ref="B13:B18" r:id="rId34" display="https://www.fs.usda.gov/foresthealth/technology/pdfs/DM_User_Guide_MAG-95-2_2005_nonspatial_20120627.pdf" xr:uid="{0B74CD2B-52AA-47F6-8AD6-59A69ABBF370}"/>
     <hyperlink ref="B36:B37" r:id="rId35" display="https://www.nrs.fs.usda.gov/pubs/gtr/gtr_nrs77.pdf" xr:uid="{04F1A4D5-94B3-4437-AFD1-CF4A65768EDD}"/>
-    <hyperlink ref="B74:B76" r:id="rId36" display="https://www.fs.usda.gov/fmsc/ftp/fvs/docs/gtr/EssentialFVS.pdf" xr:uid="{724622E8-AB0A-455D-A662-F4478FD6CE4A}"/>
-    <hyperlink ref="B68:B73" r:id="rId37" display="https://www.fs.usda.gov/foresthealth/technology/pdfs/WesternRootDiseaseModelV3-0UserGuide2018.pdf" xr:uid="{A45C1C7E-D416-47D7-9699-A4AC25E90D2B}"/>
+    <hyperlink ref="B75:B77" r:id="rId36" display="https://www.fs.usda.gov/fmsc/ftp/fvs/docs/gtr/EssentialFVS.pdf" xr:uid="{724622E8-AB0A-455D-A662-F4478FD6CE4A}"/>
+    <hyperlink ref="B69:B74" r:id="rId37" display="https://www.fs.usda.gov/foresthealth/technology/pdfs/WesternRootDiseaseModelV3-0UserGuide2018.pdf" xr:uid="{A45C1C7E-D416-47D7-9699-A4AC25E90D2B}"/>
     <hyperlink ref="B3:B15" r:id="rId38" display="https://www.fs.usda.gov/fmsc/ftp/fvs/docs/gtr/DBSUserGuide.pdf" xr:uid="{261A95DD-AEFB-4DFB-AD12-27CC80911E1B}"/>
     <hyperlink ref="B16" r:id="rId39" xr:uid="{99236ADD-9300-436C-96C3-C512BE900BF9}"/>
     <hyperlink ref="B17" r:id="rId40" xr:uid="{515E748A-8492-45EB-94A8-590F22C729CA}"/>
@@ -23605,34 +24635,35 @@
     <hyperlink ref="B44:B47" r:id="rId57" display="https://www.fs.usda.gov/fmsc/ftp/fvs/docs/gtr/FFEguide.pdf" xr:uid="{5D1F4559-80C7-4675-BEDC-472837EED4CA}"/>
     <hyperlink ref="B48:B51" r:id="rId58" display="https://www.fs.usda.gov/fmsc/ftp/fvs/docs/gtr/EconUserGuide.pdf" xr:uid="{A583F457-4439-4C58-AD46-5CB86D6E99D5}"/>
     <hyperlink ref="B44" r:id="rId59" xr:uid="{0FFE02AC-96DE-4B2A-966B-4DA4DE6EBB69}"/>
-    <hyperlink ref="B52:B53" r:id="rId60" display="https://www.fs.usda.gov/fmsc/ftp/fvs/docs/gtr/FFEguide.pdf" xr:uid="{0D2FE747-AC1C-49EB-8158-FA57BB210517}"/>
-    <hyperlink ref="B54:B55" r:id="rId61" display="https://www.nrs.fs.usda.gov/pubs/gtr/gtr_nrs77.pdf" xr:uid="{D85991A4-3322-4551-A493-CB23DFF4B7B0}"/>
-    <hyperlink ref="B56:B57" r:id="rId62" display="https://www.fs.usda.gov/fmsc/ftp/fvs/docs/gtr/FFEguide.pdf" xr:uid="{8CAFEC56-B459-40E8-82A9-F5A6FB1A6962}"/>
-    <hyperlink ref="B58:B59" r:id="rId63" display="https://www.fs.usda.gov/fmsc/ftp/fvs/docs/gtr/FFEguide.pdf" xr:uid="{3AC6E603-58BF-4CC3-B5A6-081D533A4FFE}"/>
-    <hyperlink ref="B60:B61" r:id="rId64" display="https://www.fs.usda.gov/fmsc/ftp/fvs/docs/gtr/FFEguide.pdf" xr:uid="{647569C7-260D-47CC-9148-0008679347FE}"/>
-    <hyperlink ref="B62:B63" r:id="rId65" display="https://www.fs.usda.gov/fmsc/ftp/fvs/docs/gtr/FFEguide.pdf" xr:uid="{BC54E847-E9D4-4CD8-B74A-B9B9C0F0B7F0}"/>
-    <hyperlink ref="B56:B63" r:id="rId66" display="https://www.fs.usda.gov/fmsc/ftp/fvs/docs/gtr/FFEguide.pdf" xr:uid="{CA3179BC-646A-4AB0-8CE3-0A1E22EBABC2}"/>
-    <hyperlink ref="B64:B69" r:id="rId67" display="https://www.fs.usda.gov/foresthealth/technology/pdfs/WesternRootDiseaseModelV3-0UserGuide2018.pdf" xr:uid="{230828C7-84A8-4D43-BD31-65033AC6CC31}"/>
-    <hyperlink ref="B70:B77" r:id="rId68" display="https://www.fs.usda.gov/rm/pubs_int/int_gtr279.pdf" xr:uid="{01104C55-42D5-4CB9-B6B4-0F8C1374BB7D}"/>
-    <hyperlink ref="B56" r:id="rId69" xr:uid="{685CAB23-0502-41D9-A9B9-4B74D7F0859D}"/>
-    <hyperlink ref="B78:B79" r:id="rId70" display="https://www.fs.usda.gov/fmsc/ftp/fvs/docs/gtr/FFEguide.pdf" xr:uid="{F2C93C41-06E3-44C2-8674-ED37C386425C}"/>
-    <hyperlink ref="B80" r:id="rId71" xr:uid="{9D3ED900-B4C3-4595-83DB-BEE96C5F7E8F}"/>
-    <hyperlink ref="B78:B80" r:id="rId72" display="https://www.fs.usda.gov/fmsc/ftp/fvs/docs/gtr/FFEguide.pdf" xr:uid="{80B5D81C-3F23-4B1F-AB94-8FB2D60D4A49}"/>
-    <hyperlink ref="B84:B85" r:id="rId73" display="https://www.nrs.fs.usda.gov/pubs/gtr/gtr_nrs77.pdf" xr:uid="{6092A20E-1C93-4B16-A5DC-BA33D21F49E7}"/>
-    <hyperlink ref="B82:B85" r:id="rId74" display="https://www.fs.usda.gov/fmsc/ftp/fvs/docs/gtr/EssentialFVS.pdf" xr:uid="{D74048F6-2C31-4559-8786-6301519E8447}"/>
-    <hyperlink ref="B88:B89" r:id="rId75" display="https://www.nrs.fs.usda.gov/pubs/gtr/gtr_nrs77.pdf" xr:uid="{2DC19F4A-5742-45B5-BD7B-35315179DEF1}"/>
-    <hyperlink ref="B86:B89" r:id="rId76" display="https://www.fs.usda.gov/fmsc/ftp/fvs/docs/gtr/EssentialFVS.pdf" xr:uid="{C5A18F86-90F0-4426-9C33-E0E474ACAAF2}"/>
-    <hyperlink ref="B92:B93" r:id="rId77" display="https://www.nrs.fs.usda.gov/pubs/gtr/gtr_nrs77.pdf" xr:uid="{C6F8C986-2E6C-4EDB-8D18-A7F0DFC14F36}"/>
-    <hyperlink ref="B90:B93" r:id="rId78" display="https://www.fs.usda.gov/fmsc/ftp/fvs/docs/gtr/EssentialFVS.pdf" xr:uid="{4E57FA0B-D60A-4E6C-BB5B-5AEB658C2A22}"/>
-    <hyperlink ref="B96:B97" r:id="rId79" display="https://www.nrs.fs.usda.gov/pubs/gtr/gtr_nrs77.pdf" xr:uid="{FF3ED5FB-BF24-4947-873F-C13912D22236}"/>
-    <hyperlink ref="B94:B97" r:id="rId80" display="https://www.fs.usda.gov/fmsc/ftp/fvs/docs/gtr/EssentialFVS.pdf" xr:uid="{4B8B0D61-F6A6-42D9-8C7D-C83D26C009DE}"/>
-    <hyperlink ref="B94" r:id="rId81" xr:uid="{41672F0C-92B3-416C-85B6-DD3BF44B6A75}"/>
-    <hyperlink ref="B82:B98" r:id="rId82" display="https://www.fs.usda.gov/fmsc/ftp/fvs/docs/gtr/EssentialFVS.pdf" xr:uid="{FE7EEACD-BA94-4DEC-BEDF-120981E57CA1}"/>
-    <hyperlink ref="B99:B104" r:id="rId83" display="https://www.fs.usda.gov/fmsc/ftp/fvs/docs/gtr/DBSUserGuide.pdf" xr:uid="{0D49BF94-3900-4073-B0CC-0EA945AA38D0}"/>
-    <hyperlink ref="B82" r:id="rId84" xr:uid="{5C0D567A-77C4-4720-899D-10CC872FA00B}"/>
+    <hyperlink ref="B53:B54" r:id="rId60" display="https://www.fs.usda.gov/fmsc/ftp/fvs/docs/gtr/FFEguide.pdf" xr:uid="{0D2FE747-AC1C-49EB-8158-FA57BB210517}"/>
+    <hyperlink ref="B55:B56" r:id="rId61" display="https://www.nrs.fs.usda.gov/pubs/gtr/gtr_nrs77.pdf" xr:uid="{D85991A4-3322-4551-A493-CB23DFF4B7B0}"/>
+    <hyperlink ref="B57:B58" r:id="rId62" display="https://www.fs.usda.gov/fmsc/ftp/fvs/docs/gtr/FFEguide.pdf" xr:uid="{8CAFEC56-B459-40E8-82A9-F5A6FB1A6962}"/>
+    <hyperlink ref="B59:B60" r:id="rId63" display="https://www.fs.usda.gov/fmsc/ftp/fvs/docs/gtr/FFEguide.pdf" xr:uid="{3AC6E603-58BF-4CC3-B5A6-081D533A4FFE}"/>
+    <hyperlink ref="B61:B62" r:id="rId64" display="https://www.fs.usda.gov/fmsc/ftp/fvs/docs/gtr/FFEguide.pdf" xr:uid="{647569C7-260D-47CC-9148-0008679347FE}"/>
+    <hyperlink ref="B63:B64" r:id="rId65" display="https://www.fs.usda.gov/fmsc/ftp/fvs/docs/gtr/FFEguide.pdf" xr:uid="{BC54E847-E9D4-4CD8-B74A-B9B9C0F0B7F0}"/>
+    <hyperlink ref="B57:B64" r:id="rId66" display="https://www.fs.usda.gov/fmsc/ftp/fvs/docs/gtr/FFEguide.pdf" xr:uid="{CA3179BC-646A-4AB0-8CE3-0A1E22EBABC2}"/>
+    <hyperlink ref="B65:B70" r:id="rId67" display="https://www.fs.usda.gov/foresthealth/technology/pdfs/WesternRootDiseaseModelV3-0UserGuide2018.pdf" xr:uid="{230828C7-84A8-4D43-BD31-65033AC6CC31}"/>
+    <hyperlink ref="B71:B78" r:id="rId68" display="https://www.fs.usda.gov/rm/pubs_int/int_gtr279.pdf" xr:uid="{01104C55-42D5-4CB9-B6B4-0F8C1374BB7D}"/>
+    <hyperlink ref="B57" r:id="rId69" xr:uid="{685CAB23-0502-41D9-A9B9-4B74D7F0859D}"/>
+    <hyperlink ref="B79:B80" r:id="rId70" display="https://www.fs.usda.gov/fmsc/ftp/fvs/docs/gtr/FFEguide.pdf" xr:uid="{F2C93C41-06E3-44C2-8674-ED37C386425C}"/>
+    <hyperlink ref="B81" r:id="rId71" xr:uid="{9D3ED900-B4C3-4595-83DB-BEE96C5F7E8F}"/>
+    <hyperlink ref="B79:B81" r:id="rId72" display="https://www.fs.usda.gov/fmsc/ftp/fvs/docs/gtr/FFEguide.pdf" xr:uid="{80B5D81C-3F23-4B1F-AB94-8FB2D60D4A49}"/>
+    <hyperlink ref="B85:B86" r:id="rId73" display="https://www.nrs.fs.usda.gov/pubs/gtr/gtr_nrs77.pdf" xr:uid="{6092A20E-1C93-4B16-A5DC-BA33D21F49E7}"/>
+    <hyperlink ref="B83:B86" r:id="rId74" display="https://www.fs.usda.gov/fmsc/ftp/fvs/docs/gtr/EssentialFVS.pdf" xr:uid="{D74048F6-2C31-4559-8786-6301519E8447}"/>
+    <hyperlink ref="B89:B90" r:id="rId75" display="https://www.nrs.fs.usda.gov/pubs/gtr/gtr_nrs77.pdf" xr:uid="{2DC19F4A-5742-45B5-BD7B-35315179DEF1}"/>
+    <hyperlink ref="B87:B90" r:id="rId76" display="https://www.fs.usda.gov/fmsc/ftp/fvs/docs/gtr/EssentialFVS.pdf" xr:uid="{C5A18F86-90F0-4426-9C33-E0E474ACAAF2}"/>
+    <hyperlink ref="B93:B94" r:id="rId77" display="https://www.nrs.fs.usda.gov/pubs/gtr/gtr_nrs77.pdf" xr:uid="{C6F8C986-2E6C-4EDB-8D18-A7F0DFC14F36}"/>
+    <hyperlink ref="B91:B94" r:id="rId78" display="https://www.fs.usda.gov/fmsc/ftp/fvs/docs/gtr/EssentialFVS.pdf" xr:uid="{4E57FA0B-D60A-4E6C-BB5B-5AEB658C2A22}"/>
+    <hyperlink ref="B97:B98" r:id="rId79" display="https://www.nrs.fs.usda.gov/pubs/gtr/gtr_nrs77.pdf" xr:uid="{FF3ED5FB-BF24-4947-873F-C13912D22236}"/>
+    <hyperlink ref="B95:B98" r:id="rId80" display="https://www.fs.usda.gov/fmsc/ftp/fvs/docs/gtr/EssentialFVS.pdf" xr:uid="{4B8B0D61-F6A6-42D9-8C7D-C83D26C009DE}"/>
+    <hyperlink ref="B95" r:id="rId81" xr:uid="{41672F0C-92B3-416C-85B6-DD3BF44B6A75}"/>
+    <hyperlink ref="B83:B99" r:id="rId82" display="https://www.fs.usda.gov/fmsc/ftp/fvs/docs/gtr/EssentialFVS.pdf" xr:uid="{FE7EEACD-BA94-4DEC-BEDF-120981E57CA1}"/>
+    <hyperlink ref="B100:B105" r:id="rId83" display="https://www.fs.usda.gov/fmsc/ftp/fvs/docs/gtr/DBSUserGuide.pdf" xr:uid="{0D49BF94-3900-4073-B0CC-0EA945AA38D0}"/>
+    <hyperlink ref="B83" r:id="rId84" xr:uid="{5C0D567A-77C4-4720-899D-10CC872FA00B}"/>
     <hyperlink ref="B27" r:id="rId85" xr:uid="{CCFFDACD-3E7F-45A7-A1E2-D0739704B4CD}"/>
-    <hyperlink ref="B81" r:id="rId86" xr:uid="{5BE80ACC-66C8-4939-BC9C-678BE69A216A}"/>
+    <hyperlink ref="B82" r:id="rId86" xr:uid="{5BE80ACC-66C8-4939-BC9C-678BE69A216A}"/>
     <hyperlink ref="B2" r:id="rId87" xr:uid="{0D24E4ED-2BFA-4687-B9F6-2AEA971D5593}"/>
+    <hyperlink ref="B52" r:id="rId88" display="https://www.fs.fed.us/.ftproot/pub/fmsc/ftp/fvs/docs/gtr/DBSUserGuide.pdf" xr:uid="{8538335B-E89C-406D-8EE9-64CBF662D27C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
